--- a/BackTest/2020-01-26 BackTest MTL.xlsx
+++ b/BackTest/2020-01-26 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M156"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>268.1</v>
       </c>
       <c r="F2" t="n">
-        <v>255.8105</v>
+        <v>300</v>
       </c>
       <c r="G2" t="n">
-        <v>269.7233333333331</v>
+        <v>269.7866666666664</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>268.1</v>
       </c>
       <c r="C3" t="n">
-        <v>268</v>
+        <v>268.1</v>
       </c>
       <c r="D3" t="n">
         <v>268.1</v>
       </c>
       <c r="E3" t="n">
-        <v>268</v>
+        <v>268.1</v>
       </c>
       <c r="F3" t="n">
-        <v>6296.7658</v>
+        <v>255.8105</v>
       </c>
       <c r="G3" t="n">
-        <v>269.6566666666665</v>
+        <v>269.7233333333331</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>268.1</v>
+      </c>
+      <c r="C4" t="n">
         <v>268</v>
       </c>
-      <c r="C4" t="n">
-        <v>267.7</v>
-      </c>
       <c r="D4" t="n">
+        <v>268.1</v>
+      </c>
+      <c r="E4" t="n">
         <v>268</v>
       </c>
-      <c r="E4" t="n">
-        <v>267.7</v>
-      </c>
       <c r="F4" t="n">
-        <v>4676</v>
+        <v>6296.7658</v>
       </c>
       <c r="G4" t="n">
-        <v>269.5816666666664</v>
+        <v>269.6566666666665</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>268</v>
+      </c>
+      <c r="C5" t="n">
         <v>267.7</v>
       </c>
-      <c r="C5" t="n">
-        <v>268.9</v>
-      </c>
       <c r="D5" t="n">
-        <v>268.9</v>
+        <v>268</v>
       </c>
       <c r="E5" t="n">
         <v>267.7</v>
       </c>
       <c r="F5" t="n">
-        <v>14089.4452</v>
+        <v>4676</v>
       </c>
       <c r="G5" t="n">
-        <v>269.5166666666665</v>
+        <v>269.5816666666664</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>267.7</v>
       </c>
       <c r="C6" t="n">
-        <v>267.7</v>
+        <v>268.9</v>
       </c>
       <c r="D6" t="n">
-        <v>267.7</v>
+        <v>268.9</v>
       </c>
       <c r="E6" t="n">
         <v>267.7</v>
       </c>
       <c r="F6" t="n">
-        <v>162.93</v>
+        <v>14089.4452</v>
       </c>
       <c r="G6" t="n">
-        <v>269.4483333333332</v>
+        <v>269.5166666666665</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>267.7</v>
       </c>
       <c r="C7" t="n">
-        <v>267.5</v>
+        <v>267.7</v>
       </c>
       <c r="D7" t="n">
         <v>267.7</v>
       </c>
       <c r="E7" t="n">
-        <v>267.5</v>
+        <v>267.7</v>
       </c>
       <c r="F7" t="n">
-        <v>3053.3728</v>
+        <v>162.93</v>
       </c>
       <c r="G7" t="n">
-        <v>269.3783333333332</v>
+        <v>269.4483333333332</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>267.5</v>
+        <v>267.7</v>
       </c>
       <c r="C8" t="n">
         <v>267.5</v>
       </c>
       <c r="D8" t="n">
-        <v>267.5</v>
+        <v>267.7</v>
       </c>
       <c r="E8" t="n">
         <v>267.5</v>
       </c>
       <c r="F8" t="n">
-        <v>5017.8907</v>
+        <v>3053.3728</v>
       </c>
       <c r="G8" t="n">
-        <v>269.3066666666665</v>
+        <v>269.3783333333332</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>267.5</v>
       </c>
       <c r="C9" t="n">
-        <v>267</v>
+        <v>267.5</v>
       </c>
       <c r="D9" t="n">
         <v>267.5</v>
       </c>
       <c r="E9" t="n">
-        <v>267</v>
+        <v>267.5</v>
       </c>
       <c r="F9" t="n">
-        <v>20133.9437</v>
+        <v>5017.8907</v>
       </c>
       <c r="G9" t="n">
-        <v>269.2566666666665</v>
+        <v>269.3066666666665</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>267.1</v>
+        <v>267.5</v>
       </c>
       <c r="C10" t="n">
-        <v>267.1</v>
+        <v>267</v>
       </c>
       <c r="D10" t="n">
-        <v>267.1</v>
+        <v>267.5</v>
       </c>
       <c r="E10" t="n">
-        <v>267.1</v>
+        <v>267</v>
       </c>
       <c r="F10" t="n">
-        <v>1716.5677</v>
+        <v>20133.9437</v>
       </c>
       <c r="G10" t="n">
-        <v>269.2083333333331</v>
+        <v>269.2566666666665</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>267.1</v>
       </c>
       <c r="C11" t="n">
-        <v>266.6</v>
+        <v>267.1</v>
       </c>
       <c r="D11" t="n">
         <v>267.1</v>
       </c>
       <c r="E11" t="n">
-        <v>266.6</v>
+        <v>267.1</v>
       </c>
       <c r="F11" t="n">
-        <v>10162.2665</v>
+        <v>1716.5677</v>
       </c>
       <c r="G11" t="n">
-        <v>269.1483333333331</v>
+        <v>269.2083333333331</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>266.7</v>
+        <v>267.1</v>
       </c>
       <c r="C12" t="n">
         <v>266.6</v>
       </c>
       <c r="D12" t="n">
-        <v>266.7</v>
+        <v>267.1</v>
       </c>
       <c r="E12" t="n">
         <v>266.6</v>
       </c>
       <c r="F12" t="n">
-        <v>1529.7362</v>
+        <v>10162.2665</v>
       </c>
       <c r="G12" t="n">
-        <v>269.0883333333331</v>
+        <v>269.1483333333331</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>266.7</v>
+      </c>
+      <c r="C13" t="n">
         <v>266.6</v>
       </c>
-      <c r="C13" t="n">
-        <v>267.7</v>
-      </c>
       <c r="D13" t="n">
-        <v>267.7</v>
+        <v>266.7</v>
       </c>
       <c r="E13" t="n">
         <v>266.6</v>
       </c>
       <c r="F13" t="n">
-        <v>1524.1241</v>
+        <v>1529.7362</v>
       </c>
       <c r="G13" t="n">
-        <v>269.0466666666664</v>
+        <v>269.0883333333331</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>267.7</v>
+        <v>266.6</v>
       </c>
       <c r="C14" t="n">
         <v>267.7</v>
@@ -862,13 +862,13 @@
         <v>267.7</v>
       </c>
       <c r="E14" t="n">
-        <v>267.7</v>
+        <v>266.6</v>
       </c>
       <c r="F14" t="n">
-        <v>2390.7324</v>
+        <v>1524.1241</v>
       </c>
       <c r="G14" t="n">
-        <v>269.0083333333331</v>
+        <v>269.0466666666664</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>267.2</v>
+        <v>267.7</v>
       </c>
       <c r="C15" t="n">
-        <v>267.2</v>
+        <v>267.7</v>
       </c>
       <c r="D15" t="n">
-        <v>267.2</v>
+        <v>267.7</v>
       </c>
       <c r="E15" t="n">
-        <v>267.2</v>
+        <v>267.7</v>
       </c>
       <c r="F15" t="n">
-        <v>703.2109</v>
+        <v>2390.7324</v>
       </c>
       <c r="G15" t="n">
-        <v>268.9749999999997</v>
+        <v>269.0083333333331</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>267.2</v>
       </c>
       <c r="F16" t="n">
-        <v>3296.7891</v>
+        <v>703.2109</v>
       </c>
       <c r="G16" t="n">
-        <v>268.9033333333331</v>
+        <v>268.9749999999997</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>267.2</v>
       </c>
       <c r="F17" t="n">
-        <v>2302.9839</v>
+        <v>3296.7891</v>
       </c>
       <c r="G17" t="n">
-        <v>268.8349999999998</v>
+        <v>268.9033333333331</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>266.5</v>
+        <v>267.2</v>
       </c>
       <c r="C18" t="n">
-        <v>265.5</v>
+        <v>267.2</v>
       </c>
       <c r="D18" t="n">
-        <v>266.5</v>
+        <v>267.2</v>
       </c>
       <c r="E18" t="n">
-        <v>265.5</v>
+        <v>267.2</v>
       </c>
       <c r="F18" t="n">
-        <v>17731.0287</v>
+        <v>2302.9839</v>
       </c>
       <c r="G18" t="n">
-        <v>268.7733333333331</v>
+        <v>268.8349999999998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>266.3</v>
+        <v>266.5</v>
       </c>
       <c r="C19" t="n">
-        <v>266.3</v>
+        <v>265.5</v>
       </c>
       <c r="D19" t="n">
-        <v>266.3</v>
+        <v>266.5</v>
       </c>
       <c r="E19" t="n">
-        <v>266.3</v>
+        <v>265.5</v>
       </c>
       <c r="F19" t="n">
-        <v>169.3307</v>
+        <v>17731.0287</v>
       </c>
       <c r="G19" t="n">
-        <v>268.7283333333331</v>
+        <v>268.7733333333331</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>265.6</v>
+        <v>266.3</v>
       </c>
       <c r="C20" t="n">
-        <v>265.6</v>
+        <v>266.3</v>
       </c>
       <c r="D20" t="n">
-        <v>265.6</v>
+        <v>266.3</v>
       </c>
       <c r="E20" t="n">
-        <v>265.6</v>
+        <v>266.3</v>
       </c>
       <c r="F20" t="n">
-        <v>2455.8765</v>
+        <v>169.3307</v>
       </c>
       <c r="G20" t="n">
-        <v>268.6516666666664</v>
+        <v>268.7283333333331</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>265.5</v>
+        <v>265.6</v>
       </c>
       <c r="C21" t="n">
-        <v>265.5</v>
+        <v>265.6</v>
       </c>
       <c r="D21" t="n">
-        <v>265.5</v>
+        <v>265.6</v>
       </c>
       <c r="E21" t="n">
-        <v>265.5</v>
+        <v>265.6</v>
       </c>
       <c r="F21" t="n">
-        <v>42.3061</v>
+        <v>2455.8765</v>
       </c>
       <c r="G21" t="n">
-        <v>268.573333333333</v>
+        <v>268.6516666666664</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>265.3</v>
+        <v>265.5</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3</v>
+        <v>265.5</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3</v>
+        <v>265.5</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3</v>
+        <v>265.5</v>
       </c>
       <c r="F22" t="n">
-        <v>1844.9206</v>
+        <v>42.3061</v>
       </c>
       <c r="G22" t="n">
-        <v>268.4949999999997</v>
+        <v>268.573333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>265.3</v>
       </c>
       <c r="C23" t="n">
-        <v>265.1</v>
+        <v>265.3</v>
       </c>
       <c r="D23" t="n">
         <v>265.3</v>
       </c>
       <c r="E23" t="n">
-        <v>265.1</v>
+        <v>265.3</v>
       </c>
       <c r="F23" t="n">
-        <v>20000</v>
+        <v>1844.9206</v>
       </c>
       <c r="G23" t="n">
-        <v>268.4299999999997</v>
+        <v>268.4949999999997</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>265.3</v>
+      </c>
+      <c r="C24" t="n">
         <v>265.1</v>
       </c>
-      <c r="C24" t="n">
-        <v>265</v>
-      </c>
       <c r="D24" t="n">
+        <v>265.3</v>
+      </c>
+      <c r="E24" t="n">
         <v>265.1</v>
       </c>
-      <c r="E24" t="n">
-        <v>265</v>
-      </c>
       <c r="F24" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G24" t="n">
-        <v>268.3633333333331</v>
+        <v>268.4299999999997</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>10000</v>
       </c>
       <c r="G25" t="n">
-        <v>268.2966666666664</v>
+        <v>268.3633333333331</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>265</v>
+        <v>265.1</v>
       </c>
       <c r="C26" t="n">
         <v>265</v>
       </c>
       <c r="D26" t="n">
-        <v>265</v>
+        <v>265.1</v>
       </c>
       <c r="E26" t="n">
         <v>265</v>
       </c>
       <c r="F26" t="n">
-        <v>4149.4271</v>
+        <v>10000</v>
       </c>
       <c r="G26" t="n">
-        <v>268.2299999999997</v>
+        <v>268.2966666666664</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>265</v>
       </c>
       <c r="F27" t="n">
-        <v>1017.3572</v>
+        <v>4149.4271</v>
       </c>
       <c r="G27" t="n">
-        <v>268.1633333333331</v>
+        <v>268.2299999999997</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>265</v>
       </c>
       <c r="F28" t="n">
-        <v>1400</v>
+        <v>1017.3572</v>
       </c>
       <c r="G28" t="n">
-        <v>268.0966666666664</v>
+        <v>268.1633333333331</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>265</v>
       </c>
       <c r="C29" t="n">
-        <v>265.3</v>
+        <v>265</v>
       </c>
       <c r="D29" t="n">
-        <v>265.3</v>
+        <v>265</v>
       </c>
       <c r="E29" t="n">
         <v>265</v>
       </c>
       <c r="F29" t="n">
-        <v>7507.9753</v>
+        <v>1400</v>
       </c>
       <c r="G29" t="n">
-        <v>268.0349999999997</v>
+        <v>268.0966666666664</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,32 +1416,28 @@
         <v>265</v>
       </c>
       <c r="C30" t="n">
-        <v>265</v>
+        <v>265.3</v>
       </c>
       <c r="D30" t="n">
-        <v>265</v>
+        <v>265.3</v>
       </c>
       <c r="E30" t="n">
         <v>265</v>
       </c>
       <c r="F30" t="n">
-        <v>700</v>
+        <v>7507.9753</v>
       </c>
       <c r="G30" t="n">
-        <v>267.968333333333</v>
+        <v>268.0349999999997</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>265.3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>265.3</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
@@ -1464,981 +1460,841 @@
         <v>265</v>
       </c>
       <c r="F31" t="n">
+        <v>700</v>
+      </c>
+      <c r="G31" t="n">
+        <v>267.968333333333</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>265</v>
+      </c>
+      <c r="C32" t="n">
+        <v>265</v>
+      </c>
+      <c r="D32" t="n">
+        <v>265</v>
+      </c>
+      <c r="E32" t="n">
+        <v>265</v>
+      </c>
+      <c r="F32" t="n">
         <v>992.2332</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G32" t="n">
         <v>267.8849999999997</v>
       </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>265.9</v>
+      </c>
+      <c r="C33" t="n">
+        <v>265.9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>265.9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>265.9</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1700</v>
+      </c>
+      <c r="G33" t="n">
+        <v>267.8166666666664</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>265.4</v>
+      </c>
+      <c r="C34" t="n">
+        <v>265.4</v>
+      </c>
+      <c r="D34" t="n">
+        <v>265.4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>265.4</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1275</v>
+      </c>
+      <c r="G34" t="n">
+        <v>267.7549999999997</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>265.4</v>
+      </c>
+      <c r="C35" t="n">
         <v>265</v>
       </c>
-      <c r="K31" t="n">
-        <v>265.3</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="D35" t="n">
+        <v>265.4</v>
+      </c>
+      <c r="E35" t="n">
+        <v>265</v>
+      </c>
+      <c r="F35" t="n">
+        <v>610.5300999999999</v>
+      </c>
+      <c r="G35" t="n">
+        <v>267.6799999999997</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>265.8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>265.8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>265.8</v>
+      </c>
+      <c r="E36" t="n">
+        <v>265.8</v>
+      </c>
+      <c r="F36" t="n">
+        <v>394.3662</v>
+      </c>
+      <c r="G36" t="n">
+        <v>267.598333333333</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>265</v>
+      </c>
+      <c r="D37" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>265</v>
+      </c>
+      <c r="F37" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>267.5299999999996</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>265</v>
+      </c>
+      <c r="C38" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="D38" t="n">
+        <v>265</v>
+      </c>
+      <c r="E38" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="F38" t="n">
+        <v>47141.5976</v>
+      </c>
+      <c r="G38" t="n">
+        <v>267.443333333333</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>264</v>
+      </c>
+      <c r="C39" t="n">
+        <v>262.8</v>
+      </c>
+      <c r="D39" t="n">
+        <v>264</v>
+      </c>
+      <c r="E39" t="n">
+        <v>262.8</v>
+      </c>
+      <c r="F39" t="n">
+        <v>12858.5616</v>
+      </c>
+      <c r="G39" t="n">
+        <v>267.3399999999996</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="C40" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="D40" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="E40" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="F40" t="n">
+        <v>146.3</v>
+      </c>
+      <c r="G40" t="n">
+        <v>267.2549999999996</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="C41" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="D41" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="E41" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="F41" t="n">
+        <v>996.1236</v>
+      </c>
+      <c r="G41" t="n">
+        <v>267.1516666666663</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="C42" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="D42" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="E42" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2579.0737</v>
+      </c>
+      <c r="G42" t="n">
+        <v>267.0483333333329</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="D43" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="E43" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="F43" t="n">
+        <v>164.2747</v>
+      </c>
+      <c r="G43" t="n">
+        <v>266.9633333333329</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>264</v>
+      </c>
+      <c r="C44" t="n">
+        <v>264</v>
+      </c>
+      <c r="D44" t="n">
+        <v>264</v>
+      </c>
+      <c r="E44" t="n">
+        <v>264</v>
+      </c>
+      <c r="F44" t="n">
+        <v>12.1541</v>
+      </c>
+      <c r="G44" t="n">
+        <v>266.8566666666663</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>264</v>
+      </c>
+      <c r="C45" t="n">
+        <v>263.7</v>
+      </c>
+      <c r="D45" t="n">
+        <v>264</v>
+      </c>
+      <c r="E45" t="n">
+        <v>263.7</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2751.5867</v>
+      </c>
+      <c r="G45" t="n">
+        <v>266.7683333333329</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>265.2</v>
+      </c>
+      <c r="C46" t="n">
+        <v>265.2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>265.2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>265.2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3.7836</v>
+      </c>
+      <c r="G46" t="n">
+        <v>266.7049999999996</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>263.2</v>
+      </c>
+      <c r="C47" t="n">
+        <v>263.2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>263.2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>263.2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2810</v>
+      </c>
+      <c r="G47" t="n">
+        <v>266.608333333333</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>264</v>
+      </c>
+      <c r="C48" t="n">
+        <v>264</v>
+      </c>
+      <c r="D48" t="n">
+        <v>264</v>
+      </c>
+      <c r="E48" t="n">
+        <v>264</v>
+      </c>
+      <c r="F48" t="n">
+        <v>757.2271</v>
+      </c>
+      <c r="G48" t="n">
+        <v>266.5249999999996</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>264</v>
+      </c>
+      <c r="C49" t="n">
+        <v>264</v>
+      </c>
+      <c r="D49" t="n">
+        <v>264</v>
+      </c>
+      <c r="E49" t="n">
+        <v>264</v>
+      </c>
+      <c r="F49" t="n">
+        <v>80</v>
+      </c>
+      <c r="G49" t="n">
+        <v>266.4416666666663</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>264</v>
+      </c>
+      <c r="C50" t="n">
+        <v>264</v>
+      </c>
+      <c r="D50" t="n">
+        <v>264</v>
+      </c>
+      <c r="E50" t="n">
+        <v>264</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1070.321</v>
+      </c>
+      <c r="G50" t="n">
+        <v>266.3299999999996</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>264</v>
+      </c>
+      <c r="C51" t="n">
+        <v>264</v>
+      </c>
+      <c r="D51" t="n">
+        <v>264</v>
+      </c>
+      <c r="E51" t="n">
+        <v>264</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1601.6946</v>
+      </c>
+      <c r="G51" t="n">
+        <v>266.213333333333</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>264</v>
+      </c>
+      <c r="C52" t="n">
+        <v>264</v>
+      </c>
+      <c r="D52" t="n">
+        <v>264</v>
+      </c>
+      <c r="E52" t="n">
+        <v>264</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2468.7405</v>
+      </c>
+      <c r="G52" t="n">
+        <v>266.083333333333</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>264</v>
+      </c>
+      <c r="K52" t="n">
+        <v>264</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>264</v>
+      </c>
+      <c r="C53" t="n">
+        <v>264</v>
+      </c>
+      <c r="D53" t="n">
+        <v>264</v>
+      </c>
+      <c r="E53" t="n">
+        <v>264</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1631.8495</v>
+      </c>
+      <c r="G53" t="n">
+        <v>265.983333333333</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>264</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="C32" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="D32" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="E32" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1700</v>
-      </c>
-      <c r="G32" t="n">
-        <v>267.8166666666664</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>265</v>
-      </c>
-      <c r="K32" t="n">
-        <v>265.3</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>264</v>
+      </c>
+      <c r="C54" t="n">
+        <v>264</v>
+      </c>
+      <c r="D54" t="n">
+        <v>264</v>
+      </c>
+      <c r="E54" t="n">
+        <v>264</v>
+      </c>
+      <c r="F54" t="n">
+        <v>934.1673</v>
+      </c>
+      <c r="G54" t="n">
+        <v>265.8999999999996</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>264</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>265.4</v>
-      </c>
-      <c r="C33" t="n">
-        <v>265.4</v>
-      </c>
-      <c r="D33" t="n">
-        <v>265.4</v>
-      </c>
-      <c r="E33" t="n">
-        <v>265.4</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1275</v>
-      </c>
-      <c r="G33" t="n">
-        <v>267.7549999999997</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="K33" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>265.4</v>
-      </c>
-      <c r="C34" t="n">
-        <v>265</v>
-      </c>
-      <c r="D34" t="n">
-        <v>265.4</v>
-      </c>
-      <c r="E34" t="n">
-        <v>265</v>
-      </c>
-      <c r="F34" t="n">
-        <v>610.5300999999999</v>
-      </c>
-      <c r="G34" t="n">
-        <v>267.6799999999997</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>265.4</v>
-      </c>
-      <c r="K34" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>265.8</v>
-      </c>
-      <c r="C35" t="n">
-        <v>265.8</v>
-      </c>
-      <c r="D35" t="n">
-        <v>265.8</v>
-      </c>
-      <c r="E35" t="n">
-        <v>265.8</v>
-      </c>
-      <c r="F35" t="n">
-        <v>394.3662</v>
-      </c>
-      <c r="G35" t="n">
-        <v>267.598333333333</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>265</v>
-      </c>
-      <c r="K35" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="C36" t="n">
-        <v>265</v>
-      </c>
-      <c r="D36" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="E36" t="n">
-        <v>265</v>
-      </c>
-      <c r="F36" t="n">
-        <v>14000</v>
-      </c>
-      <c r="G36" t="n">
-        <v>267.5299999999996</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>265.8</v>
-      </c>
-      <c r="K36" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>265</v>
-      </c>
-      <c r="C37" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="D37" t="n">
-        <v>265</v>
-      </c>
-      <c r="E37" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="F37" t="n">
-        <v>47141.5976</v>
-      </c>
-      <c r="G37" t="n">
-        <v>267.443333333333</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>264</v>
-      </c>
-      <c r="C38" t="n">
-        <v>262.8</v>
-      </c>
-      <c r="D38" t="n">
-        <v>264</v>
-      </c>
-      <c r="E38" t="n">
-        <v>262.8</v>
-      </c>
-      <c r="F38" t="n">
-        <v>12858.5616</v>
-      </c>
-      <c r="G38" t="n">
-        <v>267.3399999999996</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="C39" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="D39" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="E39" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="F39" t="n">
-        <v>146.3</v>
-      </c>
-      <c r="G39" t="n">
-        <v>267.2549999999996</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="C40" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="D40" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="E40" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="F40" t="n">
-        <v>996.1236</v>
-      </c>
-      <c r="G40" t="n">
-        <v>267.1516666666663</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="C41" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="D41" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="E41" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2579.0737</v>
-      </c>
-      <c r="G41" t="n">
-        <v>267.0483333333329</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="C42" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="D42" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="E42" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="F42" t="n">
-        <v>164.2747</v>
-      </c>
-      <c r="G42" t="n">
-        <v>266.9633333333329</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>264</v>
-      </c>
-      <c r="C43" t="n">
-        <v>264</v>
-      </c>
-      <c r="D43" t="n">
-        <v>264</v>
-      </c>
-      <c r="E43" t="n">
-        <v>264</v>
-      </c>
-      <c r="F43" t="n">
-        <v>12.1541</v>
-      </c>
-      <c r="G43" t="n">
-        <v>266.8566666666663</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>264</v>
-      </c>
-      <c r="C44" t="n">
-        <v>263.7</v>
-      </c>
-      <c r="D44" t="n">
-        <v>264</v>
-      </c>
-      <c r="E44" t="n">
-        <v>263.7</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2751.5867</v>
-      </c>
-      <c r="G44" t="n">
-        <v>266.7683333333329</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>265.2</v>
-      </c>
-      <c r="C45" t="n">
-        <v>265.2</v>
-      </c>
-      <c r="D45" t="n">
-        <v>265.2</v>
-      </c>
-      <c r="E45" t="n">
-        <v>265.2</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3.7836</v>
-      </c>
-      <c r="G45" t="n">
-        <v>266.7049999999996</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>263.2</v>
-      </c>
-      <c r="C46" t="n">
-        <v>263.2</v>
-      </c>
-      <c r="D46" t="n">
-        <v>263.2</v>
-      </c>
-      <c r="E46" t="n">
-        <v>263.2</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2810</v>
-      </c>
-      <c r="G46" t="n">
-        <v>266.608333333333</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>264</v>
-      </c>
-      <c r="C47" t="n">
-        <v>264</v>
-      </c>
-      <c r="D47" t="n">
-        <v>264</v>
-      </c>
-      <c r="E47" t="n">
-        <v>264</v>
-      </c>
-      <c r="F47" t="n">
-        <v>757.2271</v>
-      </c>
-      <c r="G47" t="n">
-        <v>266.5249999999996</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>264</v>
-      </c>
-      <c r="C48" t="n">
-        <v>264</v>
-      </c>
-      <c r="D48" t="n">
-        <v>264</v>
-      </c>
-      <c r="E48" t="n">
-        <v>264</v>
-      </c>
-      <c r="F48" t="n">
-        <v>80</v>
-      </c>
-      <c r="G48" t="n">
-        <v>266.4416666666663</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>264</v>
-      </c>
-      <c r="C49" t="n">
-        <v>264</v>
-      </c>
-      <c r="D49" t="n">
-        <v>264</v>
-      </c>
-      <c r="E49" t="n">
-        <v>264</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1070.321</v>
-      </c>
-      <c r="G49" t="n">
-        <v>266.3299999999996</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>264</v>
-      </c>
-      <c r="C50" t="n">
-        <v>264</v>
-      </c>
-      <c r="D50" t="n">
-        <v>264</v>
-      </c>
-      <c r="E50" t="n">
-        <v>264</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1601.6946</v>
-      </c>
-      <c r="G50" t="n">
-        <v>266.213333333333</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>264</v>
-      </c>
-      <c r="C51" t="n">
-        <v>264</v>
-      </c>
-      <c r="D51" t="n">
-        <v>264</v>
-      </c>
-      <c r="E51" t="n">
-        <v>264</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2468.7405</v>
-      </c>
-      <c r="G51" t="n">
-        <v>266.083333333333</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>264</v>
-      </c>
-      <c r="C52" t="n">
-        <v>264</v>
-      </c>
-      <c r="D52" t="n">
-        <v>264</v>
-      </c>
-      <c r="E52" t="n">
-        <v>264</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1631.8495</v>
-      </c>
-      <c r="G52" t="n">
-        <v>265.983333333333</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>264</v>
-      </c>
-      <c r="K52" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>264</v>
-      </c>
-      <c r="C53" t="n">
-        <v>264</v>
-      </c>
-      <c r="D53" t="n">
-        <v>264</v>
-      </c>
-      <c r="E53" t="n">
-        <v>264</v>
-      </c>
-      <c r="F53" t="n">
-        <v>934.1673</v>
-      </c>
-      <c r="G53" t="n">
-        <v>265.8999999999996</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>264</v>
-      </c>
-      <c r="K53" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>264</v>
-      </c>
-      <c r="C54" t="n">
-        <v>264</v>
-      </c>
-      <c r="D54" t="n">
-        <v>264</v>
-      </c>
-      <c r="E54" t="n">
-        <v>264</v>
-      </c>
-      <c r="F54" t="n">
-        <v>4500</v>
-      </c>
-      <c r="G54" t="n">
-        <v>265.8199999999997</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2448,22 +2304,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>266.4</v>
+        <v>264</v>
       </c>
       <c r="C55" t="n">
-        <v>266.4</v>
+        <v>264</v>
       </c>
       <c r="D55" t="n">
-        <v>266.4</v>
+        <v>264</v>
       </c>
       <c r="E55" t="n">
-        <v>266.4</v>
+        <v>264</v>
       </c>
       <c r="F55" t="n">
-        <v>126.9999</v>
+        <v>4500</v>
       </c>
       <c r="G55" t="n">
-        <v>265.7799999999996</v>
+        <v>265.8199999999997</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2472,14 +2328,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2501,10 +2351,10 @@
         <v>266.4</v>
       </c>
       <c r="F56" t="n">
-        <v>317.4575</v>
+        <v>126.9999</v>
       </c>
       <c r="G56" t="n">
-        <v>265.7416666666663</v>
+        <v>265.7799999999996</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2513,14 +2363,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2530,22 +2374,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>266</v>
+        <v>266.4</v>
       </c>
       <c r="C57" t="n">
-        <v>267</v>
+        <v>266.4</v>
       </c>
       <c r="D57" t="n">
-        <v>267</v>
+        <v>266.4</v>
       </c>
       <c r="E57" t="n">
-        <v>266</v>
+        <v>266.4</v>
       </c>
       <c r="F57" t="n">
-        <v>2420</v>
+        <v>317.4575</v>
       </c>
       <c r="G57" t="n">
-        <v>265.7166666666663</v>
+        <v>265.7416666666663</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2554,14 +2398,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2571,7 +2409,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C58" t="n">
         <v>267</v>
@@ -2580,13 +2418,13 @@
         <v>267</v>
       </c>
       <c r="E58" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F58" t="n">
-        <v>1140</v>
+        <v>2420</v>
       </c>
       <c r="G58" t="n">
-        <v>265.698333333333</v>
+        <v>265.7166666666663</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2595,14 +2433,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2612,7 +2444,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>266.9</v>
+        <v>267</v>
       </c>
       <c r="C59" t="n">
         <v>267</v>
@@ -2621,13 +2453,13 @@
         <v>267</v>
       </c>
       <c r="E59" t="n">
-        <v>266.9</v>
+        <v>267</v>
       </c>
       <c r="F59" t="n">
-        <v>2075.6225</v>
+        <v>1140</v>
       </c>
       <c r="G59" t="n">
-        <v>265.6799999999996</v>
+        <v>265.698333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2636,14 +2468,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2653,7 +2479,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>267</v>
+        <v>266.9</v>
       </c>
       <c r="C60" t="n">
         <v>267</v>
@@ -2662,13 +2488,13 @@
         <v>267</v>
       </c>
       <c r="E60" t="n">
-        <v>267</v>
+        <v>266.9</v>
       </c>
       <c r="F60" t="n">
-        <v>1070.321</v>
+        <v>2075.6225</v>
       </c>
       <c r="G60" t="n">
-        <v>265.6616666666663</v>
+        <v>265.6799999999996</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2677,14 +2503,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2706,10 +2526,10 @@
         <v>267</v>
       </c>
       <c r="F61" t="n">
-        <v>106.8202</v>
+        <v>1070.321</v>
       </c>
       <c r="G61" t="n">
-        <v>265.6433333333329</v>
+        <v>265.6616666666663</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2718,14 +2538,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2735,22 +2549,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C62" t="n">
-        <v>267.8</v>
+        <v>267</v>
       </c>
       <c r="D62" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E62" t="n">
-        <v>267.8</v>
+        <v>267</v>
       </c>
       <c r="F62" t="n">
-        <v>4569.1213</v>
+        <v>106.8202</v>
       </c>
       <c r="G62" t="n">
-        <v>265.6383333333329</v>
+        <v>265.6433333333329</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2759,14 +2573,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2776,22 +2584,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>267.8</v>
+        <v>268</v>
       </c>
       <c r="C63" t="n">
         <v>267.8</v>
       </c>
       <c r="D63" t="n">
-        <v>267.8</v>
+        <v>268</v>
       </c>
       <c r="E63" t="n">
         <v>267.8</v>
       </c>
       <c r="F63" t="n">
-        <v>341.4</v>
+        <v>4569.1213</v>
       </c>
       <c r="G63" t="n">
-        <v>265.6349999999996</v>
+        <v>265.6383333333329</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2800,14 +2608,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2820,19 +2622,19 @@
         <v>267.8</v>
       </c>
       <c r="C64" t="n">
-        <v>268</v>
+        <v>267.8</v>
       </c>
       <c r="D64" t="n">
-        <v>268</v>
+        <v>267.8</v>
       </c>
       <c r="E64" t="n">
         <v>267.8</v>
       </c>
       <c r="F64" t="n">
-        <v>483.5425</v>
+        <v>341.4</v>
       </c>
       <c r="G64" t="n">
-        <v>265.6399999999996</v>
+        <v>265.6349999999996</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2841,14 +2643,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2858,22 +2654,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>266.9</v>
+        <v>267.8</v>
       </c>
       <c r="C65" t="n">
+        <v>268</v>
+      </c>
+      <c r="D65" t="n">
+        <v>268</v>
+      </c>
+      <c r="E65" t="n">
         <v>267.8</v>
       </c>
-      <c r="D65" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="E65" t="n">
-        <v>266.9</v>
-      </c>
       <c r="F65" t="n">
-        <v>3156.3813</v>
+        <v>483.5425</v>
       </c>
       <c r="G65" t="n">
-        <v>265.6216666666662</v>
+        <v>265.6399999999996</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2882,14 +2678,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2902,35 +2692,29 @@
         <v>266.9</v>
       </c>
       <c r="C66" t="n">
-        <v>266.9</v>
+        <v>267.8</v>
       </c>
       <c r="D66" t="n">
-        <v>266.9</v>
+        <v>267.9</v>
       </c>
       <c r="E66" t="n">
         <v>266.9</v>
       </c>
       <c r="F66" t="n">
-        <v>3669.9804</v>
+        <v>3156.3813</v>
       </c>
       <c r="G66" t="n">
-        <v>265.6083333333329</v>
+        <v>265.6216666666662</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2940,38 +2724,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>267.3</v>
+        <v>266.9</v>
       </c>
       <c r="C67" t="n">
-        <v>267.3</v>
+        <v>266.9</v>
       </c>
       <c r="D67" t="n">
-        <v>267.3</v>
+        <v>266.9</v>
       </c>
       <c r="E67" t="n">
-        <v>267.3</v>
+        <v>266.9</v>
       </c>
       <c r="F67" t="n">
-        <v>474.1869</v>
+        <v>3669.9804</v>
       </c>
       <c r="G67" t="n">
-        <v>265.6049999999995</v>
+        <v>265.6083333333329</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2981,22 +2759,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>266.5</v>
+        <v>267.3</v>
       </c>
       <c r="C68" t="n">
-        <v>266.5</v>
+        <v>267.3</v>
       </c>
       <c r="D68" t="n">
-        <v>266.5</v>
+        <v>267.3</v>
       </c>
       <c r="E68" t="n">
-        <v>266.5</v>
+        <v>267.3</v>
       </c>
       <c r="F68" t="n">
-        <v>2074.6099</v>
+        <v>474.1869</v>
       </c>
       <c r="G68" t="n">
-        <v>265.5883333333329</v>
+        <v>265.6049999999995</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3005,14 +2783,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3022,22 +2794,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>266.1</v>
+        <v>266.5</v>
       </c>
       <c r="C69" t="n">
-        <v>266.1</v>
+        <v>266.5</v>
       </c>
       <c r="D69" t="n">
-        <v>266.1</v>
+        <v>266.5</v>
       </c>
       <c r="E69" t="n">
-        <v>266.1</v>
+        <v>266.5</v>
       </c>
       <c r="F69" t="n">
-        <v>785.7942</v>
+        <v>2074.6099</v>
       </c>
       <c r="G69" t="n">
-        <v>265.5733333333329</v>
+        <v>265.5883333333329</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3046,14 +2818,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3063,22 +2829,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>265.7</v>
+        <v>266.1</v>
       </c>
       <c r="C70" t="n">
-        <v>265.7</v>
+        <v>266.1</v>
       </c>
       <c r="D70" t="n">
-        <v>265.7</v>
+        <v>266.1</v>
       </c>
       <c r="E70" t="n">
-        <v>265.7</v>
+        <v>266.1</v>
       </c>
       <c r="F70" t="n">
-        <v>5018.9997</v>
+        <v>785.7942</v>
       </c>
       <c r="G70" t="n">
-        <v>265.5499999999996</v>
+        <v>265.5733333333329</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3087,14 +2853,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3116,10 +2876,10 @@
         <v>265.7</v>
       </c>
       <c r="F71" t="n">
-        <v>2525.8131</v>
+        <v>5018.9997</v>
       </c>
       <c r="G71" t="n">
-        <v>265.5349999999996</v>
+        <v>265.5499999999996</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3128,14 +2888,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3157,10 +2911,10 @@
         <v>265.7</v>
       </c>
       <c r="F72" t="n">
-        <v>72.6561</v>
+        <v>2525.8131</v>
       </c>
       <c r="G72" t="n">
-        <v>265.5199999999996</v>
+        <v>265.5349999999996</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3169,14 +2923,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3186,22 +2934,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>265.1</v>
+        <v>265.7</v>
       </c>
       <c r="C73" t="n">
-        <v>265.1</v>
+        <v>265.7</v>
       </c>
       <c r="D73" t="n">
-        <v>265.1</v>
+        <v>265.7</v>
       </c>
       <c r="E73" t="n">
-        <v>265.1</v>
+        <v>265.7</v>
       </c>
       <c r="F73" t="n">
-        <v>2060</v>
+        <v>72.6561</v>
       </c>
       <c r="G73" t="n">
-        <v>265.4766666666662</v>
+        <v>265.5199999999996</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3210,14 +2958,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3239,10 +2981,10 @@
         <v>265.1</v>
       </c>
       <c r="F74" t="n">
-        <v>244.9352</v>
+        <v>2060</v>
       </c>
       <c r="G74" t="n">
-        <v>265.4333333333329</v>
+        <v>265.4766666666662</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3251,14 +2993,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3004,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>264.5</v>
+        <v>265.1</v>
       </c>
       <c r="C75" t="n">
-        <v>264.4</v>
+        <v>265.1</v>
       </c>
       <c r="D75" t="n">
-        <v>264.5</v>
+        <v>265.1</v>
       </c>
       <c r="E75" t="n">
-        <v>264.4</v>
+        <v>265.1</v>
       </c>
       <c r="F75" t="n">
-        <v>4260</v>
+        <v>244.9352</v>
       </c>
       <c r="G75" t="n">
-        <v>265.3866666666662</v>
+        <v>265.4333333333329</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3292,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3309,22 +3039,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="C76" t="n">
         <v>264.4</v>
       </c>
-      <c r="C76" t="n">
-        <v>264</v>
-      </c>
       <c r="D76" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="E76" t="n">
         <v>264.4</v>
       </c>
-      <c r="E76" t="n">
-        <v>264</v>
-      </c>
       <c r="F76" t="n">
-        <v>15147.4452</v>
+        <v>4260</v>
       </c>
       <c r="G76" t="n">
-        <v>265.3333333333329</v>
+        <v>265.3866666666662</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3333,14 +3063,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3350,22 +3074,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>264.7</v>
+        <v>264.4</v>
       </c>
       <c r="C77" t="n">
-        <v>264.7</v>
+        <v>264</v>
       </c>
       <c r="D77" t="n">
-        <v>264.7</v>
+        <v>264.4</v>
       </c>
       <c r="E77" t="n">
-        <v>264.7</v>
+        <v>264</v>
       </c>
       <c r="F77" t="n">
-        <v>2.7749</v>
+        <v>15147.4452</v>
       </c>
       <c r="G77" t="n">
-        <v>265.2916666666662</v>
+        <v>265.3333333333329</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3374,14 +3098,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3391,22 +3109,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>264.6</v>
+        <v>264.7</v>
       </c>
       <c r="C78" t="n">
-        <v>264.6</v>
+        <v>264.7</v>
       </c>
       <c r="D78" t="n">
-        <v>265.6</v>
+        <v>264.7</v>
       </c>
       <c r="E78" t="n">
-        <v>264.6</v>
+        <v>264.7</v>
       </c>
       <c r="F78" t="n">
-        <v>1321.8</v>
+        <v>2.7749</v>
       </c>
       <c r="G78" t="n">
-        <v>265.2766666666662</v>
+        <v>265.2916666666662</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3415,14 +3133,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3435,19 +3147,19 @@
         <v>264.6</v>
       </c>
       <c r="C79" t="n">
-        <v>264.4</v>
+        <v>264.6</v>
       </c>
       <c r="D79" t="n">
+        <v>265.6</v>
+      </c>
+      <c r="E79" t="n">
         <v>264.6</v>
       </c>
-      <c r="E79" t="n">
-        <v>264.4</v>
-      </c>
       <c r="F79" t="n">
-        <v>12645.0405</v>
+        <v>1321.8</v>
       </c>
       <c r="G79" t="n">
-        <v>265.2449999999995</v>
+        <v>265.2766666666662</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3456,14 +3168,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3473,22 +3179,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>266.1</v>
+        <v>264.6</v>
       </c>
       <c r="C80" t="n">
-        <v>266.1</v>
+        <v>264.4</v>
       </c>
       <c r="D80" t="n">
-        <v>266.6</v>
+        <v>264.6</v>
       </c>
       <c r="E80" t="n">
-        <v>266.1</v>
+        <v>264.4</v>
       </c>
       <c r="F80" t="n">
-        <v>21592.1345</v>
+        <v>12645.0405</v>
       </c>
       <c r="G80" t="n">
-        <v>265.2533333333329</v>
+        <v>265.2449999999995</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3497,14 +3203,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3514,22 +3214,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>266.5</v>
+        <v>266.1</v>
       </c>
       <c r="C81" t="n">
-        <v>267.6</v>
+        <v>266.1</v>
       </c>
       <c r="D81" t="n">
-        <v>267.6</v>
+        <v>266.6</v>
       </c>
       <c r="E81" t="n">
-        <v>266.5</v>
+        <v>266.1</v>
       </c>
       <c r="F81" t="n">
-        <v>16443.61720986</v>
+        <v>21592.1345</v>
       </c>
       <c r="G81" t="n">
-        <v>265.2883333333328</v>
+        <v>265.2533333333329</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3538,14 +3238,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3555,22 +3249,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>266.7</v>
+        <v>266.5</v>
       </c>
       <c r="C82" t="n">
-        <v>266.7</v>
+        <v>267.6</v>
       </c>
       <c r="D82" t="n">
-        <v>266.7</v>
+        <v>267.6</v>
       </c>
       <c r="E82" t="n">
-        <v>266.7</v>
+        <v>266.5</v>
       </c>
       <c r="F82" t="n">
-        <v>984.0999</v>
+        <v>16443.61720986</v>
       </c>
       <c r="G82" t="n">
-        <v>265.3116666666662</v>
+        <v>265.2883333333328</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3579,14 +3273,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3602,16 +3290,16 @@
         <v>266.7</v>
       </c>
       <c r="D83" t="n">
-        <v>266.8</v>
+        <v>266.7</v>
       </c>
       <c r="E83" t="n">
         <v>266.7</v>
       </c>
       <c r="F83" t="n">
-        <v>4419.0504</v>
+        <v>984.0999</v>
       </c>
       <c r="G83" t="n">
-        <v>265.3383333333329</v>
+        <v>265.3116666666662</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3620,14 +3308,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3643,16 +3325,16 @@
         <v>266.7</v>
       </c>
       <c r="D84" t="n">
-        <v>266.7</v>
+        <v>266.8</v>
       </c>
       <c r="E84" t="n">
         <v>266.7</v>
       </c>
       <c r="F84" t="n">
-        <v>1617.5843</v>
+        <v>4419.0504</v>
       </c>
       <c r="G84" t="n">
-        <v>265.3666666666662</v>
+        <v>265.3383333333329</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3661,14 +3343,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3678,22 +3354,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>267.7</v>
+        <v>266.7</v>
       </c>
       <c r="C85" t="n">
-        <v>267.7</v>
+        <v>266.7</v>
       </c>
       <c r="D85" t="n">
-        <v>267.7</v>
+        <v>266.7</v>
       </c>
       <c r="E85" t="n">
-        <v>267.7</v>
+        <v>266.7</v>
       </c>
       <c r="F85" t="n">
-        <v>1117.8619</v>
+        <v>1617.5843</v>
       </c>
       <c r="G85" t="n">
-        <v>265.4116666666662</v>
+        <v>265.3666666666662</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3702,14 +3378,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3719,22 +3389,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>266.5</v>
+        <v>267.7</v>
       </c>
       <c r="C86" t="n">
-        <v>266.5</v>
+        <v>267.7</v>
       </c>
       <c r="D86" t="n">
-        <v>266.5</v>
+        <v>267.7</v>
       </c>
       <c r="E86" t="n">
-        <v>266.5</v>
+        <v>267.7</v>
       </c>
       <c r="F86" t="n">
-        <v>20</v>
+        <v>1117.8619</v>
       </c>
       <c r="G86" t="n">
-        <v>265.4366666666663</v>
+        <v>265.4116666666662</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3743,14 +3413,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3760,22 +3424,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>267</v>
+        <v>266.5</v>
       </c>
       <c r="C87" t="n">
-        <v>268</v>
+        <v>266.5</v>
       </c>
       <c r="D87" t="n">
-        <v>268</v>
+        <v>266.5</v>
       </c>
       <c r="E87" t="n">
-        <v>267</v>
+        <v>266.5</v>
       </c>
       <c r="F87" t="n">
-        <v>7035.0181</v>
+        <v>20</v>
       </c>
       <c r="G87" t="n">
-        <v>265.4866666666663</v>
+        <v>265.4366666666663</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3784,14 +3448,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3801,22 +3459,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>268.9</v>
+        <v>267</v>
       </c>
       <c r="C88" t="n">
-        <v>269.7</v>
+        <v>268</v>
       </c>
       <c r="D88" t="n">
-        <v>269.7</v>
+        <v>268</v>
       </c>
       <c r="E88" t="n">
-        <v>268.9</v>
+        <v>267</v>
       </c>
       <c r="F88" t="n">
-        <v>5100</v>
+        <v>7035.0181</v>
       </c>
       <c r="G88" t="n">
-        <v>265.5649999999996</v>
+        <v>265.4866666666663</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3825,14 +3483,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3842,22 +3494,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>268.7</v>
+        <v>268.9</v>
       </c>
       <c r="C89" t="n">
-        <v>270</v>
+        <v>269.7</v>
       </c>
       <c r="D89" t="n">
-        <v>270</v>
+        <v>269.7</v>
       </c>
       <c r="E89" t="n">
-        <v>268.7</v>
+        <v>268.9</v>
       </c>
       <c r="F89" t="n">
-        <v>1932.3881</v>
+        <v>5100</v>
       </c>
       <c r="G89" t="n">
-        <v>265.6433333333329</v>
+        <v>265.5649999999996</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3866,14 +3518,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3883,22 +3529,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>269.9</v>
+        <v>268.7</v>
       </c>
       <c r="C90" t="n">
-        <v>269.9</v>
+        <v>270</v>
       </c>
       <c r="D90" t="n">
-        <v>269.9</v>
+        <v>270</v>
       </c>
       <c r="E90" t="n">
-        <v>269.9</v>
+        <v>268.7</v>
       </c>
       <c r="F90" t="n">
-        <v>2.6022</v>
+        <v>1932.3881</v>
       </c>
       <c r="G90" t="n">
-        <v>265.7249999999996</v>
+        <v>265.6433333333329</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3907,14 +3553,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3927,19 +3567,19 @@
         <v>269.9</v>
       </c>
       <c r="C91" t="n">
-        <v>269.8</v>
+        <v>269.9</v>
       </c>
       <c r="D91" t="n">
         <v>269.9</v>
       </c>
       <c r="E91" t="n">
-        <v>269.8</v>
+        <v>269.9</v>
       </c>
       <c r="F91" t="n">
-        <v>450.8684</v>
+        <v>2.6022</v>
       </c>
       <c r="G91" t="n">
-        <v>265.8049999999996</v>
+        <v>265.7249999999996</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3948,14 +3588,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3965,38 +3599,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>270</v>
+        <v>269.9</v>
       </c>
       <c r="C92" t="n">
-        <v>270</v>
+        <v>269.8</v>
       </c>
       <c r="D92" t="n">
-        <v>270</v>
+        <v>269.9</v>
       </c>
       <c r="E92" t="n">
-        <v>270</v>
+        <v>269.8</v>
       </c>
       <c r="F92" t="n">
-        <v>912.3951</v>
+        <v>450.8684</v>
       </c>
       <c r="G92" t="n">
-        <v>265.8733333333329</v>
+        <v>265.8049999999996</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4009,35 +3637,29 @@
         <v>270</v>
       </c>
       <c r="C93" t="n">
-        <v>270.6</v>
+        <v>270</v>
       </c>
       <c r="D93" t="n">
-        <v>270.6</v>
+        <v>270</v>
       </c>
       <c r="E93" t="n">
         <v>270</v>
       </c>
       <c r="F93" t="n">
-        <v>2663.0003</v>
+        <v>912.3951</v>
       </c>
       <c r="G93" t="n">
-        <v>265.9599999999996</v>
+        <v>265.8733333333329</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4047,7 +3669,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>270.6</v>
+        <v>270</v>
       </c>
       <c r="C94" t="n">
         <v>270.6</v>
@@ -4056,13 +3678,13 @@
         <v>270.6</v>
       </c>
       <c r="E94" t="n">
-        <v>270.6</v>
+        <v>270</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0001</v>
+        <v>2663.0003</v>
       </c>
       <c r="G94" t="n">
-        <v>266.0533333333329</v>
+        <v>265.9599999999996</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4071,14 +3693,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4088,38 +3704,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>270.7</v>
+        <v>270.6</v>
       </c>
       <c r="C95" t="n">
         <v>270.6</v>
       </c>
       <c r="D95" t="n">
-        <v>270.7</v>
+        <v>270.6</v>
       </c>
       <c r="E95" t="n">
-        <v>270</v>
+        <v>270.6</v>
       </c>
       <c r="F95" t="n">
-        <v>21435.8893</v>
+        <v>0.0001</v>
       </c>
       <c r="G95" t="n">
-        <v>266.133333333333</v>
+        <v>266.0533333333329</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4129,38 +3739,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>270.6</v>
+        <v>270.7</v>
       </c>
       <c r="C96" t="n">
         <v>270.6</v>
       </c>
       <c r="D96" t="n">
-        <v>270.6</v>
+        <v>270.7</v>
       </c>
       <c r="E96" t="n">
-        <v>270.6</v>
+        <v>270</v>
       </c>
       <c r="F96" t="n">
-        <v>5180</v>
+        <v>21435.8893</v>
       </c>
       <c r="G96" t="n">
-        <v>266.2266666666663</v>
+        <v>266.133333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4170,22 +3774,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>270.5</v>
+        <v>270.6</v>
       </c>
       <c r="C97" t="n">
-        <v>270.5</v>
+        <v>270.6</v>
       </c>
       <c r="D97" t="n">
-        <v>270.5</v>
+        <v>270.6</v>
       </c>
       <c r="E97" t="n">
-        <v>270.5</v>
+        <v>270.6</v>
       </c>
       <c r="F97" t="n">
-        <v>6220.3628</v>
+        <v>5180</v>
       </c>
       <c r="G97" t="n">
-        <v>266.3366666666663</v>
+        <v>266.2266666666663</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4194,16 +3798,10 @@
         <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>1.012299736743137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -4211,28 +3809,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>269.6</v>
+        <v>270.5</v>
       </c>
       <c r="C98" t="n">
-        <v>269.6</v>
+        <v>270.5</v>
       </c>
       <c r="D98" t="n">
-        <v>269.6</v>
+        <v>270.5</v>
       </c>
       <c r="E98" t="n">
-        <v>269.6</v>
+        <v>270.5</v>
       </c>
       <c r="F98" t="n">
-        <v>2939.6999</v>
+        <v>6220.3628</v>
       </c>
       <c r="G98" t="n">
-        <v>266.4499999999996</v>
+        <v>266.3366666666663</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4258,10 +3856,10 @@
         <v>269.6</v>
       </c>
       <c r="F99" t="n">
-        <v>5385.5642</v>
+        <v>2939.6999</v>
       </c>
       <c r="G99" t="n">
-        <v>266.5449999999997</v>
+        <v>266.4499999999996</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4293,10 +3891,10 @@
         <v>269.6</v>
       </c>
       <c r="F100" t="n">
-        <v>1147.5212</v>
+        <v>5385.5642</v>
       </c>
       <c r="G100" t="n">
-        <v>266.6399999999997</v>
+        <v>266.5449999999997</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4316,22 +3914,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>268.5</v>
+        <v>269.6</v>
       </c>
       <c r="C101" t="n">
-        <v>267.9</v>
+        <v>269.6</v>
       </c>
       <c r="D101" t="n">
-        <v>268.5</v>
+        <v>269.6</v>
       </c>
       <c r="E101" t="n">
-        <v>267.9</v>
+        <v>269.6</v>
       </c>
       <c r="F101" t="n">
-        <v>2602.2</v>
+        <v>1147.5212</v>
       </c>
       <c r="G101" t="n">
-        <v>266.7066666666664</v>
+        <v>266.6399999999997</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4351,22 +3949,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="C102" t="n">
         <v>267.9</v>
       </c>
-      <c r="C102" t="n">
-        <v>267.8</v>
-      </c>
       <c r="D102" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="E102" t="n">
         <v>267.9</v>
       </c>
-      <c r="E102" t="n">
-        <v>267.8</v>
-      </c>
       <c r="F102" t="n">
-        <v>200</v>
+        <v>2602.2</v>
       </c>
       <c r="G102" t="n">
-        <v>266.7716666666664</v>
+        <v>266.7066666666664</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4386,22 +3984,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>267.8</v>
+        <v>267.9</v>
       </c>
       <c r="C103" t="n">
         <v>267.8</v>
       </c>
       <c r="D103" t="n">
-        <v>267.8</v>
+        <v>267.9</v>
       </c>
       <c r="E103" t="n">
         <v>267.8</v>
       </c>
       <c r="F103" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
-        <v>266.8349999999997</v>
+        <v>266.7716666666664</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4421,22 +4019,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>267.7</v>
+        <v>267.8</v>
       </c>
       <c r="C104" t="n">
-        <v>267.7</v>
+        <v>267.8</v>
       </c>
       <c r="D104" t="n">
-        <v>267.7</v>
+        <v>267.8</v>
       </c>
       <c r="E104" t="n">
-        <v>267.7</v>
+        <v>267.8</v>
       </c>
       <c r="F104" t="n">
-        <v>249.7394</v>
+        <v>130</v>
       </c>
       <c r="G104" t="n">
-        <v>266.9016666666664</v>
+        <v>266.8349999999997</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4468,10 +4066,10 @@
         <v>267.7</v>
       </c>
       <c r="F105" t="n">
-        <v>626.4874</v>
+        <v>249.7394</v>
       </c>
       <c r="G105" t="n">
-        <v>266.943333333333</v>
+        <v>266.9016666666664</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4491,22 +4089,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>266.5</v>
+        <v>267.7</v>
       </c>
       <c r="C106" t="n">
-        <v>266.5</v>
+        <v>267.7</v>
       </c>
       <c r="D106" t="n">
-        <v>266.5</v>
+        <v>267.7</v>
       </c>
       <c r="E106" t="n">
-        <v>266.5</v>
+        <v>267.7</v>
       </c>
       <c r="F106" t="n">
-        <v>2462</v>
+        <v>626.4874</v>
       </c>
       <c r="G106" t="n">
-        <v>266.998333333333</v>
+        <v>266.943333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4529,19 +4127,19 @@
         <v>266.5</v>
       </c>
       <c r="C107" t="n">
-        <v>266.4</v>
+        <v>266.5</v>
       </c>
       <c r="D107" t="n">
         <v>266.5</v>
       </c>
       <c r="E107" t="n">
-        <v>266.4</v>
+        <v>266.5</v>
       </c>
       <c r="F107" t="n">
-        <v>1873.0299</v>
+        <v>2462</v>
       </c>
       <c r="G107" t="n">
-        <v>267.038333333333</v>
+        <v>266.998333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4561,22 +4159,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>266.4</v>
+        <v>266.5</v>
       </c>
       <c r="C108" t="n">
         <v>266.4</v>
       </c>
       <c r="D108" t="n">
-        <v>266.4</v>
+        <v>266.5</v>
       </c>
       <c r="E108" t="n">
         <v>266.4</v>
       </c>
       <c r="F108" t="n">
-        <v>123.6247</v>
+        <v>1873.0299</v>
       </c>
       <c r="G108" t="n">
-        <v>267.078333333333</v>
+        <v>267.038333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4608,10 +4206,10 @@
         <v>266.4</v>
       </c>
       <c r="F109" t="n">
-        <v>248.6571</v>
+        <v>123.6247</v>
       </c>
       <c r="G109" t="n">
-        <v>267.118333333333</v>
+        <v>267.078333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4631,22 +4229,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>266.2</v>
+        <v>266.4</v>
       </c>
       <c r="C110" t="n">
-        <v>265</v>
+        <v>266.4</v>
       </c>
       <c r="D110" t="n">
-        <v>266.2</v>
+        <v>266.4</v>
       </c>
       <c r="E110" t="n">
-        <v>265</v>
+        <v>266.4</v>
       </c>
       <c r="F110" t="n">
-        <v>28733.8125</v>
+        <v>248.6571</v>
       </c>
       <c r="G110" t="n">
-        <v>267.1349999999996</v>
+        <v>267.118333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4666,22 +4264,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>267.7</v>
+        <v>266.2</v>
       </c>
       <c r="C111" t="n">
-        <v>267.7</v>
+        <v>265</v>
       </c>
       <c r="D111" t="n">
-        <v>267.7</v>
+        <v>266.2</v>
       </c>
       <c r="E111" t="n">
-        <v>267.7</v>
+        <v>265</v>
       </c>
       <c r="F111" t="n">
-        <v>8671.3112</v>
+        <v>28733.8125</v>
       </c>
       <c r="G111" t="n">
-        <v>267.1966666666663</v>
+        <v>267.1349999999996</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4704,19 +4302,19 @@
         <v>267.7</v>
       </c>
       <c r="C112" t="n">
-        <v>268</v>
+        <v>267.7</v>
       </c>
       <c r="D112" t="n">
-        <v>268</v>
+        <v>267.7</v>
       </c>
       <c r="E112" t="n">
         <v>267.7</v>
       </c>
       <c r="F112" t="n">
-        <v>5026.8403</v>
+        <v>8671.3112</v>
       </c>
       <c r="G112" t="n">
-        <v>267.263333333333</v>
+        <v>267.1966666666663</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4739,19 +4337,19 @@
         <v>267.7</v>
       </c>
       <c r="C113" t="n">
-        <v>267.7</v>
+        <v>268</v>
       </c>
       <c r="D113" t="n">
-        <v>267.7</v>
+        <v>268</v>
       </c>
       <c r="E113" t="n">
         <v>267.7</v>
       </c>
       <c r="F113" t="n">
-        <v>176.9999</v>
+        <v>5026.8403</v>
       </c>
       <c r="G113" t="n">
-        <v>267.3249999999996</v>
+        <v>267.263333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4771,22 +4369,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>268</v>
+        <v>267.7</v>
       </c>
       <c r="C114" t="n">
-        <v>268</v>
+        <v>267.7</v>
       </c>
       <c r="D114" t="n">
-        <v>268</v>
+        <v>267.7</v>
       </c>
       <c r="E114" t="n">
-        <v>268</v>
+        <v>267.7</v>
       </c>
       <c r="F114" t="n">
-        <v>372.2038</v>
+        <v>176.9999</v>
       </c>
       <c r="G114" t="n">
-        <v>267.3916666666663</v>
+        <v>267.3249999999996</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4806,31 +4404,35 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>267.5</v>
+        <v>268</v>
       </c>
       <c r="C115" t="n">
-        <v>267.5</v>
+        <v>268</v>
       </c>
       <c r="D115" t="n">
-        <v>267.5</v>
+        <v>268</v>
       </c>
       <c r="E115" t="n">
-        <v>267.5</v>
+        <v>268</v>
       </c>
       <c r="F115" t="n">
-        <v>406.2212</v>
+        <v>372.2038</v>
       </c>
       <c r="G115" t="n">
-        <v>267.4099999999997</v>
+        <v>267.3916666666663</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="K115" t="n">
+        <v>267.7</v>
+      </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
@@ -4841,22 +4443,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>268.9</v>
+        <v>267.5</v>
       </c>
       <c r="C116" t="n">
-        <v>268.8</v>
+        <v>267.5</v>
       </c>
       <c r="D116" t="n">
-        <v>268.9</v>
+        <v>267.5</v>
       </c>
       <c r="E116" t="n">
-        <v>268.1</v>
+        <v>267.5</v>
       </c>
       <c r="F116" t="n">
-        <v>859.6635</v>
+        <v>406.2212</v>
       </c>
       <c r="G116" t="n">
-        <v>267.4499999999996</v>
+        <v>267.4099999999997</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4865,8 +4467,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4876,32 +4484,40 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>269</v>
+        <v>268.9</v>
       </c>
       <c r="C117" t="n">
-        <v>269</v>
+        <v>268.8</v>
       </c>
       <c r="D117" t="n">
-        <v>269</v>
+        <v>268.9</v>
       </c>
       <c r="E117" t="n">
-        <v>269</v>
+        <v>268.1</v>
       </c>
       <c r="F117" t="n">
-        <v>1779.3648</v>
+        <v>859.6635</v>
       </c>
       <c r="G117" t="n">
-        <v>267.483333333333</v>
+        <v>267.4499999999996</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>267.5</v>
+      </c>
+      <c r="K117" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4911,22 +4527,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>268.4</v>
+        <v>269</v>
       </c>
       <c r="C118" t="n">
-        <v>268.4</v>
+        <v>269</v>
       </c>
       <c r="D118" t="n">
-        <v>268.4</v>
+        <v>269</v>
       </c>
       <c r="E118" t="n">
-        <v>268.4</v>
+        <v>269</v>
       </c>
       <c r="F118" t="n">
-        <v>20</v>
+        <v>1779.3648</v>
       </c>
       <c r="G118" t="n">
-        <v>267.5066666666663</v>
+        <v>267.483333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4946,22 +4562,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>268.2</v>
+        <v>268.4</v>
       </c>
       <c r="C119" t="n">
-        <v>268.2</v>
+        <v>268.4</v>
       </c>
       <c r="D119" t="n">
-        <v>268.2</v>
+        <v>268.4</v>
       </c>
       <c r="E119" t="n">
-        <v>268.2</v>
+        <v>268.4</v>
       </c>
       <c r="F119" t="n">
         <v>20</v>
       </c>
       <c r="G119" t="n">
-        <v>267.5266666666664</v>
+        <v>267.5066666666663</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4984,19 +4600,19 @@
         <v>268.2</v>
       </c>
       <c r="C120" t="n">
-        <v>268.1</v>
+        <v>268.2</v>
       </c>
       <c r="D120" t="n">
         <v>268.2</v>
       </c>
       <c r="E120" t="n">
-        <v>268.1</v>
+        <v>268.2</v>
       </c>
       <c r="F120" t="n">
-        <v>2365.3763</v>
+        <v>20</v>
       </c>
       <c r="G120" t="n">
-        <v>267.5449999999997</v>
+        <v>267.5266666666664</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5016,22 +4632,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>268.2</v>
+      </c>
+      <c r="C121" t="n">
         <v>268.1</v>
       </c>
-      <c r="C121" t="n">
-        <v>268</v>
-      </c>
       <c r="D121" t="n">
+        <v>268.2</v>
+      </c>
+      <c r="E121" t="n">
         <v>268.1</v>
       </c>
-      <c r="E121" t="n">
-        <v>268</v>
-      </c>
       <c r="F121" t="n">
-        <v>3669.9804</v>
+        <v>2365.3763</v>
       </c>
       <c r="G121" t="n">
-        <v>267.5616666666663</v>
+        <v>267.5449999999997</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5051,22 +4667,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>268.2</v>
+        <v>268.1</v>
       </c>
       <c r="C122" t="n">
-        <v>268.2</v>
+        <v>268</v>
       </c>
       <c r="D122" t="n">
-        <v>268.2</v>
+        <v>268.1</v>
       </c>
       <c r="E122" t="n">
-        <v>268.2</v>
+        <v>268</v>
       </c>
       <c r="F122" t="n">
-        <v>5640.3941</v>
+        <v>3669.9804</v>
       </c>
       <c r="G122" t="n">
-        <v>267.568333333333</v>
+        <v>267.5616666666663</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5089,19 +4705,19 @@
         <v>268.2</v>
       </c>
       <c r="C123" t="n">
-        <v>268</v>
+        <v>268.2</v>
       </c>
       <c r="D123" t="n">
         <v>268.2</v>
       </c>
       <c r="E123" t="n">
-        <v>268</v>
+        <v>268.2</v>
       </c>
       <c r="F123" t="n">
-        <v>12298.1208</v>
+        <v>5640.3941</v>
       </c>
       <c r="G123" t="n">
-        <v>267.5716666666664</v>
+        <v>267.568333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5121,22 +4737,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>267.9</v>
+        <v>268.2</v>
       </c>
       <c r="C124" t="n">
-        <v>267.9</v>
+        <v>268</v>
       </c>
       <c r="D124" t="n">
-        <v>267.9</v>
+        <v>268.2</v>
       </c>
       <c r="E124" t="n">
-        <v>267.9</v>
+        <v>268</v>
       </c>
       <c r="F124" t="n">
-        <v>20</v>
+        <v>12298.1208</v>
       </c>
       <c r="G124" t="n">
-        <v>267.5699999999997</v>
+        <v>267.5716666666664</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5159,19 +4775,19 @@
         <v>267.9</v>
       </c>
       <c r="C125" t="n">
-        <v>266.8</v>
+        <v>267.9</v>
       </c>
       <c r="D125" t="n">
         <v>267.9</v>
       </c>
       <c r="E125" t="n">
-        <v>266.8</v>
+        <v>267.9</v>
       </c>
       <c r="F125" t="n">
-        <v>4800</v>
+        <v>20</v>
       </c>
       <c r="G125" t="n">
-        <v>267.5533333333331</v>
+        <v>267.5699999999997</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5191,22 +4807,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>266.2</v>
+        <v>267.9</v>
       </c>
       <c r="C126" t="n">
-        <v>267.3</v>
+        <v>266.8</v>
       </c>
       <c r="D126" t="n">
-        <v>267.3</v>
+        <v>267.9</v>
       </c>
       <c r="E126" t="n">
-        <v>266.2</v>
+        <v>266.8</v>
       </c>
       <c r="F126" t="n">
-        <v>7</v>
+        <v>4800</v>
       </c>
       <c r="G126" t="n">
-        <v>267.5599999999997</v>
+        <v>267.5533333333331</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5226,22 +4842,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>266.3</v>
+        <v>266.2</v>
       </c>
       <c r="C127" t="n">
-        <v>266.3</v>
+        <v>267.3</v>
       </c>
       <c r="D127" t="n">
-        <v>266.3</v>
+        <v>267.3</v>
       </c>
       <c r="E127" t="n">
-        <v>266.3</v>
+        <v>266.2</v>
       </c>
       <c r="F127" t="n">
-        <v>249.7394</v>
+        <v>7</v>
       </c>
       <c r="G127" t="n">
-        <v>267.543333333333</v>
+        <v>267.5599999999997</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5261,22 +4877,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>267</v>
+        <v>266.3</v>
       </c>
       <c r="C128" t="n">
-        <v>267.3</v>
+        <v>266.3</v>
       </c>
       <c r="D128" t="n">
-        <v>267.3</v>
+        <v>266.3</v>
       </c>
       <c r="E128" t="n">
-        <v>267</v>
+        <v>266.3</v>
       </c>
       <c r="F128" t="n">
-        <v>4092.6088</v>
+        <v>249.7394</v>
       </c>
       <c r="G128" t="n">
-        <v>267.5566666666663</v>
+        <v>267.543333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5296,22 +4912,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>267.2</v>
+        <v>267</v>
       </c>
       <c r="C129" t="n">
-        <v>267.2</v>
+        <v>267.3</v>
       </c>
       <c r="D129" t="n">
-        <v>267.2</v>
+        <v>267.3</v>
       </c>
       <c r="E129" t="n">
-        <v>267.2</v>
+        <v>267</v>
       </c>
       <c r="F129" t="n">
-        <v>249.7394</v>
+        <v>4092.6088</v>
       </c>
       <c r="G129" t="n">
-        <v>267.5749999999997</v>
+        <v>267.5566666666663</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5331,22 +4947,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>268.3</v>
+        <v>267.2</v>
       </c>
       <c r="C130" t="n">
-        <v>268.3</v>
+        <v>267.2</v>
       </c>
       <c r="D130" t="n">
-        <v>268.3</v>
+        <v>267.2</v>
       </c>
       <c r="E130" t="n">
-        <v>268.3</v>
+        <v>267.2</v>
       </c>
       <c r="F130" t="n">
-        <v>23.00037271</v>
+        <v>249.7394</v>
       </c>
       <c r="G130" t="n">
-        <v>267.618333333333</v>
+        <v>267.5749999999997</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5378,10 +4994,10 @@
         <v>268.3</v>
       </c>
       <c r="F131" t="n">
-        <v>4224.00492729</v>
+        <v>23.00037271</v>
       </c>
       <c r="G131" t="n">
-        <v>267.6616666666663</v>
+        <v>267.618333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5401,22 +5017,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>268.4</v>
+        <v>268.3</v>
       </c>
       <c r="C132" t="n">
-        <v>268.4</v>
+        <v>268.3</v>
       </c>
       <c r="D132" t="n">
-        <v>268.4</v>
+        <v>268.3</v>
       </c>
       <c r="E132" t="n">
-        <v>268.4</v>
+        <v>268.3</v>
       </c>
       <c r="F132" t="n">
-        <v>2435.2705</v>
+        <v>4224.00492729</v>
       </c>
       <c r="G132" t="n">
-        <v>267.7066666666663</v>
+        <v>267.6616666666663</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5448,10 +5064,10 @@
         <v>268.4</v>
       </c>
       <c r="F133" t="n">
-        <v>1070.321</v>
+        <v>2435.2705</v>
       </c>
       <c r="G133" t="n">
-        <v>267.7616666666663</v>
+        <v>267.7066666666663</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5483,10 +5099,10 @@
         <v>268.4</v>
       </c>
       <c r="F134" t="n">
-        <v>2092.0291</v>
+        <v>1070.321</v>
       </c>
       <c r="G134" t="n">
-        <v>267.8166666666663</v>
+        <v>267.7616666666663</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5518,10 +5134,10 @@
         <v>268.4</v>
       </c>
       <c r="F135" t="n">
-        <v>1070.9999</v>
+        <v>2092.0291</v>
       </c>
       <c r="G135" t="n">
-        <v>267.8833333333329</v>
+        <v>267.8166666666663</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5541,22 +5157,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>269</v>
+        <v>268.4</v>
       </c>
       <c r="C136" t="n">
-        <v>271.5</v>
+        <v>268.4</v>
       </c>
       <c r="D136" t="n">
-        <v>271.5</v>
+        <v>268.4</v>
       </c>
       <c r="E136" t="n">
-        <v>269</v>
+        <v>268.4</v>
       </c>
       <c r="F136" t="n">
-        <v>4971.8424</v>
+        <v>1070.9999</v>
       </c>
       <c r="G136" t="n">
-        <v>268.0083333333329</v>
+        <v>267.8833333333329</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5576,22 +5192,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>270.6</v>
+        <v>269</v>
       </c>
       <c r="C137" t="n">
-        <v>270.6</v>
+        <v>271.5</v>
       </c>
       <c r="D137" t="n">
-        <v>270.6</v>
+        <v>271.5</v>
       </c>
       <c r="E137" t="n">
-        <v>270.6</v>
+        <v>269</v>
       </c>
       <c r="F137" t="n">
-        <v>871.2763</v>
+        <v>4971.8424</v>
       </c>
       <c r="G137" t="n">
-        <v>268.1066666666663</v>
+        <v>268.0083333333329</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5611,22 +5227,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>271.4</v>
+        <v>270.6</v>
       </c>
       <c r="C138" t="n">
-        <v>271.6</v>
+        <v>270.6</v>
       </c>
       <c r="D138" t="n">
-        <v>271.6</v>
+        <v>270.6</v>
       </c>
       <c r="E138" t="n">
-        <v>271.4</v>
+        <v>270.6</v>
       </c>
       <c r="F138" t="n">
-        <v>3861.5326</v>
+        <v>871.2763</v>
       </c>
       <c r="G138" t="n">
-        <v>268.223333333333</v>
+        <v>268.1066666666663</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5646,7 +5262,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>271.6</v>
+        <v>271.4</v>
       </c>
       <c r="C139" t="n">
         <v>271.6</v>
@@ -5655,13 +5271,13 @@
         <v>271.6</v>
       </c>
       <c r="E139" t="n">
-        <v>271.6</v>
+        <v>271.4</v>
       </c>
       <c r="F139" t="n">
-        <v>2740</v>
+        <v>3861.5326</v>
       </c>
       <c r="G139" t="n">
-        <v>268.343333333333</v>
+        <v>268.223333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5693,10 +5309,10 @@
         <v>271.6</v>
       </c>
       <c r="F140" t="n">
-        <v>431.0019</v>
+        <v>2740</v>
       </c>
       <c r="G140" t="n">
-        <v>268.4349999999996</v>
+        <v>268.343333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5716,22 +5332,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>271.9</v>
+        <v>271.6</v>
       </c>
       <c r="C141" t="n">
-        <v>271.9</v>
+        <v>271.6</v>
       </c>
       <c r="D141" t="n">
-        <v>271.9</v>
+        <v>271.6</v>
       </c>
       <c r="E141" t="n">
-        <v>271.9</v>
+        <v>271.6</v>
       </c>
       <c r="F141" t="n">
-        <v>2620</v>
+        <v>431.0019</v>
       </c>
       <c r="G141" t="n">
-        <v>268.5066666666663</v>
+        <v>268.4349999999996</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5754,19 +5370,19 @@
         <v>271.9</v>
       </c>
       <c r="C142" t="n">
-        <v>272</v>
+        <v>271.9</v>
       </c>
       <c r="D142" t="n">
-        <v>272</v>
+        <v>271.9</v>
       </c>
       <c r="E142" t="n">
         <v>271.9</v>
       </c>
       <c r="F142" t="n">
-        <v>2585.1552</v>
+        <v>2620</v>
       </c>
       <c r="G142" t="n">
-        <v>268.5949999999996</v>
+        <v>268.5066666666663</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5786,7 +5402,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>272</v>
+        <v>271.9</v>
       </c>
       <c r="C143" t="n">
         <v>272</v>
@@ -5795,13 +5411,13 @@
         <v>272</v>
       </c>
       <c r="E143" t="n">
-        <v>272</v>
+        <v>271.9</v>
       </c>
       <c r="F143" t="n">
-        <v>134.3803</v>
+        <v>2585.1552</v>
       </c>
       <c r="G143" t="n">
-        <v>268.6833333333329</v>
+        <v>268.5949999999996</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5833,10 +5449,10 @@
         <v>272</v>
       </c>
       <c r="F144" t="n">
-        <v>937.9905</v>
+        <v>134.3803</v>
       </c>
       <c r="G144" t="n">
-        <v>268.7716666666662</v>
+        <v>268.6833333333329</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5868,10 +5484,10 @@
         <v>272</v>
       </c>
       <c r="F145" t="n">
-        <v>831.9299</v>
+        <v>937.9905</v>
       </c>
       <c r="G145" t="n">
-        <v>268.8433333333329</v>
+        <v>268.7716666666662</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5891,22 +5507,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>272.8</v>
+        <v>272</v>
       </c>
       <c r="C146" t="n">
-        <v>273.8</v>
+        <v>272</v>
       </c>
       <c r="D146" t="n">
-        <v>273.8</v>
+        <v>272</v>
       </c>
       <c r="E146" t="n">
-        <v>272.8</v>
+        <v>272</v>
       </c>
       <c r="F146" t="n">
-        <v>14642.35296197</v>
+        <v>831.9299</v>
       </c>
       <c r="G146" t="n">
-        <v>268.9649999999995</v>
+        <v>268.8433333333329</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5926,22 +5542,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>272.7</v>
+        <v>272.8</v>
       </c>
       <c r="C147" t="n">
-        <v>272.7</v>
+        <v>273.8</v>
       </c>
       <c r="D147" t="n">
-        <v>272.7</v>
+        <v>273.8</v>
       </c>
       <c r="E147" t="n">
-        <v>272.7</v>
+        <v>272.8</v>
       </c>
       <c r="F147" t="n">
-        <v>5</v>
+        <v>14642.35296197</v>
       </c>
       <c r="G147" t="n">
-        <v>269.0433333333329</v>
+        <v>268.9649999999995</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5961,28 +5577,28 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>271.5</v>
+        <v>272.7</v>
       </c>
       <c r="C148" t="n">
-        <v>271.5</v>
+        <v>272.7</v>
       </c>
       <c r="D148" t="n">
-        <v>271.5</v>
+        <v>272.7</v>
       </c>
       <c r="E148" t="n">
-        <v>271.5</v>
+        <v>272.7</v>
       </c>
       <c r="F148" t="n">
-        <v>3143.935</v>
+        <v>5</v>
       </c>
       <c r="G148" t="n">
-        <v>269.0733333333329</v>
+        <v>269.0433333333329</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -6008,10 +5624,10 @@
         <v>271.5</v>
       </c>
       <c r="F149" t="n">
-        <v>901.2575000000001</v>
+        <v>3143.935</v>
       </c>
       <c r="G149" t="n">
-        <v>269.0983333333328</v>
+        <v>269.0733333333329</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6031,22 +5647,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>272.3</v>
+        <v>271.5</v>
       </c>
       <c r="C150" t="n">
-        <v>272.5</v>
+        <v>271.5</v>
       </c>
       <c r="D150" t="n">
-        <v>272.8</v>
+        <v>271.5</v>
       </c>
       <c r="E150" t="n">
-        <v>272.3</v>
+        <v>271.5</v>
       </c>
       <c r="F150" t="n">
-        <v>2233.9839</v>
+        <v>901.2575000000001</v>
       </c>
       <c r="G150" t="n">
-        <v>269.1416666666662</v>
+        <v>269.0983333333328</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6066,22 +5682,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>272.8</v>
+        <v>272.3</v>
       </c>
       <c r="C151" t="n">
-        <v>272.8</v>
+        <v>272.5</v>
       </c>
       <c r="D151" t="n">
         <v>272.8</v>
       </c>
       <c r="E151" t="n">
-        <v>272.8</v>
+        <v>272.3</v>
       </c>
       <c r="F151" t="n">
-        <v>142.7158</v>
+        <v>2233.9839</v>
       </c>
       <c r="G151" t="n">
-        <v>269.1916666666663</v>
+        <v>269.1416666666662</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6101,22 +5717,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>274</v>
+        <v>272.8</v>
       </c>
       <c r="C152" t="n">
-        <v>274</v>
+        <v>272.8</v>
       </c>
       <c r="D152" t="n">
-        <v>274</v>
+        <v>272.8</v>
       </c>
       <c r="E152" t="n">
-        <v>274</v>
+        <v>272.8</v>
       </c>
       <c r="F152" t="n">
-        <v>2.3761</v>
+        <v>142.7158</v>
       </c>
       <c r="G152" t="n">
-        <v>269.2583333333329</v>
+        <v>269.1916666666663</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6148,10 +5764,10 @@
         <v>274</v>
       </c>
       <c r="F153" t="n">
-        <v>3173.5789</v>
+        <v>2.3761</v>
       </c>
       <c r="G153" t="n">
-        <v>269.3149999999995</v>
+        <v>269.2583333333329</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6171,22 +5787,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>274.5</v>
+        <v>274</v>
       </c>
       <c r="C154" t="n">
-        <v>274.8</v>
+        <v>274</v>
       </c>
       <c r="D154" t="n">
-        <v>274.8</v>
+        <v>274</v>
       </c>
       <c r="E154" t="n">
-        <v>274.5</v>
+        <v>274</v>
       </c>
       <c r="F154" t="n">
-        <v>3600</v>
+        <v>3173.5789</v>
       </c>
       <c r="G154" t="n">
-        <v>269.3849999999996</v>
+        <v>269.3149999999995</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6209,19 +5825,19 @@
         <v>274.5</v>
       </c>
       <c r="C155" t="n">
-        <v>274.5</v>
+        <v>274.8</v>
       </c>
       <c r="D155" t="n">
-        <v>274.5</v>
+        <v>274.8</v>
       </c>
       <c r="E155" t="n">
         <v>274.5</v>
       </c>
       <c r="F155" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="G155" t="n">
-        <v>269.4499999999996</v>
+        <v>269.3849999999996</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6244,25 +5860,25 @@
         <v>274.5</v>
       </c>
       <c r="C156" t="n">
-        <v>275.5</v>
+        <v>274.5</v>
       </c>
       <c r="D156" t="n">
-        <v>275.5</v>
+        <v>274.5</v>
       </c>
       <c r="E156" t="n">
         <v>274.5</v>
       </c>
       <c r="F156" t="n">
-        <v>9994.87143822</v>
+        <v>2000</v>
       </c>
       <c r="G156" t="n">
-        <v>269.5316666666663</v>
+        <v>269.4499999999996</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -6271,6 +5887,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="C157" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="D157" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="E157" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>9994.87143822</v>
+      </c>
+      <c r="G157" t="n">
+        <v>269.5316666666663</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-26 BackTest MTL.xlsx
+++ b/BackTest/2020-01-26 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:N167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>300</v>
       </c>
       <c r="G2" t="n">
+        <v>269.1800000000002</v>
+      </c>
+      <c r="H2" t="n">
         <v>269.7866666666664</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>255.8105</v>
       </c>
       <c r="G3" t="n">
+        <v>269.1200000000002</v>
+      </c>
+      <c r="H3" t="n">
         <v>269.7233333333331</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>6296.7658</v>
       </c>
       <c r="G4" t="n">
+        <v>269.0533333333336</v>
+      </c>
+      <c r="H4" t="n">
         <v>269.6566666666665</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>4676</v>
       </c>
       <c r="G5" t="n">
+        <v>268.8533333333336</v>
+      </c>
+      <c r="H5" t="n">
         <v>269.5816666666664</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>14089.4452</v>
       </c>
       <c r="G6" t="n">
+        <v>268.7133333333335</v>
+      </c>
+      <c r="H6" t="n">
         <v>269.5166666666665</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>162.93</v>
       </c>
       <c r="G7" t="n">
+        <v>268.4400000000002</v>
+      </c>
+      <c r="H7" t="n">
         <v>269.4483333333332</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>3053.3728</v>
       </c>
       <c r="G8" t="n">
+        <v>268.2733333333335</v>
+      </c>
+      <c r="H8" t="n">
         <v>269.3783333333332</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>5017.8907</v>
       </c>
       <c r="G9" t="n">
+        <v>268.1733333333335</v>
+      </c>
+      <c r="H9" t="n">
         <v>269.3066666666665</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>20133.9437</v>
       </c>
       <c r="G10" t="n">
+        <v>268.0533333333335</v>
+      </c>
+      <c r="H10" t="n">
         <v>269.2566666666665</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1716.5677</v>
       </c>
       <c r="G11" t="n">
+        <v>267.9400000000002</v>
+      </c>
+      <c r="H11" t="n">
         <v>269.2083333333331</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>10162.2665</v>
       </c>
       <c r="G12" t="n">
+        <v>267.8000000000002</v>
+      </c>
+      <c r="H12" t="n">
         <v>269.1483333333331</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1529.7362</v>
       </c>
       <c r="G13" t="n">
+        <v>267.6733333333336</v>
+      </c>
+      <c r="H13" t="n">
         <v>269.0883333333331</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>1524.1241</v>
       </c>
       <c r="G14" t="n">
+        <v>267.6466666666669</v>
+      </c>
+      <c r="H14" t="n">
         <v>269.0466666666664</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>2390.7324</v>
       </c>
       <c r="G15" t="n">
+        <v>267.6200000000003</v>
+      </c>
+      <c r="H15" t="n">
         <v>269.0083333333331</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>703.2109</v>
       </c>
       <c r="G16" t="n">
+        <v>267.5600000000003</v>
+      </c>
+      <c r="H16" t="n">
         <v>268.9749999999997</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>3296.7891</v>
       </c>
       <c r="G17" t="n">
+        <v>267.5000000000003</v>
+      </c>
+      <c r="H17" t="n">
         <v>268.9033333333331</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>2302.9839</v>
       </c>
       <c r="G18" t="n">
+        <v>267.4400000000003</v>
+      </c>
+      <c r="H18" t="n">
         <v>268.8349999999998</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>17731.0287</v>
       </c>
       <c r="G19" t="n">
+        <v>267.2733333333337</v>
+      </c>
+      <c r="H19" t="n">
         <v>268.7733333333331</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>169.3307</v>
       </c>
       <c r="G20" t="n">
+        <v>267.1800000000004</v>
+      </c>
+      <c r="H20" t="n">
         <v>268.7283333333331</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>2455.8765</v>
       </c>
       <c r="G21" t="n">
+        <v>266.9600000000004</v>
+      </c>
+      <c r="H21" t="n">
         <v>268.6516666666664</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>42.3061</v>
       </c>
       <c r="G22" t="n">
+        <v>266.8133333333338</v>
+      </c>
+      <c r="H22" t="n">
         <v>268.573333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,25 @@
         <v>1844.9206</v>
       </c>
       <c r="G23" t="n">
+        <v>266.6666666666671</v>
+      </c>
+      <c r="H23" t="n">
         <v>268.4949999999997</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1293,29 @@
         <v>20000</v>
       </c>
       <c r="G24" t="n">
+        <v>266.5066666666672</v>
+      </c>
+      <c r="H24" t="n">
         <v>268.4299999999997</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>265.3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1339,27 @@
         <v>10000</v>
       </c>
       <c r="G25" t="n">
+        <v>266.3733333333338</v>
+      </c>
+      <c r="H25" t="n">
         <v>268.3633333333331</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1383,27 @@
         <v>10000</v>
       </c>
       <c r="G26" t="n">
+        <v>266.2333333333339</v>
+      </c>
+      <c r="H26" t="n">
         <v>268.2966666666664</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1427,29 @@
         <v>4149.4271</v>
       </c>
       <c r="G27" t="n">
+        <v>266.1266666666672</v>
+      </c>
+      <c r="H27" t="n">
         <v>268.2299999999997</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>265</v>
+      </c>
+      <c r="L27" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1473,27 @@
         <v>1017.3572</v>
       </c>
       <c r="G28" t="n">
+        <v>266.0200000000005</v>
+      </c>
+      <c r="H28" t="n">
         <v>268.1633333333331</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1517,29 @@
         <v>1400</v>
       </c>
       <c r="G29" t="n">
+        <v>265.8400000000004</v>
+      </c>
+      <c r="H29" t="n">
         <v>268.0966666666664</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>265</v>
+      </c>
+      <c r="L29" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1563,29 @@
         <v>7507.9753</v>
       </c>
       <c r="G30" t="n">
+        <v>265.6800000000005</v>
+      </c>
+      <c r="H30" t="n">
         <v>268.0349999999997</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>265</v>
+      </c>
+      <c r="L30" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1609,29 @@
         <v>700</v>
       </c>
       <c r="G31" t="n">
+        <v>265.5333333333338</v>
+      </c>
+      <c r="H31" t="n">
         <v>267.968333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>265.3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1655,29 @@
         <v>992.2332</v>
       </c>
       <c r="G32" t="n">
+        <v>265.3866666666672</v>
+      </c>
+      <c r="H32" t="n">
         <v>267.8849999999997</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>265</v>
+      </c>
+      <c r="L32" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1701,29 @@
         <v>1700</v>
       </c>
       <c r="G33" t="n">
+        <v>265.3000000000005</v>
+      </c>
+      <c r="H33" t="n">
         <v>267.8166666666664</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>265</v>
+      </c>
+      <c r="L33" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1747,27 @@
         <v>1275</v>
       </c>
       <c r="G34" t="n">
+        <v>265.2933333333338</v>
+      </c>
+      <c r="H34" t="n">
         <v>267.7549999999997</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1791,27 @@
         <v>610.5300999999999</v>
       </c>
       <c r="G35" t="n">
+        <v>265.2066666666671</v>
+      </c>
+      <c r="H35" t="n">
         <v>267.6799999999997</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1835,27 @@
         <v>394.3662</v>
       </c>
       <c r="G36" t="n">
+        <v>265.2200000000005</v>
+      </c>
+      <c r="H36" t="n">
         <v>267.598333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1879,27 @@
         <v>14000</v>
       </c>
       <c r="G37" t="n">
+        <v>265.1866666666671</v>
+      </c>
+      <c r="H37" t="n">
         <v>267.5299999999996</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1923,27 @@
         <v>47141.5976</v>
       </c>
       <c r="G38" t="n">
+        <v>265.0933333333338</v>
+      </c>
+      <c r="H38" t="n">
         <v>267.443333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1967,27 @@
         <v>12858.5616</v>
       </c>
       <c r="G39" t="n">
+        <v>264.9400000000004</v>
+      </c>
+      <c r="H39" t="n">
         <v>267.3399999999996</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2011,27 @@
         <v>146.3</v>
       </c>
       <c r="G40" t="n">
+        <v>264.8666666666671</v>
+      </c>
+      <c r="H40" t="n">
         <v>267.2549999999996</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2055,27 @@
         <v>996.1236</v>
       </c>
       <c r="G41" t="n">
+        <v>264.7933333333337</v>
+      </c>
+      <c r="H41" t="n">
         <v>267.1516666666663</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2099,27 @@
         <v>2579.0737</v>
       </c>
       <c r="G42" t="n">
+        <v>264.7200000000004</v>
+      </c>
+      <c r="H42" t="n">
         <v>267.0483333333329</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2143,27 @@
         <v>164.2747</v>
       </c>
       <c r="G43" t="n">
+        <v>264.646666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>266.9633333333329</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2187,27 @@
         <v>12.1541</v>
       </c>
       <c r="G44" t="n">
+        <v>264.5800000000003</v>
+      </c>
+      <c r="H44" t="n">
         <v>266.8566666666663</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2231,27 @@
         <v>2751.5867</v>
       </c>
       <c r="G45" t="n">
+        <v>264.4733333333336</v>
+      </c>
+      <c r="H45" t="n">
         <v>266.7683333333329</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2275,27 @@
         <v>3.7836</v>
       </c>
       <c r="G46" t="n">
+        <v>264.486666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>266.7049999999996</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2319,27 @@
         <v>2810</v>
       </c>
       <c r="G47" t="n">
+        <v>264.366666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>266.608333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2363,27 @@
         <v>757.2271</v>
       </c>
       <c r="G48" t="n">
+        <v>264.2400000000003</v>
+      </c>
+      <c r="H48" t="n">
         <v>266.5249999999996</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2407,27 @@
         <v>80</v>
       </c>
       <c r="G49" t="n">
+        <v>264.1466666666669</v>
+      </c>
+      <c r="H49" t="n">
         <v>266.4416666666663</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2451,27 @@
         <v>1070.321</v>
       </c>
       <c r="G50" t="n">
+        <v>264.0800000000003</v>
+      </c>
+      <c r="H50" t="n">
         <v>266.3299999999996</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2495,27 @@
         <v>1601.6946</v>
       </c>
       <c r="G51" t="n">
+        <v>263.9600000000003</v>
+      </c>
+      <c r="H51" t="n">
         <v>266.213333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,22 +2539,27 @@
         <v>2468.7405</v>
       </c>
       <c r="G52" t="n">
+        <v>263.8933333333336</v>
+      </c>
+      <c r="H52" t="n">
         <v>266.083333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>264</v>
-      </c>
-      <c r="K52" t="n">
-        <v>264</v>
-      </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2237,24 +2583,29 @@
         <v>1631.8495</v>
       </c>
       <c r="G53" t="n">
+        <v>263.9000000000003</v>
+      </c>
+      <c r="H53" t="n">
         <v>265.983333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="n">
         <v>264</v>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2278,24 +2629,27 @@
         <v>934.1673</v>
       </c>
       <c r="G54" t="n">
+        <v>263.9800000000002</v>
+      </c>
+      <c r="H54" t="n">
         <v>265.8999999999996</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>264</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2319,18 +2673,27 @@
         <v>4500</v>
       </c>
       <c r="G55" t="n">
+        <v>263.9866666666669</v>
+      </c>
+      <c r="H55" t="n">
         <v>265.8199999999997</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,18 +2717,27 @@
         <v>126.9999</v>
       </c>
       <c r="G56" t="n">
+        <v>264.1533333333335</v>
+      </c>
+      <c r="H56" t="n">
         <v>265.7799999999996</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2389,18 +2761,27 @@
         <v>317.4575</v>
       </c>
       <c r="G57" t="n">
+        <v>264.3200000000002</v>
+      </c>
+      <c r="H57" t="n">
         <v>265.7416666666663</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2424,18 +2805,27 @@
         <v>2420</v>
       </c>
       <c r="G58" t="n">
+        <v>264.5266666666669</v>
+      </c>
+      <c r="H58" t="n">
         <v>265.7166666666663</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2459,18 +2849,27 @@
         <v>1140</v>
       </c>
       <c r="G59" t="n">
+        <v>264.7266666666669</v>
+      </c>
+      <c r="H59" t="n">
         <v>265.698333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,18 +2893,27 @@
         <v>2075.6225</v>
       </c>
       <c r="G60" t="n">
+        <v>264.9466666666669</v>
+      </c>
+      <c r="H60" t="n">
         <v>265.6799999999996</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,18 +2937,27 @@
         <v>1070.321</v>
       </c>
       <c r="G61" t="n">
+        <v>265.0666666666669</v>
+      </c>
+      <c r="H61" t="n">
         <v>265.6616666666663</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,18 +2981,27 @@
         <v>106.8202</v>
       </c>
       <c r="G62" t="n">
+        <v>265.3200000000003</v>
+      </c>
+      <c r="H62" t="n">
         <v>265.6433333333329</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2599,18 +3025,27 @@
         <v>4569.1213</v>
       </c>
       <c r="G63" t="n">
+        <v>265.5733333333336</v>
+      </c>
+      <c r="H63" t="n">
         <v>265.6383333333329</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2634,18 +3069,27 @@
         <v>341.4</v>
       </c>
       <c r="G64" t="n">
+        <v>265.8266666666669</v>
+      </c>
+      <c r="H64" t="n">
         <v>265.6349999999996</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2669,18 +3113,27 @@
         <v>483.5425</v>
       </c>
       <c r="G65" t="n">
+        <v>266.0933333333336</v>
+      </c>
+      <c r="H65" t="n">
         <v>265.6399999999996</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2704,18 +3157,27 @@
         <v>3156.3813</v>
       </c>
       <c r="G66" t="n">
+        <v>266.346666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>265.6216666666662</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2739,18 +3201,27 @@
         <v>3669.9804</v>
       </c>
       <c r="G67" t="n">
+        <v>266.5400000000002</v>
+      </c>
+      <c r="H67" t="n">
         <v>265.6083333333329</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,18 +3245,27 @@
         <v>474.1869</v>
       </c>
       <c r="G68" t="n">
+        <v>266.7600000000003</v>
+      </c>
+      <c r="H68" t="n">
         <v>265.6049999999995</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,18 +3289,27 @@
         <v>2074.6099</v>
       </c>
       <c r="G69" t="n">
+        <v>266.926666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>265.5883333333329</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,18 +3333,27 @@
         <v>785.7942</v>
       </c>
       <c r="G70" t="n">
+        <v>267.0666666666669</v>
+      </c>
+      <c r="H70" t="n">
         <v>265.5733333333329</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,18 +3377,27 @@
         <v>5018.9997</v>
       </c>
       <c r="G71" t="n">
+        <v>267.0200000000003</v>
+      </c>
+      <c r="H71" t="n">
         <v>265.5499999999996</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,18 +3421,29 @@
         <v>2525.8131</v>
       </c>
       <c r="G72" t="n">
+        <v>266.9733333333336</v>
+      </c>
+      <c r="H72" t="n">
         <v>265.5349999999996</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="L72" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,18 +3467,29 @@
         <v>72.6561</v>
       </c>
       <c r="G73" t="n">
+        <v>266.886666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>265.5199999999996</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="L73" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,18 +3513,29 @@
         <v>2060</v>
       </c>
       <c r="G74" t="n">
+        <v>266.7600000000003</v>
+      </c>
+      <c r="H74" t="n">
         <v>265.4766666666662</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="L74" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,18 +3559,29 @@
         <v>244.9352</v>
       </c>
       <c r="G75" t="n">
+        <v>266.6333333333337</v>
+      </c>
+      <c r="H75" t="n">
         <v>265.4333333333329</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,18 +3605,29 @@
         <v>4260</v>
       </c>
       <c r="G76" t="n">
+        <v>266.4600000000003</v>
+      </c>
+      <c r="H76" t="n">
         <v>265.3866666666662</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3089,18 +3651,29 @@
         <v>15147.4452</v>
       </c>
       <c r="G77" t="n">
+        <v>266.2600000000003</v>
+      </c>
+      <c r="H77" t="n">
         <v>265.3333333333329</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="L77" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,18 +3697,29 @@
         <v>2.7749</v>
       </c>
       <c r="G78" t="n">
+        <v>266.0533333333336</v>
+      </c>
+      <c r="H78" t="n">
         <v>265.2916666666662</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>264</v>
+      </c>
+      <c r="L78" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3159,18 +3743,29 @@
         <v>1321.8</v>
       </c>
       <c r="G79" t="n">
+        <v>265.8400000000003</v>
+      </c>
+      <c r="H79" t="n">
         <v>265.2766666666662</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>264.7</v>
+      </c>
+      <c r="L79" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,18 +3789,29 @@
         <v>12645.0405</v>
       </c>
       <c r="G80" t="n">
+        <v>265.6000000000003</v>
+      </c>
+      <c r="H80" t="n">
         <v>265.2449999999995</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>264.6</v>
+      </c>
+      <c r="L80" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3229,18 +3835,29 @@
         <v>21592.1345</v>
       </c>
       <c r="G81" t="n">
+        <v>265.486666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>265.2533333333329</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="L81" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,18 +3881,27 @@
         <v>16443.61720986</v>
       </c>
       <c r="G82" t="n">
+        <v>265.5333333333336</v>
+      </c>
+      <c r="H82" t="n">
         <v>265.2883333333328</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,18 +3925,27 @@
         <v>984.0999</v>
       </c>
       <c r="G83" t="n">
+        <v>265.4933333333337</v>
+      </c>
+      <c r="H83" t="n">
         <v>265.3116666666662</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,18 +3969,27 @@
         <v>4419.0504</v>
       </c>
       <c r="G84" t="n">
+        <v>265.506666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>265.3383333333329</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,18 +4013,27 @@
         <v>1617.5843</v>
       </c>
       <c r="G85" t="n">
+        <v>265.546666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>265.3666666666662</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,18 +4057,27 @@
         <v>1117.8619</v>
       </c>
       <c r="G86" t="n">
+        <v>265.6800000000003</v>
+      </c>
+      <c r="H86" t="n">
         <v>265.4116666666662</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,18 +4101,27 @@
         <v>20</v>
       </c>
       <c r="G87" t="n">
+        <v>265.7333333333337</v>
+      </c>
+      <c r="H87" t="n">
         <v>265.4366666666663</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,18 +4145,27 @@
         <v>7035.0181</v>
       </c>
       <c r="G88" t="n">
+        <v>265.8866666666671</v>
+      </c>
+      <c r="H88" t="n">
         <v>265.4866666666663</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3509,18 +4189,27 @@
         <v>5100</v>
       </c>
       <c r="G89" t="n">
+        <v>266.1933333333337</v>
+      </c>
+      <c r="H89" t="n">
         <v>265.5649999999996</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,18 +4233,27 @@
         <v>1932.3881</v>
       </c>
       <c r="G90" t="n">
+        <v>266.5200000000003</v>
+      </c>
+      <c r="H90" t="n">
         <v>265.6433333333329</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3579,18 +4277,27 @@
         <v>2.6022</v>
       </c>
       <c r="G91" t="n">
+        <v>266.886666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>265.7249999999996</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,18 +4321,27 @@
         <v>450.8684</v>
       </c>
       <c r="G92" t="n">
+        <v>267.2733333333337</v>
+      </c>
+      <c r="H92" t="n">
         <v>265.8049999999996</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,18 +4365,27 @@
         <v>912.3951</v>
       </c>
       <c r="G93" t="n">
+        <v>267.626666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>265.8733333333329</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,18 +4409,27 @@
         <v>2663.0003</v>
       </c>
       <c r="G94" t="n">
+        <v>268.026666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>265.9599999999996</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,18 +4453,27 @@
         <v>0.0001</v>
       </c>
       <c r="G95" t="n">
+        <v>268.4400000000003</v>
+      </c>
+      <c r="H95" t="n">
         <v>266.0533333333329</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,18 +4497,27 @@
         <v>21435.8893</v>
       </c>
       <c r="G96" t="n">
+        <v>268.7400000000004</v>
+      </c>
+      <c r="H96" t="n">
         <v>266.133333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,18 +4541,27 @@
         <v>5180</v>
       </c>
       <c r="G97" t="n">
+        <v>268.9400000000003</v>
+      </c>
+      <c r="H97" t="n">
         <v>266.2266666666663</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,18 +4585,27 @@
         <v>6220.3628</v>
       </c>
       <c r="G98" t="n">
+        <v>269.1933333333337</v>
+      </c>
+      <c r="H98" t="n">
         <v>266.3366666666663</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,18 +4629,27 @@
         <v>2939.6999</v>
       </c>
       <c r="G99" t="n">
+        <v>269.3866666666671</v>
+      </c>
+      <c r="H99" t="n">
         <v>266.4499999999996</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4673,27 @@
         <v>5385.5642</v>
       </c>
       <c r="G100" t="n">
+        <v>269.5800000000005</v>
+      </c>
+      <c r="H100" t="n">
         <v>266.5449999999997</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4717,27 @@
         <v>1147.5212</v>
       </c>
       <c r="G101" t="n">
+        <v>269.7066666666672</v>
+      </c>
+      <c r="H101" t="n">
         <v>266.6399999999997</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,18 +4761,27 @@
         <v>2602.2</v>
       </c>
       <c r="G102" t="n">
+        <v>269.8000000000005</v>
+      </c>
+      <c r="H102" t="n">
         <v>266.7066666666664</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,18 +4805,27 @@
         <v>200</v>
       </c>
       <c r="G103" t="n">
+        <v>269.7866666666671</v>
+      </c>
+      <c r="H103" t="n">
         <v>266.7716666666664</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,18 +4849,27 @@
         <v>130</v>
       </c>
       <c r="G104" t="n">
+        <v>269.6600000000005</v>
+      </c>
+      <c r="H104" t="n">
         <v>266.8349999999997</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4893,27 @@
         <v>249.7394</v>
       </c>
       <c r="G105" t="n">
+        <v>269.5066666666672</v>
+      </c>
+      <c r="H105" t="n">
         <v>266.9016666666664</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4937,27 @@
         <v>626.4874</v>
       </c>
       <c r="G106" t="n">
+        <v>269.3600000000005</v>
+      </c>
+      <c r="H106" t="n">
         <v>266.943333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +4981,29 @@
         <v>2462</v>
       </c>
       <c r="G107" t="n">
+        <v>269.1400000000004</v>
+      </c>
+      <c r="H107" t="n">
         <v>266.998333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="L107" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +5027,29 @@
         <v>1873.0299</v>
       </c>
       <c r="G108" t="n">
+        <v>268.9000000000004</v>
+      </c>
+      <c r="H108" t="n">
         <v>267.038333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="L108" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +5073,29 @@
         <v>123.6247</v>
       </c>
       <c r="G109" t="n">
+        <v>268.6200000000004</v>
+      </c>
+      <c r="H109" t="n">
         <v>267.078333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L109" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,18 +5119,29 @@
         <v>248.6571</v>
       </c>
       <c r="G110" t="n">
+        <v>268.3400000000004</v>
+      </c>
+      <c r="H110" t="n">
         <v>267.118333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L110" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,18 +5165,29 @@
         <v>28733.8125</v>
       </c>
       <c r="G111" t="n">
+        <v>267.966666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>267.1349999999996</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L111" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,18 +5211,27 @@
         <v>8671.3112</v>
       </c>
       <c r="G112" t="n">
+        <v>267.7733333333338</v>
+      </c>
+      <c r="H112" t="n">
         <v>267.1966666666663</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,18 +5255,27 @@
         <v>5026.8403</v>
       </c>
       <c r="G113" t="n">
+        <v>267.6066666666671</v>
+      </c>
+      <c r="H113" t="n">
         <v>267.263333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,18 +5299,27 @@
         <v>176.9999</v>
       </c>
       <c r="G114" t="n">
+        <v>267.4800000000004</v>
+      </c>
+      <c r="H114" t="n">
         <v>267.3249999999996</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4419,22 +5343,27 @@
         <v>372.2038</v>
       </c>
       <c r="G115" t="n">
+        <v>267.3733333333337</v>
+      </c>
+      <c r="H115" t="n">
         <v>267.3916666666663</v>
       </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>267.7</v>
-      </c>
-      <c r="K115" t="n">
-        <v>267.7</v>
-      </c>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4458,24 +5387,27 @@
         <v>406.2212</v>
       </c>
       <c r="G116" t="n">
+        <v>267.2333333333337</v>
+      </c>
+      <c r="H116" t="n">
         <v>267.4099999999997</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>267.7</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4499,26 +5431,27 @@
         <v>859.6635</v>
       </c>
       <c r="G117" t="n">
+        <v>267.2933333333337</v>
+      </c>
+      <c r="H117" t="n">
         <v>267.4499999999996</v>
       </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>267.5</v>
-      </c>
-      <c r="K117" t="n">
-        <v>267.7</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,18 +5475,27 @@
         <v>1779.3648</v>
       </c>
       <c r="G118" t="n">
+        <v>267.3733333333337</v>
+      </c>
+      <c r="H118" t="n">
         <v>267.483333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4577,18 +5519,27 @@
         <v>20</v>
       </c>
       <c r="G119" t="n">
+        <v>267.4133333333336</v>
+      </c>
+      <c r="H119" t="n">
         <v>267.5066666666663</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4612,18 +5563,27 @@
         <v>20</v>
       </c>
       <c r="G120" t="n">
+        <v>267.4466666666669</v>
+      </c>
+      <c r="H120" t="n">
         <v>267.5266666666664</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4647,18 +5607,27 @@
         <v>2365.3763</v>
       </c>
       <c r="G121" t="n">
+        <v>267.4733333333336</v>
+      </c>
+      <c r="H121" t="n">
         <v>267.5449999999997</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4682,18 +5651,27 @@
         <v>3669.9804</v>
       </c>
       <c r="G122" t="n">
+        <v>267.5733333333337</v>
+      </c>
+      <c r="H122" t="n">
         <v>267.5616666666663</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4717,18 +5695,27 @@
         <v>5640.3941</v>
       </c>
       <c r="G123" t="n">
+        <v>267.6933333333337</v>
+      </c>
+      <c r="H123" t="n">
         <v>267.568333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,18 +5739,27 @@
         <v>12298.1208</v>
       </c>
       <c r="G124" t="n">
+        <v>267.8000000000004</v>
+      </c>
+      <c r="H124" t="n">
         <v>267.5716666666664</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4787,18 +5783,27 @@
         <v>20</v>
       </c>
       <c r="G125" t="n">
+        <v>267.9000000000003</v>
+      </c>
+      <c r="H125" t="n">
         <v>267.5699999999997</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4822,18 +5827,29 @@
         <v>4800</v>
       </c>
       <c r="G126" t="n">
+        <v>268.0200000000003</v>
+      </c>
+      <c r="H126" t="n">
         <v>267.5533333333331</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="L126" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4857,18 +5873,29 @@
         <v>7</v>
       </c>
       <c r="G127" t="n">
+        <v>267.9933333333337</v>
+      </c>
+      <c r="H127" t="n">
         <v>267.5599999999997</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>266.8</v>
+      </c>
+      <c r="L127" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4892,18 +5919,29 @@
         <v>249.7394</v>
       </c>
       <c r="G128" t="n">
+        <v>267.8800000000003</v>
+      </c>
+      <c r="H128" t="n">
         <v>267.543333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>267.3</v>
+      </c>
+      <c r="L128" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4927,18 +5965,29 @@
         <v>4092.6088</v>
       </c>
       <c r="G129" t="n">
+        <v>267.8533333333337</v>
+      </c>
+      <c r="H129" t="n">
         <v>267.5566666666663</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>266.3</v>
+      </c>
+      <c r="L129" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,18 +6011,29 @@
         <v>249.7394</v>
       </c>
       <c r="G130" t="n">
+        <v>267.8000000000004</v>
+      </c>
+      <c r="H130" t="n">
         <v>267.5749999999997</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>267.3</v>
+      </c>
+      <c r="L130" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4997,18 +6057,29 @@
         <v>23.00037271</v>
       </c>
       <c r="G131" t="n">
+        <v>267.8533333333337</v>
+      </c>
+      <c r="H131" t="n">
         <v>267.618333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>267.2</v>
+      </c>
+      <c r="L131" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5032,18 +6103,29 @@
         <v>4224.00492729</v>
       </c>
       <c r="G132" t="n">
+        <v>267.8200000000004</v>
+      </c>
+      <c r="H132" t="n">
         <v>267.6616666666663</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>268.3</v>
+      </c>
+      <c r="L132" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5067,18 +6149,27 @@
         <v>2435.2705</v>
       </c>
       <c r="G133" t="n">
+        <v>267.7800000000004</v>
+      </c>
+      <c r="H133" t="n">
         <v>267.7066666666663</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5102,18 +6193,27 @@
         <v>1070.321</v>
       </c>
       <c r="G134" t="n">
+        <v>267.7800000000003</v>
+      </c>
+      <c r="H134" t="n">
         <v>267.7616666666663</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,18 +6237,27 @@
         <v>2092.0291</v>
       </c>
       <c r="G135" t="n">
+        <v>267.7933333333337</v>
+      </c>
+      <c r="H135" t="n">
         <v>267.8166666666663</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5172,18 +6281,27 @@
         <v>1070.9999</v>
       </c>
       <c r="G136" t="n">
+        <v>267.8133333333337</v>
+      </c>
+      <c r="H136" t="n">
         <v>267.8833333333329</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5207,18 +6325,27 @@
         <v>4971.8424</v>
       </c>
       <c r="G137" t="n">
+        <v>268.046666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>268.0083333333329</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,18 +6369,27 @@
         <v>871.2763</v>
       </c>
       <c r="G138" t="n">
+        <v>268.206666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>268.1066666666663</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5277,18 +6413,27 @@
         <v>3861.5326</v>
       </c>
       <c r="G139" t="n">
+        <v>268.446666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>268.223333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5312,18 +6457,27 @@
         <v>2740</v>
       </c>
       <c r="G140" t="n">
+        <v>268.6933333333337</v>
+      </c>
+      <c r="H140" t="n">
         <v>268.343333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5347,18 +6501,27 @@
         <v>431.0019</v>
       </c>
       <c r="G141" t="n">
+        <v>269.0133333333337</v>
+      </c>
+      <c r="H141" t="n">
         <v>268.4349999999996</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5382,18 +6545,27 @@
         <v>2620</v>
       </c>
       <c r="G142" t="n">
+        <v>269.3200000000003</v>
+      </c>
+      <c r="H142" t="n">
         <v>268.5066666666663</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5417,18 +6589,27 @@
         <v>2585.1552</v>
       </c>
       <c r="G143" t="n">
+        <v>269.7000000000003</v>
+      </c>
+      <c r="H143" t="n">
         <v>268.5949999999996</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5452,18 +6633,27 @@
         <v>134.3803</v>
       </c>
       <c r="G144" t="n">
+        <v>270.0133333333336</v>
+      </c>
+      <c r="H144" t="n">
         <v>268.6833333333329</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5487,18 +6677,27 @@
         <v>937.9905</v>
       </c>
       <c r="G145" t="n">
+        <v>270.3333333333337</v>
+      </c>
+      <c r="H145" t="n">
         <v>268.7716666666662</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5522,18 +6721,27 @@
         <v>831.9299</v>
       </c>
       <c r="G146" t="n">
+        <v>270.5800000000003</v>
+      </c>
+      <c r="H146" t="n">
         <v>268.8433333333329</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5557,18 +6765,27 @@
         <v>14642.35296197</v>
       </c>
       <c r="G147" t="n">
+        <v>270.9466666666669</v>
+      </c>
+      <c r="H147" t="n">
         <v>268.9649999999995</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5592,18 +6809,27 @@
         <v>5</v>
       </c>
       <c r="G148" t="n">
+        <v>271.2333333333336</v>
+      </c>
+      <c r="H148" t="n">
         <v>269.0433333333329</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5627,18 +6853,27 @@
         <v>3143.935</v>
       </c>
       <c r="G149" t="n">
+        <v>271.4400000000002</v>
+      </c>
+      <c r="H149" t="n">
         <v>269.0733333333329</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5662,18 +6897,27 @@
         <v>901.2575000000001</v>
       </c>
       <c r="G150" t="n">
+        <v>271.6466666666669</v>
+      </c>
+      <c r="H150" t="n">
         <v>269.0983333333328</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5697,18 +6941,27 @@
         <v>2233.9839</v>
       </c>
       <c r="G151" t="n">
+        <v>271.9200000000003</v>
+      </c>
+      <c r="H151" t="n">
         <v>269.1416666666662</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5732,18 +6985,27 @@
         <v>142.7158</v>
       </c>
       <c r="G152" t="n">
+        <v>272.0066666666669</v>
+      </c>
+      <c r="H152" t="n">
         <v>269.1916666666663</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5767,18 +7029,27 @@
         <v>2.3761</v>
       </c>
       <c r="G153" t="n">
+        <v>272.2333333333336</v>
+      </c>
+      <c r="H153" t="n">
         <v>269.2583333333329</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5802,18 +7073,27 @@
         <v>3173.5789</v>
       </c>
       <c r="G154" t="n">
+        <v>272.3933333333336</v>
+      </c>
+      <c r="H154" t="n">
         <v>269.3149999999995</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5837,18 +7117,27 @@
         <v>3600</v>
       </c>
       <c r="G155" t="n">
+        <v>272.6066666666669</v>
+      </c>
+      <c r="H155" t="n">
         <v>269.3849999999996</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5872,18 +7161,27 @@
         <v>2000</v>
       </c>
       <c r="G156" t="n">
+        <v>272.8000000000003</v>
+      </c>
+      <c r="H156" t="n">
         <v>269.4499999999996</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5907,18 +7205,425 @@
         <v>9994.87143822</v>
       </c>
       <c r="G157" t="n">
+        <v>273.0400000000002</v>
+      </c>
+      <c r="H157" t="n">
         <v>269.5316666666663</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="C158" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="D158" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="E158" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="F158" t="n">
+        <v>868.2604</v>
+      </c>
+      <c r="G158" t="n">
+        <v>273.2066666666669</v>
+      </c>
+      <c r="H158" t="n">
+        <v>269.598333333333</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="C159" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="D159" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="E159" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="F159" t="n">
+        <v>370.7396</v>
+      </c>
+      <c r="G159" t="n">
+        <v>273.3733333333336</v>
+      </c>
+      <c r="H159" t="n">
+        <v>269.6799999999997</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>275.4</v>
+      </c>
+      <c r="C160" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="D160" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="E160" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="F160" t="n">
+        <v>17545.2831</v>
+      </c>
+      <c r="G160" t="n">
+        <v>273.5400000000002</v>
+      </c>
+      <c r="H160" t="n">
+        <v>269.7616666666664</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>1.028898305084746</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="C161" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="D161" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="E161" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>16308.0954</v>
+      </c>
+      <c r="G161" t="n">
+        <v>273.7066666666669</v>
+      </c>
+      <c r="H161" t="n">
+        <v>269.843333333333</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="C162" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="D162" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="E162" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>989.4508</v>
+      </c>
+      <c r="G162" t="n">
+        <v>273.7533333333336</v>
+      </c>
+      <c r="H162" t="n">
+        <v>269.9533333333331</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="C163" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="D163" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="E163" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="F163" t="n">
+        <v>9299.0576</v>
+      </c>
+      <c r="G163" t="n">
+        <v>273.8200000000003</v>
+      </c>
+      <c r="H163" t="n">
+        <v>270.0516666666664</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="C164" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="D164" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="E164" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="F164" t="n">
+        <v>111.9739</v>
+      </c>
+      <c r="G164" t="n">
+        <v>273.9666666666669</v>
+      </c>
+      <c r="H164" t="n">
+        <v>270.1499999999997</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="C165" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="D165" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="E165" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="F165" t="n">
+        <v>33.5359</v>
+      </c>
+      <c r="G165" t="n">
+        <v>274.1133333333336</v>
+      </c>
+      <c r="H165" t="n">
+        <v>270.2499999999998</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="C166" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="D166" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3922.4654</v>
+      </c>
+      <c r="G166" t="n">
+        <v>274.1933333333336</v>
+      </c>
+      <c r="H166" t="n">
+        <v>270.3499999999997</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="E167" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>715.9143</v>
+      </c>
+      <c r="G167" t="n">
+        <v>274.2133333333335</v>
+      </c>
+      <c r="H167" t="n">
+        <v>270.4599999999998</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-26 BackTest MTL.xlsx
+++ b/BackTest/2020-01-26 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M196"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>270</v>
+        <v>267.7</v>
       </c>
       <c r="C2" t="n">
-        <v>270</v>
+        <v>267.7</v>
       </c>
       <c r="D2" t="n">
-        <v>270</v>
+        <v>267.7</v>
       </c>
       <c r="E2" t="n">
-        <v>270</v>
+        <v>267.7</v>
       </c>
       <c r="F2" t="n">
-        <v>11.6161</v>
+        <v>2390.7324</v>
       </c>
       <c r="G2" t="n">
-        <v>4199.869372220001</v>
+        <v>-46359.29262778</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>270</v>
+        <v>267.2</v>
       </c>
       <c r="C3" t="n">
-        <v>269.1</v>
+        <v>267.2</v>
       </c>
       <c r="D3" t="n">
-        <v>270</v>
+        <v>267.2</v>
       </c>
       <c r="E3" t="n">
-        <v>269.1</v>
+        <v>267.2</v>
       </c>
       <c r="F3" t="n">
-        <v>4000</v>
+        <v>703.2109</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8693722200014</v>
+        <v>-47062.50352778</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>271</v>
+        <v>267.2</v>
       </c>
       <c r="C4" t="n">
-        <v>269.5</v>
+        <v>267.2</v>
       </c>
       <c r="D4" t="n">
-        <v>271</v>
+        <v>267.2</v>
       </c>
       <c r="E4" t="n">
-        <v>269.5</v>
+        <v>267.2</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>3296.7891</v>
       </c>
       <c r="G4" t="n">
-        <v>203.8693722200014</v>
+        <v>-47062.50352778</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>271</v>
+        <v>267.2</v>
       </c>
       <c r="C5" t="n">
-        <v>270.7</v>
+        <v>267.2</v>
       </c>
       <c r="D5" t="n">
-        <v>271</v>
+        <v>267.2</v>
       </c>
       <c r="E5" t="n">
-        <v>269.1</v>
+        <v>267.2</v>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>2302.9839</v>
       </c>
       <c r="G5" t="n">
-        <v>217.8693722200014</v>
+        <v>-47062.50352778</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>269.1</v>
+        <v>266.5</v>
       </c>
       <c r="C6" t="n">
-        <v>269.1</v>
+        <v>265.5</v>
       </c>
       <c r="D6" t="n">
-        <v>269.1</v>
+        <v>266.5</v>
       </c>
       <c r="E6" t="n">
-        <v>269.1</v>
+        <v>265.5</v>
       </c>
       <c r="F6" t="n">
-        <v>250.5701</v>
+        <v>17731.0287</v>
       </c>
       <c r="G6" t="n">
-        <v>-32.70072777999857</v>
+        <v>-64793.53222778</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>269.1</v>
+        <v>266.3</v>
       </c>
       <c r="C7" t="n">
-        <v>269.1</v>
+        <v>266.3</v>
       </c>
       <c r="D7" t="n">
-        <v>269.1</v>
+        <v>266.3</v>
       </c>
       <c r="E7" t="n">
-        <v>269.1</v>
+        <v>266.3</v>
       </c>
       <c r="F7" t="n">
-        <v>2885.4829</v>
+        <v>169.3307</v>
       </c>
       <c r="G7" t="n">
-        <v>-32.70072777999857</v>
+        <v>-64624.20152778</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>269.1</v>
+        <v>265.6</v>
       </c>
       <c r="C8" t="n">
-        <v>269</v>
+        <v>265.6</v>
       </c>
       <c r="D8" t="n">
-        <v>269.1</v>
+        <v>265.6</v>
       </c>
       <c r="E8" t="n">
-        <v>269</v>
+        <v>265.6</v>
       </c>
       <c r="F8" t="n">
-        <v>7500</v>
+        <v>2455.8765</v>
       </c>
       <c r="G8" t="n">
-        <v>-7532.700727779998</v>
+        <v>-67080.07802778001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>269</v>
+        <v>265.5</v>
       </c>
       <c r="C9" t="n">
-        <v>269</v>
+        <v>265.5</v>
       </c>
       <c r="D9" t="n">
-        <v>269</v>
+        <v>265.5</v>
       </c>
       <c r="E9" t="n">
-        <v>269</v>
+        <v>265.5</v>
       </c>
       <c r="F9" t="n">
-        <v>400</v>
+        <v>42.3061</v>
       </c>
       <c r="G9" t="n">
-        <v>-7532.700727779998</v>
+        <v>-67122.38412778001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>270.1</v>
+        <v>265.3</v>
       </c>
       <c r="C10" t="n">
-        <v>270.1</v>
+        <v>265.3</v>
       </c>
       <c r="D10" t="n">
-        <v>270.1</v>
+        <v>265.3</v>
       </c>
       <c r="E10" t="n">
-        <v>270.1</v>
+        <v>265.3</v>
       </c>
       <c r="F10" t="n">
-        <v>923.2714</v>
+        <v>1844.9206</v>
       </c>
       <c r="G10" t="n">
-        <v>-6609.429327779999</v>
+        <v>-68967.30472778001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>270.1</v>
+        <v>265.3</v>
       </c>
       <c r="C11" t="n">
-        <v>270.1</v>
+        <v>265.1</v>
       </c>
       <c r="D11" t="n">
-        <v>270.1</v>
+        <v>265.3</v>
       </c>
       <c r="E11" t="n">
-        <v>270.1</v>
+        <v>265.1</v>
       </c>
       <c r="F11" t="n">
-        <v>3.6987</v>
+        <v>20000</v>
       </c>
       <c r="G11" t="n">
-        <v>-6609.429327779999</v>
+        <v>-88967.30472778001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>269</v>
+        <v>265.1</v>
       </c>
       <c r="C12" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D12" t="n">
-        <v>269</v>
+        <v>265.1</v>
       </c>
       <c r="E12" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F12" t="n">
-        <v>1011</v>
+        <v>10000</v>
       </c>
       <c r="G12" t="n">
-        <v>-7620.429327779999</v>
+        <v>-98967.30472778001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>270.4</v>
+        <v>265.1</v>
       </c>
       <c r="C13" t="n">
-        <v>270.4</v>
+        <v>265</v>
       </c>
       <c r="D13" t="n">
-        <v>270.4</v>
+        <v>265.1</v>
       </c>
       <c r="E13" t="n">
-        <v>270.4</v>
+        <v>265</v>
       </c>
       <c r="F13" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G13" t="n">
-        <v>-6620.429327779999</v>
+        <v>-98967.30472778001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>270.4</v>
+        <v>265</v>
       </c>
       <c r="C14" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D14" t="n">
-        <v>270.4</v>
+        <v>265</v>
       </c>
       <c r="E14" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F14" t="n">
-        <v>4443.1032</v>
+        <v>4149.4271</v>
       </c>
       <c r="G14" t="n">
-        <v>-11063.53252778</v>
+        <v>-98967.30472778001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C15" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D15" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E15" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F15" t="n">
-        <v>923.2714</v>
+        <v>1017.3572</v>
       </c>
       <c r="G15" t="n">
-        <v>-11063.53252778</v>
+        <v>-98967.30472778001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C16" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D16" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E16" t="n">
-        <v>268.8</v>
+        <v>265</v>
       </c>
       <c r="F16" t="n">
-        <v>924.3584</v>
+        <v>1400</v>
       </c>
       <c r="G16" t="n">
-        <v>-11063.53252778</v>
+        <v>-98967.30472778001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C17" t="n">
-        <v>269</v>
+        <v>265.3</v>
       </c>
       <c r="D17" t="n">
-        <v>269</v>
+        <v>265.3</v>
       </c>
       <c r="E17" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F17" t="n">
-        <v>706.9018</v>
+        <v>7507.9753</v>
       </c>
       <c r="G17" t="n">
-        <v>-11063.53252778</v>
+        <v>-91459.32942778</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C18" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D18" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E18" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F18" t="n">
-        <v>4903.4306</v>
+        <v>700</v>
       </c>
       <c r="G18" t="n">
-        <v>-11063.53252778</v>
+        <v>-92159.32942778</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>270.6</v>
+        <v>265</v>
       </c>
       <c r="C19" t="n">
-        <v>270.7</v>
+        <v>265</v>
       </c>
       <c r="D19" t="n">
-        <v>270.7</v>
+        <v>265</v>
       </c>
       <c r="E19" t="n">
-        <v>270.6</v>
+        <v>265</v>
       </c>
       <c r="F19" t="n">
-        <v>13000</v>
+        <v>992.2332</v>
       </c>
       <c r="G19" t="n">
-        <v>1936.467472220002</v>
+        <v>-92159.32942778</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>270.8</v>
+        <v>265.9</v>
       </c>
       <c r="C20" t="n">
-        <v>271</v>
+        <v>265.9</v>
       </c>
       <c r="D20" t="n">
-        <v>272.3</v>
+        <v>265.9</v>
       </c>
       <c r="E20" t="n">
-        <v>270.8</v>
+        <v>265.9</v>
       </c>
       <c r="F20" t="n">
-        <v>12694.0441</v>
+        <v>1700</v>
       </c>
       <c r="G20" t="n">
-        <v>14630.51157222</v>
+        <v>-90459.32942778</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>271.8</v>
+        <v>265.4</v>
       </c>
       <c r="C21" t="n">
-        <v>271.8</v>
+        <v>265.4</v>
       </c>
       <c r="D21" t="n">
-        <v>271.8</v>
+        <v>265.4</v>
       </c>
       <c r="E21" t="n">
-        <v>271.8</v>
+        <v>265.4</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>1275</v>
       </c>
       <c r="G21" t="n">
-        <v>14633.51157222</v>
+        <v>-91734.32942778</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>270</v>
+        <v>265.4</v>
       </c>
       <c r="C22" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D22" t="n">
-        <v>270</v>
+        <v>265.4</v>
       </c>
       <c r="E22" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>610.5300999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>14628.51157222</v>
+        <v>-92344.85952778001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>269</v>
+        <v>265.8</v>
       </c>
       <c r="C23" t="n">
-        <v>269</v>
+        <v>265.8</v>
       </c>
       <c r="D23" t="n">
-        <v>269</v>
+        <v>265.8</v>
       </c>
       <c r="E23" t="n">
-        <v>269</v>
+        <v>265.8</v>
       </c>
       <c r="F23" t="n">
-        <v>10421.2351</v>
+        <v>394.3662</v>
       </c>
       <c r="G23" t="n">
-        <v>4207.276472220001</v>
+        <v>-91950.49332778</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>269</v>
+        <v>265.1</v>
       </c>
       <c r="C24" t="n">
-        <v>268.8</v>
+        <v>265</v>
       </c>
       <c r="D24" t="n">
-        <v>269</v>
+        <v>265.1</v>
       </c>
       <c r="E24" t="n">
-        <v>268.8</v>
+        <v>265</v>
       </c>
       <c r="F24" t="n">
-        <v>6595.2328</v>
+        <v>14000</v>
       </c>
       <c r="G24" t="n">
-        <v>-2387.956327779999</v>
+        <v>-105950.49332778</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>268.8</v>
+        <v>265</v>
       </c>
       <c r="C25" t="n">
-        <v>268.8</v>
+        <v>263.9</v>
       </c>
       <c r="D25" t="n">
-        <v>268.8</v>
+        <v>265</v>
       </c>
       <c r="E25" t="n">
-        <v>268.8</v>
+        <v>263.9</v>
       </c>
       <c r="F25" t="n">
-        <v>3615.4518</v>
+        <v>47141.5976</v>
       </c>
       <c r="G25" t="n">
-        <v>-2387.956327779999</v>
+        <v>-153092.09092778</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>268.7</v>
+        <v>264</v>
       </c>
       <c r="C26" t="n">
-        <v>268.7</v>
+        <v>262.8</v>
       </c>
       <c r="D26" t="n">
-        <v>268.7</v>
+        <v>264</v>
       </c>
       <c r="E26" t="n">
-        <v>268.7</v>
+        <v>262.8</v>
       </c>
       <c r="F26" t="n">
-        <v>4055.76</v>
+        <v>12858.5616</v>
       </c>
       <c r="G26" t="n">
-        <v>-6443.716327779999</v>
+        <v>-165950.65252778</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>268.7</v>
+        <v>263.9</v>
       </c>
       <c r="C27" t="n">
-        <v>268.5</v>
+        <v>263.9</v>
       </c>
       <c r="D27" t="n">
-        <v>268.7</v>
+        <v>263.9</v>
       </c>
       <c r="E27" t="n">
-        <v>268.5</v>
+        <v>263.9</v>
       </c>
       <c r="F27" t="n">
-        <v>2394.5777</v>
+        <v>146.3</v>
       </c>
       <c r="G27" t="n">
-        <v>-8838.294027779999</v>
+        <v>-165804.35252778</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>268.5</v>
+        <v>263.9</v>
       </c>
       <c r="C28" t="n">
-        <v>268.1</v>
+        <v>263.9</v>
       </c>
       <c r="D28" t="n">
-        <v>268.5</v>
+        <v>263.9</v>
       </c>
       <c r="E28" t="n">
-        <v>268.1</v>
+        <v>263.9</v>
       </c>
       <c r="F28" t="n">
-        <v>10365.8568</v>
+        <v>996.1236</v>
       </c>
       <c r="G28" t="n">
-        <v>-19204.15082778</v>
+        <v>-165804.35252778</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>268.1</v>
+        <v>263.9</v>
       </c>
       <c r="C29" t="n">
-        <v>268.1</v>
+        <v>263.9</v>
       </c>
       <c r="D29" t="n">
-        <v>268.1</v>
+        <v>263.9</v>
       </c>
       <c r="E29" t="n">
-        <v>268.1</v>
+        <v>263.9</v>
       </c>
       <c r="F29" t="n">
-        <v>913.7034</v>
+        <v>2579.0737</v>
       </c>
       <c r="G29" t="n">
-        <v>-19204.15082778</v>
+        <v>-165804.35252778</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>268.1</v>
+        <v>263.9</v>
       </c>
       <c r="C30" t="n">
-        <v>268.1</v>
+        <v>263.9</v>
       </c>
       <c r="D30" t="n">
-        <v>268.1</v>
+        <v>263.9</v>
       </c>
       <c r="E30" t="n">
-        <v>268.1</v>
+        <v>263.9</v>
       </c>
       <c r="F30" t="n">
-        <v>511</v>
+        <v>164.2747</v>
       </c>
       <c r="G30" t="n">
-        <v>-19204.15082778</v>
+        <v>-165804.35252778</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>268.1</v>
+        <v>264</v>
       </c>
       <c r="C31" t="n">
-        <v>268.1</v>
+        <v>264</v>
       </c>
       <c r="D31" t="n">
-        <v>268.1</v>
+        <v>264</v>
       </c>
       <c r="E31" t="n">
-        <v>268.1</v>
+        <v>264</v>
       </c>
       <c r="F31" t="n">
-        <v>300</v>
+        <v>12.1541</v>
       </c>
       <c r="G31" t="n">
-        <v>-19204.15082778</v>
+        <v>-165792.19842778</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>268.1</v>
+        <v>264</v>
       </c>
       <c r="C32" t="n">
-        <v>268.1</v>
+        <v>263.7</v>
       </c>
       <c r="D32" t="n">
-        <v>268.1</v>
+        <v>264</v>
       </c>
       <c r="E32" t="n">
-        <v>268.1</v>
+        <v>263.7</v>
       </c>
       <c r="F32" t="n">
-        <v>255.8105</v>
+        <v>2751.5867</v>
       </c>
       <c r="G32" t="n">
-        <v>-19204.15082778</v>
+        <v>-168543.78512778</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>268.1</v>
+        <v>265.2</v>
       </c>
       <c r="C33" t="n">
-        <v>268</v>
+        <v>265.2</v>
       </c>
       <c r="D33" t="n">
-        <v>268.1</v>
+        <v>265.2</v>
       </c>
       <c r="E33" t="n">
-        <v>268</v>
+        <v>265.2</v>
       </c>
       <c r="F33" t="n">
-        <v>6296.7658</v>
+        <v>3.7836</v>
       </c>
       <c r="G33" t="n">
-        <v>-25500.91662778</v>
+        <v>-168540.00152778</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>268</v>
+        <v>263.2</v>
       </c>
       <c r="C34" t="n">
-        <v>267.7</v>
+        <v>263.2</v>
       </c>
       <c r="D34" t="n">
-        <v>268</v>
+        <v>263.2</v>
       </c>
       <c r="E34" t="n">
-        <v>267.7</v>
+        <v>263.2</v>
       </c>
       <c r="F34" t="n">
-        <v>4676</v>
+        <v>2810</v>
       </c>
       <c r="G34" t="n">
-        <v>-30176.91662778</v>
+        <v>-171350.00152778</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>267.7</v>
+        <v>264</v>
       </c>
       <c r="C35" t="n">
-        <v>268.9</v>
+        <v>264</v>
       </c>
       <c r="D35" t="n">
-        <v>268.9</v>
+        <v>264</v>
       </c>
       <c r="E35" t="n">
-        <v>267.7</v>
+        <v>264</v>
       </c>
       <c r="F35" t="n">
-        <v>14089.4452</v>
+        <v>757.2271</v>
       </c>
       <c r="G35" t="n">
-        <v>-16087.47142778</v>
+        <v>-170592.77442778</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>267.7</v>
+        <v>264</v>
       </c>
       <c r="C36" t="n">
-        <v>267.7</v>
+        <v>264</v>
       </c>
       <c r="D36" t="n">
-        <v>267.7</v>
+        <v>264</v>
       </c>
       <c r="E36" t="n">
-        <v>267.7</v>
+        <v>264</v>
       </c>
       <c r="F36" t="n">
-        <v>162.93</v>
+        <v>80</v>
       </c>
       <c r="G36" t="n">
-        <v>-16250.40142778</v>
+        <v>-170592.77442778</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>267.7</v>
+        <v>264</v>
       </c>
       <c r="C37" t="n">
-        <v>267.5</v>
+        <v>264</v>
       </c>
       <c r="D37" t="n">
-        <v>267.7</v>
+        <v>264</v>
       </c>
       <c r="E37" t="n">
-        <v>267.5</v>
+        <v>264</v>
       </c>
       <c r="F37" t="n">
-        <v>3053.3728</v>
+        <v>1070.321</v>
       </c>
       <c r="G37" t="n">
-        <v>-19303.77422778</v>
+        <v>-170592.77442778</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>267.5</v>
+        <v>264</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5</v>
+        <v>264</v>
       </c>
       <c r="D38" t="n">
-        <v>267.5</v>
+        <v>264</v>
       </c>
       <c r="E38" t="n">
-        <v>267.5</v>
+        <v>264</v>
       </c>
       <c r="F38" t="n">
-        <v>5017.8907</v>
+        <v>1601.6946</v>
       </c>
       <c r="G38" t="n">
-        <v>-19303.77422778</v>
+        <v>-170592.77442778</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>267.5</v>
+        <v>264</v>
       </c>
       <c r="C39" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D39" t="n">
-        <v>267.5</v>
+        <v>264</v>
       </c>
       <c r="E39" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F39" t="n">
-        <v>20133.9437</v>
+        <v>2468.7405</v>
       </c>
       <c r="G39" t="n">
-        <v>-39437.71792778</v>
+        <v>-170592.77442778</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>267.1</v>
+        <v>264</v>
       </c>
       <c r="C40" t="n">
-        <v>267.1</v>
+        <v>264</v>
       </c>
       <c r="D40" t="n">
-        <v>267.1</v>
+        <v>264</v>
       </c>
       <c r="E40" t="n">
-        <v>267.1</v>
+        <v>264</v>
       </c>
       <c r="F40" t="n">
-        <v>1716.5677</v>
+        <v>1631.8495</v>
       </c>
       <c r="G40" t="n">
-        <v>-37721.15022778</v>
+        <v>-170592.77442778</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,238 +1835,285 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>267.1</v>
+        <v>264</v>
       </c>
       <c r="C41" t="n">
-        <v>266.6</v>
+        <v>264</v>
       </c>
       <c r="D41" t="n">
-        <v>267.1</v>
+        <v>264</v>
       </c>
       <c r="E41" t="n">
-        <v>266.6</v>
+        <v>264</v>
       </c>
       <c r="F41" t="n">
-        <v>10162.2665</v>
+        <v>934.1673</v>
       </c>
       <c r="G41" t="n">
-        <v>-47883.41672778</v>
+        <v>-170592.77442778</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>264</v>
+      </c>
+      <c r="K41" t="n">
+        <v>264</v>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>266.7</v>
+        <v>264</v>
       </c>
       <c r="C42" t="n">
-        <v>266.6</v>
+        <v>264</v>
       </c>
       <c r="D42" t="n">
-        <v>266.7</v>
+        <v>264</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6</v>
+        <v>264</v>
       </c>
       <c r="F42" t="n">
-        <v>1529.7362</v>
+        <v>4500</v>
       </c>
       <c r="G42" t="n">
-        <v>-47883.41672778</v>
+        <v>-170592.77442778</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>264</v>
+      </c>
+      <c r="K42" t="n">
+        <v>264</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>266.6</v>
+        <v>266.4</v>
       </c>
       <c r="C43" t="n">
-        <v>267.7</v>
+        <v>266.4</v>
       </c>
       <c r="D43" t="n">
-        <v>267.7</v>
+        <v>266.4</v>
       </c>
       <c r="E43" t="n">
-        <v>266.6</v>
+        <v>266.4</v>
       </c>
       <c r="F43" t="n">
-        <v>1524.1241</v>
+        <v>126.9999</v>
       </c>
       <c r="G43" t="n">
-        <v>-46359.29262778</v>
+        <v>-170465.77452778</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>264</v>
+      </c>
+      <c r="K43" t="n">
+        <v>264</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>267.7</v>
+        <v>266.4</v>
       </c>
       <c r="C44" t="n">
-        <v>267.7</v>
+        <v>266.4</v>
       </c>
       <c r="D44" t="n">
-        <v>267.7</v>
+        <v>266.4</v>
       </c>
       <c r="E44" t="n">
-        <v>267.7</v>
+        <v>266.4</v>
       </c>
       <c r="F44" t="n">
-        <v>2390.7324</v>
+        <v>317.4575</v>
       </c>
       <c r="G44" t="n">
-        <v>-46359.29262778</v>
+        <v>-170465.77452778</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K44" t="n">
+        <v>266.4</v>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>267.2</v>
+        <v>266</v>
       </c>
       <c r="C45" t="n">
-        <v>267.2</v>
+        <v>267</v>
       </c>
       <c r="D45" t="n">
-        <v>267.2</v>
+        <v>267</v>
       </c>
       <c r="E45" t="n">
-        <v>267.2</v>
+        <v>266</v>
       </c>
       <c r="F45" t="n">
-        <v>703.2109</v>
+        <v>2420</v>
       </c>
       <c r="G45" t="n">
-        <v>-47062.50352778</v>
+        <v>-168045.77452778</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K45" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>267.2</v>
+        <v>267</v>
       </c>
       <c r="C46" t="n">
-        <v>267.2</v>
+        <v>267</v>
       </c>
       <c r="D46" t="n">
-        <v>267.2</v>
+        <v>267</v>
       </c>
       <c r="E46" t="n">
-        <v>267.2</v>
+        <v>267</v>
       </c>
       <c r="F46" t="n">
-        <v>3296.7891</v>
+        <v>1140</v>
       </c>
       <c r="G46" t="n">
-        <v>-47062.50352778</v>
+        <v>-168045.77452778</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>267</v>
+      </c>
+      <c r="K46" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>267.2</v>
+        <v>266.9</v>
       </c>
       <c r="C47" t="n">
-        <v>267.2</v>
+        <v>267</v>
       </c>
       <c r="D47" t="n">
-        <v>267.2</v>
+        <v>267</v>
       </c>
       <c r="E47" t="n">
-        <v>267.2</v>
+        <v>266.9</v>
       </c>
       <c r="F47" t="n">
-        <v>2302.9839</v>
+        <v>2075.6225</v>
       </c>
       <c r="G47" t="n">
-        <v>-47062.50352778</v>
+        <v>-168045.77452778</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,33 +2122,40 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>266.5</v>
+        <v>267</v>
       </c>
       <c r="C48" t="n">
-        <v>265.5</v>
+        <v>267</v>
       </c>
       <c r="D48" t="n">
-        <v>266.5</v>
+        <v>267</v>
       </c>
       <c r="E48" t="n">
-        <v>265.5</v>
+        <v>267</v>
       </c>
       <c r="F48" t="n">
-        <v>17731.0287</v>
+        <v>1070.321</v>
       </c>
       <c r="G48" t="n">
-        <v>-64793.53222778</v>
+        <v>-168045.77452778</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,33 +2164,40 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>266.3</v>
+        <v>267</v>
       </c>
       <c r="C49" t="n">
-        <v>266.3</v>
+        <v>267</v>
       </c>
       <c r="D49" t="n">
-        <v>266.3</v>
+        <v>267</v>
       </c>
       <c r="E49" t="n">
-        <v>266.3</v>
+        <v>267</v>
       </c>
       <c r="F49" t="n">
-        <v>169.3307</v>
+        <v>106.8202</v>
       </c>
       <c r="G49" t="n">
-        <v>-64624.20152778</v>
+        <v>-168045.77452778</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,33 +2206,40 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>265.6</v>
+        <v>268</v>
       </c>
       <c r="C50" t="n">
-        <v>265.6</v>
+        <v>267.8</v>
       </c>
       <c r="D50" t="n">
-        <v>265.6</v>
+        <v>268</v>
       </c>
       <c r="E50" t="n">
-        <v>265.6</v>
+        <v>267.8</v>
       </c>
       <c r="F50" t="n">
-        <v>2455.8765</v>
+        <v>4569.1213</v>
       </c>
       <c r="G50" t="n">
-        <v>-67080.07802778001</v>
+        <v>-163476.65322778</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,33 +2248,40 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>265.5</v>
+        <v>267.8</v>
       </c>
       <c r="C51" t="n">
-        <v>265.5</v>
+        <v>267.8</v>
       </c>
       <c r="D51" t="n">
-        <v>265.5</v>
+        <v>267.8</v>
       </c>
       <c r="E51" t="n">
-        <v>265.5</v>
+        <v>267.8</v>
       </c>
       <c r="F51" t="n">
-        <v>42.3061</v>
+        <v>341.4</v>
       </c>
       <c r="G51" t="n">
-        <v>-67122.38412778001</v>
+        <v>-163476.65322778</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,33 +2290,40 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>265.3</v>
+        <v>267.8</v>
       </c>
       <c r="C52" t="n">
-        <v>265.3</v>
+        <v>268</v>
       </c>
       <c r="D52" t="n">
-        <v>265.3</v>
+        <v>268</v>
       </c>
       <c r="E52" t="n">
-        <v>265.3</v>
+        <v>267.8</v>
       </c>
       <c r="F52" t="n">
-        <v>1844.9206</v>
+        <v>483.5425</v>
       </c>
       <c r="G52" t="n">
-        <v>-68967.30472778001</v>
+        <v>-162993.11072778</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,33 +2332,40 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>265.3</v>
+        <v>266.9</v>
       </c>
       <c r="C53" t="n">
-        <v>265.1</v>
+        <v>267.8</v>
       </c>
       <c r="D53" t="n">
-        <v>265.3</v>
+        <v>267.9</v>
       </c>
       <c r="E53" t="n">
-        <v>265.1</v>
+        <v>266.9</v>
       </c>
       <c r="F53" t="n">
-        <v>20000</v>
+        <v>3156.3813</v>
       </c>
       <c r="G53" t="n">
-        <v>-88967.30472778001</v>
+        <v>-166149.49202778</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,33 +2374,40 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>265.1</v>
+        <v>266.9</v>
       </c>
       <c r="C54" t="n">
-        <v>265</v>
+        <v>266.9</v>
       </c>
       <c r="D54" t="n">
-        <v>265.1</v>
+        <v>266.9</v>
       </c>
       <c r="E54" t="n">
-        <v>265</v>
+        <v>266.9</v>
       </c>
       <c r="F54" t="n">
-        <v>10000</v>
+        <v>3669.9804</v>
       </c>
       <c r="G54" t="n">
-        <v>-98967.30472778001</v>
+        <v>-169819.47242778</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,33 +2416,40 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>265.1</v>
+        <v>267.3</v>
       </c>
       <c r="C55" t="n">
-        <v>265</v>
+        <v>267.3</v>
       </c>
       <c r="D55" t="n">
-        <v>265.1</v>
+        <v>267.3</v>
       </c>
       <c r="E55" t="n">
-        <v>265</v>
+        <v>267.3</v>
       </c>
       <c r="F55" t="n">
-        <v>10000</v>
+        <v>474.1869</v>
       </c>
       <c r="G55" t="n">
-        <v>-98967.30472778001</v>
+        <v>-169345.28552778</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,33 +2458,40 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>265</v>
+        <v>266.5</v>
       </c>
       <c r="C56" t="n">
-        <v>265</v>
+        <v>266.5</v>
       </c>
       <c r="D56" t="n">
-        <v>265</v>
+        <v>266.5</v>
       </c>
       <c r="E56" t="n">
-        <v>265</v>
+        <v>266.5</v>
       </c>
       <c r="F56" t="n">
-        <v>4149.4271</v>
+        <v>2074.6099</v>
       </c>
       <c r="G56" t="n">
-        <v>-98967.30472778001</v>
+        <v>-171419.89542778</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,33 +2500,40 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>265</v>
+        <v>266.1</v>
       </c>
       <c r="C57" t="n">
-        <v>265</v>
+        <v>266.1</v>
       </c>
       <c r="D57" t="n">
-        <v>265</v>
+        <v>266.1</v>
       </c>
       <c r="E57" t="n">
-        <v>265</v>
+        <v>266.1</v>
       </c>
       <c r="F57" t="n">
-        <v>1017.3572</v>
+        <v>785.7942</v>
       </c>
       <c r="G57" t="n">
-        <v>-98967.30472778001</v>
+        <v>-172205.68962778</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,33 +2542,40 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>265</v>
+        <v>265.7</v>
       </c>
       <c r="C58" t="n">
-        <v>265</v>
+        <v>265.7</v>
       </c>
       <c r="D58" t="n">
-        <v>265</v>
+        <v>265.7</v>
       </c>
       <c r="E58" t="n">
-        <v>265</v>
+        <v>265.7</v>
       </c>
       <c r="F58" t="n">
-        <v>1400</v>
+        <v>5018.9997</v>
       </c>
       <c r="G58" t="n">
-        <v>-98967.30472778001</v>
+        <v>-177224.68932778</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,33 +2584,40 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>265</v>
+        <v>265.7</v>
       </c>
       <c r="C59" t="n">
-        <v>265.3</v>
+        <v>265.7</v>
       </c>
       <c r="D59" t="n">
-        <v>265.3</v>
+        <v>265.7</v>
       </c>
       <c r="E59" t="n">
-        <v>265</v>
+        <v>265.7</v>
       </c>
       <c r="F59" t="n">
-        <v>7507.9753</v>
+        <v>2525.8131</v>
       </c>
       <c r="G59" t="n">
-        <v>-91459.32942778</v>
+        <v>-177224.68932778</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,33 +2626,40 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>265</v>
+        <v>265.7</v>
       </c>
       <c r="C60" t="n">
-        <v>265</v>
+        <v>265.7</v>
       </c>
       <c r="D60" t="n">
-        <v>265</v>
+        <v>265.7</v>
       </c>
       <c r="E60" t="n">
-        <v>265</v>
+        <v>265.7</v>
       </c>
       <c r="F60" t="n">
-        <v>700</v>
+        <v>72.6561</v>
       </c>
       <c r="G60" t="n">
-        <v>-92159.32942778</v>
+        <v>-177224.68932778</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,33 +2668,40 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>265</v>
+        <v>265.1</v>
       </c>
       <c r="C61" t="n">
-        <v>265</v>
+        <v>265.1</v>
       </c>
       <c r="D61" t="n">
-        <v>265</v>
+        <v>265.1</v>
       </c>
       <c r="E61" t="n">
-        <v>265</v>
+        <v>265.1</v>
       </c>
       <c r="F61" t="n">
-        <v>992.2332</v>
+        <v>2060</v>
       </c>
       <c r="G61" t="n">
-        <v>-92159.32942778</v>
+        <v>-179284.68932778</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,33 +2710,40 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>265.9</v>
+        <v>265.1</v>
       </c>
       <c r="C62" t="n">
-        <v>265.9</v>
+        <v>265.1</v>
       </c>
       <c r="D62" t="n">
-        <v>265.9</v>
+        <v>265.1</v>
       </c>
       <c r="E62" t="n">
-        <v>265.9</v>
+        <v>265.1</v>
       </c>
       <c r="F62" t="n">
-        <v>1700</v>
+        <v>244.9352</v>
       </c>
       <c r="G62" t="n">
-        <v>-90459.32942778</v>
+        <v>-179284.68932778</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,33 +2752,40 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>265.4</v>
+        <v>264.5</v>
       </c>
       <c r="C63" t="n">
-        <v>265.4</v>
+        <v>264.4</v>
       </c>
       <c r="D63" t="n">
-        <v>265.4</v>
+        <v>264.5</v>
       </c>
       <c r="E63" t="n">
-        <v>265.4</v>
+        <v>264.4</v>
       </c>
       <c r="F63" t="n">
-        <v>1275</v>
+        <v>4260</v>
       </c>
       <c r="G63" t="n">
-        <v>-91734.32942778</v>
+        <v>-183544.68932778</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,33 +2794,40 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>265.4</v>
+        <v>264.4</v>
       </c>
       <c r="C64" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D64" t="n">
-        <v>265.4</v>
+        <v>264.4</v>
       </c>
       <c r="E64" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F64" t="n">
-        <v>610.5300999999999</v>
+        <v>15147.4452</v>
       </c>
       <c r="G64" t="n">
-        <v>-92344.85952778001</v>
+        <v>-198692.13452778</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,33 +2836,40 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>265.8</v>
+        <v>264.7</v>
       </c>
       <c r="C65" t="n">
-        <v>265.8</v>
+        <v>264.7</v>
       </c>
       <c r="D65" t="n">
-        <v>265.8</v>
+        <v>264.7</v>
       </c>
       <c r="E65" t="n">
-        <v>265.8</v>
+        <v>264.7</v>
       </c>
       <c r="F65" t="n">
-        <v>394.3662</v>
+        <v>2.7749</v>
       </c>
       <c r="G65" t="n">
-        <v>-91950.49332778</v>
+        <v>-198689.35962778</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,33 +2878,40 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>265.1</v>
+        <v>264.6</v>
       </c>
       <c r="C66" t="n">
-        <v>265</v>
+        <v>264.6</v>
       </c>
       <c r="D66" t="n">
-        <v>265.1</v>
+        <v>265.6</v>
       </c>
       <c r="E66" t="n">
-        <v>265</v>
+        <v>264.6</v>
       </c>
       <c r="F66" t="n">
-        <v>14000</v>
+        <v>1321.8</v>
       </c>
       <c r="G66" t="n">
-        <v>-105950.49332778</v>
+        <v>-200011.15962778</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,33 +2920,40 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>265</v>
+        <v>264.6</v>
       </c>
       <c r="C67" t="n">
-        <v>263.9</v>
+        <v>264.4</v>
       </c>
       <c r="D67" t="n">
-        <v>265</v>
+        <v>264.6</v>
       </c>
       <c r="E67" t="n">
-        <v>263.9</v>
+        <v>264.4</v>
       </c>
       <c r="F67" t="n">
-        <v>47141.5976</v>
+        <v>12645.0405</v>
       </c>
       <c r="G67" t="n">
-        <v>-153092.09092778</v>
+        <v>-212656.20012778</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,68 +2962,84 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>264</v>
+        <v>266.1</v>
       </c>
       <c r="C68" t="n">
-        <v>262.8</v>
+        <v>266.1</v>
       </c>
       <c r="D68" t="n">
-        <v>264</v>
+        <v>266.6</v>
       </c>
       <c r="E68" t="n">
-        <v>262.8</v>
+        <v>266.1</v>
       </c>
       <c r="F68" t="n">
-        <v>12858.5616</v>
+        <v>21592.1345</v>
       </c>
       <c r="G68" t="n">
-        <v>-165950.65252778</v>
+        <v>-191064.06562778</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="K68" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>263.9</v>
+        <v>266.5</v>
       </c>
       <c r="C69" t="n">
-        <v>263.9</v>
+        <v>267.6</v>
       </c>
       <c r="D69" t="n">
-        <v>263.9</v>
+        <v>267.6</v>
       </c>
       <c r="E69" t="n">
-        <v>263.9</v>
+        <v>266.5</v>
       </c>
       <c r="F69" t="n">
-        <v>146.3</v>
+        <v>16443.61720986</v>
       </c>
       <c r="G69" t="n">
-        <v>-165804.35252778</v>
+        <v>-174620.44841792</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,33 +3048,40 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>263.9</v>
+        <v>266.7</v>
       </c>
       <c r="C70" t="n">
-        <v>263.9</v>
+        <v>266.7</v>
       </c>
       <c r="D70" t="n">
-        <v>263.9</v>
+        <v>266.7</v>
       </c>
       <c r="E70" t="n">
-        <v>263.9</v>
+        <v>266.7</v>
       </c>
       <c r="F70" t="n">
-        <v>996.1236</v>
+        <v>984.0999</v>
       </c>
       <c r="G70" t="n">
-        <v>-165804.35252778</v>
+        <v>-175604.54831792</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,33 +3090,40 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>263.9</v>
+        <v>266.7</v>
       </c>
       <c r="C71" t="n">
-        <v>263.9</v>
+        <v>266.7</v>
       </c>
       <c r="D71" t="n">
-        <v>263.9</v>
+        <v>266.8</v>
       </c>
       <c r="E71" t="n">
-        <v>263.9</v>
+        <v>266.7</v>
       </c>
       <c r="F71" t="n">
-        <v>2579.0737</v>
+        <v>4419.0504</v>
       </c>
       <c r="G71" t="n">
-        <v>-165804.35252778</v>
+        <v>-175604.54831792</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,33 +3132,40 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>263.9</v>
+        <v>266.7</v>
       </c>
       <c r="C72" t="n">
-        <v>263.9</v>
+        <v>266.7</v>
       </c>
       <c r="D72" t="n">
-        <v>263.9</v>
+        <v>266.7</v>
       </c>
       <c r="E72" t="n">
-        <v>263.9</v>
+        <v>266.7</v>
       </c>
       <c r="F72" t="n">
-        <v>164.2747</v>
+        <v>1617.5843</v>
       </c>
       <c r="G72" t="n">
-        <v>-165804.35252778</v>
+        <v>-175604.54831792</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,33 +3174,40 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>264</v>
+        <v>267.7</v>
       </c>
       <c r="C73" t="n">
-        <v>264</v>
+        <v>267.7</v>
       </c>
       <c r="D73" t="n">
-        <v>264</v>
+        <v>267.7</v>
       </c>
       <c r="E73" t="n">
-        <v>264</v>
+        <v>267.7</v>
       </c>
       <c r="F73" t="n">
-        <v>12.1541</v>
+        <v>1117.8619</v>
       </c>
       <c r="G73" t="n">
-        <v>-165792.19842778</v>
+        <v>-174486.68641792</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,33 +3216,40 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>264</v>
+        <v>266.5</v>
       </c>
       <c r="C74" t="n">
-        <v>263.7</v>
+        <v>266.5</v>
       </c>
       <c r="D74" t="n">
-        <v>264</v>
+        <v>266.5</v>
       </c>
       <c r="E74" t="n">
-        <v>263.7</v>
+        <v>266.5</v>
       </c>
       <c r="F74" t="n">
-        <v>2751.5867</v>
+        <v>20</v>
       </c>
       <c r="G74" t="n">
-        <v>-168543.78512778</v>
+        <v>-174506.68641792</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,33 +3258,40 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>265.2</v>
+        <v>267</v>
       </c>
       <c r="C75" t="n">
-        <v>265.2</v>
+        <v>268</v>
       </c>
       <c r="D75" t="n">
-        <v>265.2</v>
+        <v>268</v>
       </c>
       <c r="E75" t="n">
-        <v>265.2</v>
+        <v>267</v>
       </c>
       <c r="F75" t="n">
-        <v>3.7836</v>
+        <v>7035.0181</v>
       </c>
       <c r="G75" t="n">
-        <v>-168540.00152778</v>
+        <v>-167471.6683179201</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,33 +3300,40 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>263.2</v>
+        <v>268.9</v>
       </c>
       <c r="C76" t="n">
-        <v>263.2</v>
+        <v>269.7</v>
       </c>
       <c r="D76" t="n">
-        <v>263.2</v>
+        <v>269.7</v>
       </c>
       <c r="E76" t="n">
-        <v>263.2</v>
+        <v>268.9</v>
       </c>
       <c r="F76" t="n">
-        <v>2810</v>
+        <v>5100</v>
       </c>
       <c r="G76" t="n">
-        <v>-171350.00152778</v>
+        <v>-162371.6683179201</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,33 +3342,40 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>264</v>
+        <v>268.7</v>
       </c>
       <c r="C77" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D77" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E77" t="n">
-        <v>264</v>
+        <v>268.7</v>
       </c>
       <c r="F77" t="n">
-        <v>757.2271</v>
+        <v>1932.3881</v>
       </c>
       <c r="G77" t="n">
-        <v>-170592.77442778</v>
+        <v>-160439.2802179201</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,33 +3384,40 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>264</v>
+        <v>269.9</v>
       </c>
       <c r="C78" t="n">
-        <v>264</v>
+        <v>269.9</v>
       </c>
       <c r="D78" t="n">
-        <v>264</v>
+        <v>269.9</v>
       </c>
       <c r="E78" t="n">
-        <v>264</v>
+        <v>269.9</v>
       </c>
       <c r="F78" t="n">
-        <v>80</v>
+        <v>2.6022</v>
       </c>
       <c r="G78" t="n">
-        <v>-170592.77442778</v>
+        <v>-160441.88241792</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,33 +3426,40 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>264</v>
+        <v>269.9</v>
       </c>
       <c r="C79" t="n">
-        <v>264</v>
+        <v>269.8</v>
       </c>
       <c r="D79" t="n">
-        <v>264</v>
+        <v>269.9</v>
       </c>
       <c r="E79" t="n">
-        <v>264</v>
+        <v>269.8</v>
       </c>
       <c r="F79" t="n">
-        <v>1070.321</v>
+        <v>450.8684</v>
       </c>
       <c r="G79" t="n">
-        <v>-170592.77442778</v>
+        <v>-160892.7508179201</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,33 +3468,40 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C80" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D80" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E80" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F80" t="n">
-        <v>1601.6946</v>
+        <v>912.3951</v>
       </c>
       <c r="G80" t="n">
-        <v>-170592.77442778</v>
+        <v>-159980.3557179201</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,33 +3510,40 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C81" t="n">
-        <v>264</v>
+        <v>270.6</v>
       </c>
       <c r="D81" t="n">
-        <v>264</v>
+        <v>270.6</v>
       </c>
       <c r="E81" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F81" t="n">
-        <v>2468.7405</v>
+        <v>2663.0003</v>
       </c>
       <c r="G81" t="n">
-        <v>-170592.77442778</v>
+        <v>-157317.35541792</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,33 +3552,40 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>264</v>
+        <v>270.6</v>
       </c>
       <c r="C82" t="n">
-        <v>264</v>
+        <v>270.6</v>
       </c>
       <c r="D82" t="n">
-        <v>264</v>
+        <v>270.6</v>
       </c>
       <c r="E82" t="n">
-        <v>264</v>
+        <v>270.6</v>
       </c>
       <c r="F82" t="n">
-        <v>1631.8495</v>
+        <v>0.0001</v>
       </c>
       <c r="G82" t="n">
-        <v>-170592.77442778</v>
+        <v>-157317.35541792</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,33 +3594,40 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>264</v>
+        <v>270.7</v>
       </c>
       <c r="C83" t="n">
-        <v>264</v>
+        <v>270.6</v>
       </c>
       <c r="D83" t="n">
-        <v>264</v>
+        <v>270.7</v>
       </c>
       <c r="E83" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F83" t="n">
-        <v>934.1673</v>
+        <v>21435.8893</v>
       </c>
       <c r="G83" t="n">
-        <v>-170592.77442778</v>
+        <v>-157317.35541792</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,33 +3636,40 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>264</v>
+        <v>270.6</v>
       </c>
       <c r="C84" t="n">
-        <v>264</v>
+        <v>270.6</v>
       </c>
       <c r="D84" t="n">
-        <v>264</v>
+        <v>270.6</v>
       </c>
       <c r="E84" t="n">
-        <v>264</v>
+        <v>270.6</v>
       </c>
       <c r="F84" t="n">
-        <v>4500</v>
+        <v>5180</v>
       </c>
       <c r="G84" t="n">
-        <v>-170592.77442778</v>
+        <v>-157317.35541792</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,33 +3678,40 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>266.4</v>
+        <v>270.5</v>
       </c>
       <c r="C85" t="n">
-        <v>266.4</v>
+        <v>270.5</v>
       </c>
       <c r="D85" t="n">
-        <v>266.4</v>
+        <v>270.5</v>
       </c>
       <c r="E85" t="n">
-        <v>266.4</v>
+        <v>270.5</v>
       </c>
       <c r="F85" t="n">
-        <v>126.9999</v>
+        <v>6220.3628</v>
       </c>
       <c r="G85" t="n">
-        <v>-170465.77452778</v>
+        <v>-163537.71821792</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,33 +3720,40 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>266.4</v>
+        <v>269.6</v>
       </c>
       <c r="C86" t="n">
-        <v>266.4</v>
+        <v>269.6</v>
       </c>
       <c r="D86" t="n">
-        <v>266.4</v>
+        <v>269.6</v>
       </c>
       <c r="E86" t="n">
-        <v>266.4</v>
+        <v>269.6</v>
       </c>
       <c r="F86" t="n">
-        <v>317.4575</v>
+        <v>2939.6999</v>
       </c>
       <c r="G86" t="n">
-        <v>-170465.77452778</v>
+        <v>-166477.4181179201</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,33 +3762,40 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>266</v>
+        <v>269.6</v>
       </c>
       <c r="C87" t="n">
-        <v>267</v>
+        <v>269.6</v>
       </c>
       <c r="D87" t="n">
-        <v>267</v>
+        <v>269.6</v>
       </c>
       <c r="E87" t="n">
-        <v>266</v>
+        <v>269.6</v>
       </c>
       <c r="F87" t="n">
-        <v>2420</v>
+        <v>5385.5642</v>
       </c>
       <c r="G87" t="n">
-        <v>-168045.77452778</v>
+        <v>-166477.4181179201</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,33 +3804,40 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>267</v>
+        <v>269.6</v>
       </c>
       <c r="C88" t="n">
-        <v>267</v>
+        <v>269.6</v>
       </c>
       <c r="D88" t="n">
-        <v>267</v>
+        <v>269.6</v>
       </c>
       <c r="E88" t="n">
-        <v>267</v>
+        <v>269.6</v>
       </c>
       <c r="F88" t="n">
-        <v>1140</v>
+        <v>1147.5212</v>
       </c>
       <c r="G88" t="n">
-        <v>-168045.77452778</v>
+        <v>-166477.4181179201</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,33 +3846,40 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>266.9</v>
+        <v>268.5</v>
       </c>
       <c r="C89" t="n">
-        <v>267</v>
+        <v>267.9</v>
       </c>
       <c r="D89" t="n">
-        <v>267</v>
+        <v>268.5</v>
       </c>
       <c r="E89" t="n">
-        <v>266.9</v>
+        <v>267.9</v>
       </c>
       <c r="F89" t="n">
-        <v>2075.6225</v>
+        <v>2602.2</v>
       </c>
       <c r="G89" t="n">
-        <v>-168045.77452778</v>
+        <v>-169079.6181179201</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,33 +3888,40 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>267</v>
+        <v>267.9</v>
       </c>
       <c r="C90" t="n">
-        <v>267</v>
+        <v>267.8</v>
       </c>
       <c r="D90" t="n">
-        <v>267</v>
+        <v>267.9</v>
       </c>
       <c r="E90" t="n">
-        <v>267</v>
+        <v>267.8</v>
       </c>
       <c r="F90" t="n">
-        <v>1070.321</v>
+        <v>200</v>
       </c>
       <c r="G90" t="n">
-        <v>-168045.77452778</v>
+        <v>-169279.6181179201</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,33 +3930,40 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>267</v>
+        <v>267.8</v>
       </c>
       <c r="C91" t="n">
-        <v>267</v>
+        <v>267.8</v>
       </c>
       <c r="D91" t="n">
-        <v>267</v>
+        <v>267.8</v>
       </c>
       <c r="E91" t="n">
-        <v>267</v>
+        <v>267.8</v>
       </c>
       <c r="F91" t="n">
-        <v>106.8202</v>
+        <v>130</v>
       </c>
       <c r="G91" t="n">
-        <v>-168045.77452778</v>
+        <v>-169279.6181179201</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,33 +3972,40 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>268</v>
+        <v>267.7</v>
       </c>
       <c r="C92" t="n">
-        <v>267.8</v>
+        <v>267.7</v>
       </c>
       <c r="D92" t="n">
-        <v>268</v>
+        <v>267.7</v>
       </c>
       <c r="E92" t="n">
-        <v>267.8</v>
+        <v>267.7</v>
       </c>
       <c r="F92" t="n">
-        <v>4569.1213</v>
+        <v>249.7394</v>
       </c>
       <c r="G92" t="n">
-        <v>-163476.65322778</v>
+        <v>-169529.3575179201</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,33 +4014,40 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>267.8</v>
+        <v>267.7</v>
       </c>
       <c r="C93" t="n">
-        <v>267.8</v>
+        <v>267.7</v>
       </c>
       <c r="D93" t="n">
-        <v>267.8</v>
+        <v>267.7</v>
       </c>
       <c r="E93" t="n">
-        <v>267.8</v>
+        <v>267.7</v>
       </c>
       <c r="F93" t="n">
-        <v>341.4</v>
+        <v>626.4874</v>
       </c>
       <c r="G93" t="n">
-        <v>-163476.65322778</v>
+        <v>-169529.3575179201</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,33 +4056,40 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>267.8</v>
+        <v>266.5</v>
       </c>
       <c r="C94" t="n">
-        <v>268</v>
+        <v>266.5</v>
       </c>
       <c r="D94" t="n">
-        <v>268</v>
+        <v>266.5</v>
       </c>
       <c r="E94" t="n">
-        <v>267.8</v>
+        <v>266.5</v>
       </c>
       <c r="F94" t="n">
-        <v>483.5425</v>
+        <v>2462</v>
       </c>
       <c r="G94" t="n">
-        <v>-162993.11072778</v>
+        <v>-171991.3575179201</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,33 +4098,40 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>266.9</v>
+        <v>266.5</v>
       </c>
       <c r="C95" t="n">
-        <v>267.8</v>
+        <v>266.4</v>
       </c>
       <c r="D95" t="n">
-        <v>267.9</v>
+        <v>266.5</v>
       </c>
       <c r="E95" t="n">
-        <v>266.9</v>
+        <v>266.4</v>
       </c>
       <c r="F95" t="n">
-        <v>3156.3813</v>
+        <v>1873.0299</v>
       </c>
       <c r="G95" t="n">
-        <v>-166149.49202778</v>
+        <v>-173864.3874179201</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,33 +4140,40 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>266.9</v>
+        <v>266.4</v>
       </c>
       <c r="C96" t="n">
-        <v>266.9</v>
+        <v>266.4</v>
       </c>
       <c r="D96" t="n">
-        <v>266.9</v>
+        <v>266.4</v>
       </c>
       <c r="E96" t="n">
-        <v>266.9</v>
+        <v>266.4</v>
       </c>
       <c r="F96" t="n">
-        <v>3669.9804</v>
+        <v>123.6247</v>
       </c>
       <c r="G96" t="n">
-        <v>-169819.47242778</v>
+        <v>-173864.3874179201</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3747,33 +4182,40 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>267.3</v>
+        <v>266.4</v>
       </c>
       <c r="C97" t="n">
-        <v>267.3</v>
+        <v>266.4</v>
       </c>
       <c r="D97" t="n">
-        <v>267.3</v>
+        <v>266.4</v>
       </c>
       <c r="E97" t="n">
-        <v>267.3</v>
+        <v>266.4</v>
       </c>
       <c r="F97" t="n">
-        <v>474.1869</v>
+        <v>248.6571</v>
       </c>
       <c r="G97" t="n">
-        <v>-169345.28552778</v>
+        <v>-173864.3874179201</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,33 +4224,40 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>266.5</v>
+        <v>266.2</v>
       </c>
       <c r="C98" t="n">
-        <v>266.5</v>
+        <v>265</v>
       </c>
       <c r="D98" t="n">
-        <v>266.5</v>
+        <v>266.2</v>
       </c>
       <c r="E98" t="n">
-        <v>266.5</v>
+        <v>265</v>
       </c>
       <c r="F98" t="n">
-        <v>2074.6099</v>
+        <v>28733.8125</v>
       </c>
       <c r="G98" t="n">
-        <v>-171419.89542778</v>
+        <v>-202598.1999179201</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,33 +4266,40 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>266.1</v>
+        <v>267.7</v>
       </c>
       <c r="C99" t="n">
-        <v>266.1</v>
+        <v>267.7</v>
       </c>
       <c r="D99" t="n">
-        <v>266.1</v>
+        <v>267.7</v>
       </c>
       <c r="E99" t="n">
-        <v>266.1</v>
+        <v>267.7</v>
       </c>
       <c r="F99" t="n">
-        <v>785.7942</v>
+        <v>8671.3112</v>
       </c>
       <c r="G99" t="n">
-        <v>-172205.68962778</v>
+        <v>-193926.8887179201</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3852,33 +4308,40 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>265.7</v>
+        <v>267.7</v>
       </c>
       <c r="C100" t="n">
-        <v>265.7</v>
+        <v>268</v>
       </c>
       <c r="D100" t="n">
-        <v>265.7</v>
+        <v>268</v>
       </c>
       <c r="E100" t="n">
-        <v>265.7</v>
+        <v>267.7</v>
       </c>
       <c r="F100" t="n">
-        <v>5018.9997</v>
+        <v>5026.8403</v>
       </c>
       <c r="G100" t="n">
-        <v>-177224.68932778</v>
+        <v>-188900.04841792</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3887,103 +4350,128 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>265.7</v>
+        <v>267.7</v>
       </c>
       <c r="C101" t="n">
-        <v>265.7</v>
+        <v>267.7</v>
       </c>
       <c r="D101" t="n">
-        <v>265.7</v>
+        <v>267.7</v>
       </c>
       <c r="E101" t="n">
-        <v>265.7</v>
+        <v>267.7</v>
       </c>
       <c r="F101" t="n">
-        <v>2525.8131</v>
+        <v>176.9999</v>
       </c>
       <c r="G101" t="n">
-        <v>-177224.68932778</v>
+        <v>-189077.04831792</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>268</v>
+      </c>
+      <c r="K101" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>265.7</v>
+        <v>268</v>
       </c>
       <c r="C102" t="n">
-        <v>265.7</v>
+        <v>268</v>
       </c>
       <c r="D102" t="n">
-        <v>265.7</v>
+        <v>268</v>
       </c>
       <c r="E102" t="n">
-        <v>265.7</v>
+        <v>268</v>
       </c>
       <c r="F102" t="n">
-        <v>72.6561</v>
+        <v>372.2038</v>
       </c>
       <c r="G102" t="n">
-        <v>-177224.68932778</v>
+        <v>-188704.84451792</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="K102" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>265.1</v>
+        <v>267.5</v>
       </c>
       <c r="C103" t="n">
-        <v>265.1</v>
+        <v>267.5</v>
       </c>
       <c r="D103" t="n">
-        <v>265.1</v>
+        <v>267.5</v>
       </c>
       <c r="E103" t="n">
-        <v>265.1</v>
+        <v>267.5</v>
       </c>
       <c r="F103" t="n">
-        <v>2060</v>
+        <v>406.2212</v>
       </c>
       <c r="G103" t="n">
-        <v>-179284.68932778</v>
+        <v>-189111.06571792</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,68 +4480,84 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>265.1</v>
+        <v>268.9</v>
       </c>
       <c r="C104" t="n">
-        <v>265.1</v>
+        <v>268.8</v>
       </c>
       <c r="D104" t="n">
-        <v>265.1</v>
+        <v>268.9</v>
       </c>
       <c r="E104" t="n">
-        <v>265.1</v>
+        <v>268.1</v>
       </c>
       <c r="F104" t="n">
-        <v>244.9352</v>
+        <v>859.6635</v>
       </c>
       <c r="G104" t="n">
-        <v>-179284.68932778</v>
+        <v>-188251.4022179201</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>267.5</v>
+      </c>
+      <c r="K104" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>264.5</v>
+        <v>269</v>
       </c>
       <c r="C105" t="n">
-        <v>264.4</v>
+        <v>269</v>
       </c>
       <c r="D105" t="n">
-        <v>264.5</v>
+        <v>269</v>
       </c>
       <c r="E105" t="n">
-        <v>264.4</v>
+        <v>269</v>
       </c>
       <c r="F105" t="n">
-        <v>4260</v>
+        <v>1779.3648</v>
       </c>
       <c r="G105" t="n">
-        <v>-183544.68932778</v>
+        <v>-186472.03741792</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,33 +4566,40 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>264.4</v>
+        <v>268.4</v>
       </c>
       <c r="C106" t="n">
-        <v>264</v>
+        <v>268.4</v>
       </c>
       <c r="D106" t="n">
-        <v>264.4</v>
+        <v>268.4</v>
       </c>
       <c r="E106" t="n">
-        <v>264</v>
+        <v>268.4</v>
       </c>
       <c r="F106" t="n">
-        <v>15147.4452</v>
+        <v>20</v>
       </c>
       <c r="G106" t="n">
-        <v>-198692.13452778</v>
+        <v>-186492.03741792</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4097,663 +4608,832 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>264.7</v>
+        <v>268.2</v>
       </c>
       <c r="C107" t="n">
-        <v>264.7</v>
+        <v>268.2</v>
       </c>
       <c r="D107" t="n">
-        <v>264.7</v>
+        <v>268.2</v>
       </c>
       <c r="E107" t="n">
-        <v>264.7</v>
+        <v>268.2</v>
       </c>
       <c r="F107" t="n">
-        <v>2.7749</v>
+        <v>20</v>
       </c>
       <c r="G107" t="n">
-        <v>-198689.35962778</v>
+        <v>-186512.03741792</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="K107" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>264.6</v>
+        <v>268.2</v>
       </c>
       <c r="C108" t="n">
-        <v>264.6</v>
+        <v>268.1</v>
       </c>
       <c r="D108" t="n">
-        <v>265.6</v>
+        <v>268.2</v>
       </c>
       <c r="E108" t="n">
-        <v>264.6</v>
+        <v>268.1</v>
       </c>
       <c r="F108" t="n">
-        <v>1321.8</v>
+        <v>2365.3763</v>
       </c>
       <c r="G108" t="n">
-        <v>-200011.15962778</v>
+        <v>-188877.41371792</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>268.2</v>
+      </c>
+      <c r="K108" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>264.6</v>
+        <v>268.1</v>
       </c>
       <c r="C109" t="n">
-        <v>264.4</v>
+        <v>268</v>
       </c>
       <c r="D109" t="n">
-        <v>264.6</v>
+        <v>268.1</v>
       </c>
       <c r="E109" t="n">
-        <v>264.4</v>
+        <v>268</v>
       </c>
       <c r="F109" t="n">
-        <v>12645.0405</v>
+        <v>3669.9804</v>
       </c>
       <c r="G109" t="n">
-        <v>-212656.20012778</v>
+        <v>-192547.39411792</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>268.1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>266.1</v>
+        <v>268.2</v>
       </c>
       <c r="C110" t="n">
-        <v>266.1</v>
+        <v>268.2</v>
       </c>
       <c r="D110" t="n">
-        <v>266.6</v>
+        <v>268.2</v>
       </c>
       <c r="E110" t="n">
-        <v>266.1</v>
+        <v>268.2</v>
       </c>
       <c r="F110" t="n">
-        <v>21592.1345</v>
+        <v>5640.3941</v>
       </c>
       <c r="G110" t="n">
-        <v>-191064.06562778</v>
+        <v>-186907.00001792</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>268</v>
+      </c>
+      <c r="K110" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>266.5</v>
+        <v>268.2</v>
       </c>
       <c r="C111" t="n">
-        <v>267.6</v>
+        <v>268</v>
       </c>
       <c r="D111" t="n">
-        <v>267.6</v>
+        <v>268.2</v>
       </c>
       <c r="E111" t="n">
-        <v>266.5</v>
+        <v>268</v>
       </c>
       <c r="F111" t="n">
-        <v>16443.61720986</v>
+        <v>12298.1208</v>
       </c>
       <c r="G111" t="n">
-        <v>-174620.44841792</v>
+        <v>-199205.12081792</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>268.2</v>
+      </c>
+      <c r="K111" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>266.7</v>
+        <v>267.9</v>
       </c>
       <c r="C112" t="n">
-        <v>266.7</v>
+        <v>267.9</v>
       </c>
       <c r="D112" t="n">
-        <v>266.7</v>
+        <v>267.9</v>
       </c>
       <c r="E112" t="n">
-        <v>266.7</v>
+        <v>267.9</v>
       </c>
       <c r="F112" t="n">
-        <v>984.0999</v>
+        <v>20</v>
       </c>
       <c r="G112" t="n">
-        <v>-175604.54831792</v>
+        <v>-199225.12081792</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>268</v>
+      </c>
+      <c r="K112" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>266.7</v>
+        <v>267.9</v>
       </c>
       <c r="C113" t="n">
-        <v>266.7</v>
+        <v>266.8</v>
       </c>
       <c r="D113" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="E113" t="n">
         <v>266.8</v>
       </c>
-      <c r="E113" t="n">
-        <v>266.7</v>
-      </c>
       <c r="F113" t="n">
-        <v>4419.0504</v>
+        <v>4800</v>
       </c>
       <c r="G113" t="n">
-        <v>-175604.54831792</v>
+        <v>-204025.12081792</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="K113" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>266.7</v>
+        <v>266.2</v>
       </c>
       <c r="C114" t="n">
-        <v>266.7</v>
+        <v>267.3</v>
       </c>
       <c r="D114" t="n">
-        <v>266.7</v>
+        <v>267.3</v>
       </c>
       <c r="E114" t="n">
-        <v>266.7</v>
+        <v>266.2</v>
       </c>
       <c r="F114" t="n">
-        <v>1617.5843</v>
+        <v>7</v>
       </c>
       <c r="G114" t="n">
-        <v>-175604.54831792</v>
+        <v>-204018.12081792</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>266.8</v>
+      </c>
+      <c r="K114" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>267.7</v>
+        <v>266.3</v>
       </c>
       <c r="C115" t="n">
-        <v>267.7</v>
+        <v>266.3</v>
       </c>
       <c r="D115" t="n">
-        <v>267.7</v>
+        <v>266.3</v>
       </c>
       <c r="E115" t="n">
-        <v>267.7</v>
+        <v>266.3</v>
       </c>
       <c r="F115" t="n">
-        <v>1117.8619</v>
+        <v>249.7394</v>
       </c>
       <c r="G115" t="n">
-        <v>-174486.68641792</v>
+        <v>-204267.86021792</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>267.3</v>
+      </c>
+      <c r="K115" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>266.5</v>
+        <v>267</v>
       </c>
       <c r="C116" t="n">
-        <v>266.5</v>
+        <v>267.3</v>
       </c>
       <c r="D116" t="n">
-        <v>266.5</v>
+        <v>267.3</v>
       </c>
       <c r="E116" t="n">
-        <v>266.5</v>
+        <v>267</v>
       </c>
       <c r="F116" t="n">
-        <v>20</v>
+        <v>4092.6088</v>
       </c>
       <c r="G116" t="n">
-        <v>-174506.68641792</v>
+        <v>-200175.2514179201</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>266.3</v>
+      </c>
+      <c r="K116" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>267</v>
+        <v>267.2</v>
       </c>
       <c r="C117" t="n">
-        <v>268</v>
+        <v>267.2</v>
       </c>
       <c r="D117" t="n">
-        <v>268</v>
+        <v>267.2</v>
       </c>
       <c r="E117" t="n">
-        <v>267</v>
+        <v>267.2</v>
       </c>
       <c r="F117" t="n">
-        <v>7035.0181</v>
+        <v>249.7394</v>
       </c>
       <c r="G117" t="n">
-        <v>-167471.6683179201</v>
+        <v>-200424.99081792</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>267.3</v>
+      </c>
+      <c r="K117" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>268.9</v>
+        <v>268.3</v>
       </c>
       <c r="C118" t="n">
-        <v>269.7</v>
+        <v>268.3</v>
       </c>
       <c r="D118" t="n">
-        <v>269.7</v>
+        <v>268.3</v>
       </c>
       <c r="E118" t="n">
-        <v>268.9</v>
+        <v>268.3</v>
       </c>
       <c r="F118" t="n">
-        <v>5100</v>
+        <v>23.00037271</v>
       </c>
       <c r="G118" t="n">
-        <v>-162371.6683179201</v>
+        <v>-200401.99044521</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>267.2</v>
+      </c>
+      <c r="K118" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>268.7</v>
+        <v>268.3</v>
       </c>
       <c r="C119" t="n">
-        <v>270</v>
+        <v>268.3</v>
       </c>
       <c r="D119" t="n">
-        <v>270</v>
+        <v>268.3</v>
       </c>
       <c r="E119" t="n">
-        <v>268.7</v>
+        <v>268.3</v>
       </c>
       <c r="F119" t="n">
-        <v>1932.3881</v>
+        <v>4224.00492729</v>
       </c>
       <c r="G119" t="n">
-        <v>-160439.2802179201</v>
+        <v>-200401.99044521</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>268.3</v>
+      </c>
+      <c r="K119" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>269.9</v>
+        <v>268.4</v>
       </c>
       <c r="C120" t="n">
-        <v>269.9</v>
+        <v>268.4</v>
       </c>
       <c r="D120" t="n">
-        <v>269.9</v>
+        <v>268.4</v>
       </c>
       <c r="E120" t="n">
-        <v>269.9</v>
+        <v>268.4</v>
       </c>
       <c r="F120" t="n">
-        <v>2.6022</v>
+        <v>2435.2705</v>
       </c>
       <c r="G120" t="n">
-        <v>-160441.88241792</v>
+        <v>-197966.71994521</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>268.3</v>
+      </c>
+      <c r="K120" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>269.9</v>
+        <v>268.4</v>
       </c>
       <c r="C121" t="n">
-        <v>269.8</v>
+        <v>268.4</v>
       </c>
       <c r="D121" t="n">
-        <v>269.9</v>
+        <v>268.4</v>
       </c>
       <c r="E121" t="n">
-        <v>269.8</v>
+        <v>268.4</v>
       </c>
       <c r="F121" t="n">
-        <v>450.8684</v>
+        <v>1070.321</v>
       </c>
       <c r="G121" t="n">
-        <v>-160892.7508179201</v>
+        <v>-197966.71994521</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="K121" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>270</v>
+        <v>268.4</v>
       </c>
       <c r="C122" t="n">
-        <v>270</v>
+        <v>268.4</v>
       </c>
       <c r="D122" t="n">
-        <v>270</v>
+        <v>268.4</v>
       </c>
       <c r="E122" t="n">
-        <v>270</v>
+        <v>268.4</v>
       </c>
       <c r="F122" t="n">
-        <v>912.3951</v>
+        <v>2092.0291</v>
       </c>
       <c r="G122" t="n">
-        <v>-159980.3557179201</v>
+        <v>-197966.71994521</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="K122" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>270</v>
+        <v>268.4</v>
       </c>
       <c r="C123" t="n">
-        <v>270.6</v>
+        <v>268.4</v>
       </c>
       <c r="D123" t="n">
-        <v>270.6</v>
+        <v>268.4</v>
       </c>
       <c r="E123" t="n">
-        <v>270</v>
+        <v>268.4</v>
       </c>
       <c r="F123" t="n">
-        <v>2663.0003</v>
+        <v>1070.9999</v>
       </c>
       <c r="G123" t="n">
-        <v>-157317.35541792</v>
+        <v>-197966.71994521</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="K123" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>270.6</v>
+        <v>269</v>
       </c>
       <c r="C124" t="n">
-        <v>270.6</v>
+        <v>271.5</v>
       </c>
       <c r="D124" t="n">
-        <v>270.6</v>
+        <v>271.5</v>
       </c>
       <c r="E124" t="n">
-        <v>270.6</v>
+        <v>269</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0001</v>
+        <v>4971.8424</v>
       </c>
       <c r="G124" t="n">
-        <v>-157317.35541792</v>
+        <v>-192994.87754521</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="K124" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>270.7</v>
+        <v>270.6</v>
       </c>
       <c r="C125" t="n">
         <v>270.6</v>
       </c>
       <c r="D125" t="n">
-        <v>270.7</v>
+        <v>270.6</v>
       </c>
       <c r="E125" t="n">
-        <v>270</v>
+        <v>270.6</v>
       </c>
       <c r="F125" t="n">
-        <v>21435.8893</v>
+        <v>871.2763</v>
       </c>
       <c r="G125" t="n">
-        <v>-157317.35541792</v>
+        <v>-193866.15384521</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4762,33 +5442,40 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>270.6</v>
+        <v>271.4</v>
       </c>
       <c r="C126" t="n">
-        <v>270.6</v>
+        <v>271.6</v>
       </c>
       <c r="D126" t="n">
-        <v>270.6</v>
+        <v>271.6</v>
       </c>
       <c r="E126" t="n">
-        <v>270.6</v>
+        <v>271.4</v>
       </c>
       <c r="F126" t="n">
-        <v>5180</v>
+        <v>3861.5326</v>
       </c>
       <c r="G126" t="n">
-        <v>-157317.35541792</v>
+        <v>-190004.62124521</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4797,33 +5484,40 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>270.5</v>
+        <v>271.6</v>
       </c>
       <c r="C127" t="n">
-        <v>270.5</v>
+        <v>271.6</v>
       </c>
       <c r="D127" t="n">
-        <v>270.5</v>
+        <v>271.6</v>
       </c>
       <c r="E127" t="n">
-        <v>270.5</v>
+        <v>271.6</v>
       </c>
       <c r="F127" t="n">
-        <v>6220.3628</v>
+        <v>2740</v>
       </c>
       <c r="G127" t="n">
-        <v>-163537.71821792</v>
+        <v>-190004.62124521</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4832,33 +5526,40 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>269.6</v>
+        <v>271.6</v>
       </c>
       <c r="C128" t="n">
-        <v>269.6</v>
+        <v>271.6</v>
       </c>
       <c r="D128" t="n">
-        <v>269.6</v>
+        <v>271.6</v>
       </c>
       <c r="E128" t="n">
-        <v>269.6</v>
+        <v>271.6</v>
       </c>
       <c r="F128" t="n">
-        <v>2939.6999</v>
+        <v>431.0019</v>
       </c>
       <c r="G128" t="n">
-        <v>-166477.4181179201</v>
+        <v>-190004.62124521</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4867,33 +5568,40 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>269.6</v>
+        <v>271.9</v>
       </c>
       <c r="C129" t="n">
-        <v>269.6</v>
+        <v>271.9</v>
       </c>
       <c r="D129" t="n">
-        <v>269.6</v>
+        <v>271.9</v>
       </c>
       <c r="E129" t="n">
-        <v>269.6</v>
+        <v>271.9</v>
       </c>
       <c r="F129" t="n">
-        <v>5385.5642</v>
+        <v>2620</v>
       </c>
       <c r="G129" t="n">
-        <v>-166477.4181179201</v>
+        <v>-187384.62124521</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4902,33 +5610,40 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>269.6</v>
+        <v>271.9</v>
       </c>
       <c r="C130" t="n">
-        <v>269.6</v>
+        <v>272</v>
       </c>
       <c r="D130" t="n">
-        <v>269.6</v>
+        <v>272</v>
       </c>
       <c r="E130" t="n">
-        <v>269.6</v>
+        <v>271.9</v>
       </c>
       <c r="F130" t="n">
-        <v>1147.5212</v>
+        <v>2585.1552</v>
       </c>
       <c r="G130" t="n">
-        <v>-166477.4181179201</v>
+        <v>-184799.46604521</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4937,33 +5652,40 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>268.5</v>
+        <v>272</v>
       </c>
       <c r="C131" t="n">
-        <v>267.9</v>
+        <v>272</v>
       </c>
       <c r="D131" t="n">
-        <v>268.5</v>
+        <v>272</v>
       </c>
       <c r="E131" t="n">
-        <v>267.9</v>
+        <v>272</v>
       </c>
       <c r="F131" t="n">
-        <v>2602.2</v>
+        <v>134.3803</v>
       </c>
       <c r="G131" t="n">
-        <v>-169079.6181179201</v>
+        <v>-184799.46604521</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4972,33 +5694,40 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>267.9</v>
+        <v>272</v>
       </c>
       <c r="C132" t="n">
-        <v>267.8</v>
+        <v>272</v>
       </c>
       <c r="D132" t="n">
-        <v>267.9</v>
+        <v>272</v>
       </c>
       <c r="E132" t="n">
-        <v>267.8</v>
+        <v>272</v>
       </c>
       <c r="F132" t="n">
-        <v>200</v>
+        <v>937.9905</v>
       </c>
       <c r="G132" t="n">
-        <v>-169279.6181179201</v>
+        <v>-184799.46604521</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5007,33 +5736,40 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>267.8</v>
+        <v>272</v>
       </c>
       <c r="C133" t="n">
-        <v>267.8</v>
+        <v>272</v>
       </c>
       <c r="D133" t="n">
-        <v>267.8</v>
+        <v>272</v>
       </c>
       <c r="E133" t="n">
-        <v>267.8</v>
+        <v>272</v>
       </c>
       <c r="F133" t="n">
-        <v>130</v>
+        <v>831.9299</v>
       </c>
       <c r="G133" t="n">
-        <v>-169279.6181179201</v>
+        <v>-184799.46604521</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5042,33 +5778,40 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>267.7</v>
+        <v>272.8</v>
       </c>
       <c r="C134" t="n">
-        <v>267.7</v>
+        <v>273.8</v>
       </c>
       <c r="D134" t="n">
-        <v>267.7</v>
+        <v>273.8</v>
       </c>
       <c r="E134" t="n">
-        <v>267.7</v>
+        <v>272.8</v>
       </c>
       <c r="F134" t="n">
-        <v>249.7394</v>
+        <v>14642.35296197</v>
       </c>
       <c r="G134" t="n">
-        <v>-169529.3575179201</v>
+        <v>-170157.11308324</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5077,33 +5820,40 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>267.7</v>
+        <v>272.7</v>
       </c>
       <c r="C135" t="n">
-        <v>267.7</v>
+        <v>272.7</v>
       </c>
       <c r="D135" t="n">
-        <v>267.7</v>
+        <v>272.7</v>
       </c>
       <c r="E135" t="n">
-        <v>267.7</v>
+        <v>272.7</v>
       </c>
       <c r="F135" t="n">
-        <v>626.4874</v>
+        <v>5</v>
       </c>
       <c r="G135" t="n">
-        <v>-169529.3575179201</v>
+        <v>-170162.11308324</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5112,33 +5862,40 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>266.5</v>
+        <v>271.5</v>
       </c>
       <c r="C136" t="n">
-        <v>266.5</v>
+        <v>271.5</v>
       </c>
       <c r="D136" t="n">
-        <v>266.5</v>
+        <v>271.5</v>
       </c>
       <c r="E136" t="n">
-        <v>266.5</v>
+        <v>271.5</v>
       </c>
       <c r="F136" t="n">
-        <v>2462</v>
+        <v>3143.935</v>
       </c>
       <c r="G136" t="n">
-        <v>-171991.3575179201</v>
+        <v>-173306.04808324</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5147,33 +5904,40 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>266.5</v>
+        <v>271.5</v>
       </c>
       <c r="C137" t="n">
-        <v>266.4</v>
+        <v>271.5</v>
       </c>
       <c r="D137" t="n">
-        <v>266.5</v>
+        <v>271.5</v>
       </c>
       <c r="E137" t="n">
-        <v>266.4</v>
+        <v>271.5</v>
       </c>
       <c r="F137" t="n">
-        <v>1873.0299</v>
+        <v>901.2575000000001</v>
       </c>
       <c r="G137" t="n">
-        <v>-173864.3874179201</v>
+        <v>-173306.04808324</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5182,33 +5946,40 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>266.4</v>
+        <v>272.3</v>
       </c>
       <c r="C138" t="n">
-        <v>266.4</v>
+        <v>272.5</v>
       </c>
       <c r="D138" t="n">
-        <v>266.4</v>
+        <v>272.8</v>
       </c>
       <c r="E138" t="n">
-        <v>266.4</v>
+        <v>272.3</v>
       </c>
       <c r="F138" t="n">
-        <v>123.6247</v>
+        <v>2233.9839</v>
       </c>
       <c r="G138" t="n">
-        <v>-173864.3874179201</v>
+        <v>-171072.06418324</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5217,33 +5988,40 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>266.4</v>
+        <v>272.8</v>
       </c>
       <c r="C139" t="n">
-        <v>266.4</v>
+        <v>272.8</v>
       </c>
       <c r="D139" t="n">
-        <v>266.4</v>
+        <v>272.8</v>
       </c>
       <c r="E139" t="n">
-        <v>266.4</v>
+        <v>272.8</v>
       </c>
       <c r="F139" t="n">
-        <v>248.6571</v>
+        <v>142.7158</v>
       </c>
       <c r="G139" t="n">
-        <v>-173864.3874179201</v>
+        <v>-170929.34838324</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5252,74 +6030,82 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>266.2</v>
+        <v>274</v>
       </c>
       <c r="C140" t="n">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D140" t="n">
-        <v>266.2</v>
+        <v>274</v>
       </c>
       <c r="E140" t="n">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="F140" t="n">
-        <v>28733.8125</v>
+        <v>2.3761</v>
       </c>
       <c r="G140" t="n">
-        <v>-202598.1999179201</v>
+        <v>-170926.97228324</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>266.4</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>267.7</v>
+        <v>274</v>
       </c>
       <c r="C141" t="n">
-        <v>267.7</v>
+        <v>274</v>
       </c>
       <c r="D141" t="n">
-        <v>267.7</v>
+        <v>274</v>
       </c>
       <c r="E141" t="n">
-        <v>267.7</v>
+        <v>274</v>
       </c>
       <c r="F141" t="n">
-        <v>8671.3112</v>
+        <v>3173.5789</v>
       </c>
       <c r="G141" t="n">
-        <v>-193926.8887179201</v>
+        <v>-170926.97228324</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5328,7 +6114,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>266.4</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5337,28 +6125,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>267.7</v>
+        <v>274.5</v>
       </c>
       <c r="C142" t="n">
-        <v>268</v>
+        <v>274.8</v>
       </c>
       <c r="D142" t="n">
-        <v>268</v>
+        <v>274.8</v>
       </c>
       <c r="E142" t="n">
-        <v>267.7</v>
+        <v>274.5</v>
       </c>
       <c r="F142" t="n">
-        <v>5026.8403</v>
+        <v>3600</v>
       </c>
       <c r="G142" t="n">
-        <v>-188900.04841792</v>
+        <v>-167326.97228324</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5367,7 +6156,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>266.4</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5376,28 +6167,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>267.7</v>
+        <v>274.5</v>
       </c>
       <c r="C143" t="n">
-        <v>267.7</v>
+        <v>274.5</v>
       </c>
       <c r="D143" t="n">
-        <v>267.7</v>
+        <v>274.5</v>
       </c>
       <c r="E143" t="n">
-        <v>267.7</v>
+        <v>274.5</v>
       </c>
       <c r="F143" t="n">
-        <v>176.9999</v>
+        <v>2000</v>
       </c>
       <c r="G143" t="n">
-        <v>-189077.04831792</v>
+        <v>-169326.97228324</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5406,7 +6198,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>266.4</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5415,340 +6209,323 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>268</v>
+        <v>274.5</v>
       </c>
       <c r="C144" t="n">
-        <v>268</v>
+        <v>275.5</v>
       </c>
       <c r="D144" t="n">
-        <v>268</v>
+        <v>275.5</v>
       </c>
       <c r="E144" t="n">
-        <v>268</v>
+        <v>274.5</v>
       </c>
       <c r="F144" t="n">
-        <v>372.2038</v>
+        <v>9994.87143822</v>
       </c>
       <c r="G144" t="n">
-        <v>-188704.84451792</v>
+        <v>-159332.10084502</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>266.4</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>1</v>
-      </c>
+        <v>1.029159159159159</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>267.5</v>
+        <v>274.5</v>
       </c>
       <c r="C145" t="n">
-        <v>267.5</v>
+        <v>274.5</v>
       </c>
       <c r="D145" t="n">
-        <v>267.5</v>
+        <v>274.5</v>
       </c>
       <c r="E145" t="n">
-        <v>267.5</v>
+        <v>274.5</v>
       </c>
       <c r="F145" t="n">
-        <v>406.2212</v>
+        <v>868.2604</v>
       </c>
       <c r="G145" t="n">
-        <v>-189111.06571792</v>
+        <v>-160200.36124502</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>268.9</v>
+        <v>274.5</v>
       </c>
       <c r="C146" t="n">
-        <v>268.8</v>
+        <v>274.5</v>
       </c>
       <c r="D146" t="n">
-        <v>268.9</v>
+        <v>274.5</v>
       </c>
       <c r="E146" t="n">
-        <v>268.1</v>
+        <v>274.5</v>
       </c>
       <c r="F146" t="n">
-        <v>859.6635</v>
+        <v>370.7396</v>
       </c>
       <c r="G146" t="n">
-        <v>-188251.4022179201</v>
+        <v>-160200.36124502</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>269</v>
+        <v>275.4</v>
       </c>
       <c r="C147" t="n">
-        <v>269</v>
+        <v>274.5</v>
       </c>
       <c r="D147" t="n">
-        <v>269</v>
+        <v>275.5</v>
       </c>
       <c r="E147" t="n">
-        <v>269</v>
+        <v>274.5</v>
       </c>
       <c r="F147" t="n">
-        <v>1779.3648</v>
+        <v>17545.2831</v>
       </c>
       <c r="G147" t="n">
-        <v>-186472.03741792</v>
+        <v>-160200.36124502</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>268.4</v>
+        <v>274.5</v>
       </c>
       <c r="C148" t="n">
-        <v>268.4</v>
+        <v>274.5</v>
       </c>
       <c r="D148" t="n">
-        <v>268.4</v>
+        <v>274.5</v>
       </c>
       <c r="E148" t="n">
-        <v>268.4</v>
+        <v>274.5</v>
       </c>
       <c r="F148" t="n">
-        <v>20</v>
+        <v>16308.0954</v>
       </c>
       <c r="G148" t="n">
-        <v>-186492.03741792</v>
+        <v>-160200.36124502</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>268.2</v>
+        <v>274.5</v>
       </c>
       <c r="C149" t="n">
-        <v>268.2</v>
+        <v>274.5</v>
       </c>
       <c r="D149" t="n">
-        <v>268.2</v>
+        <v>274.5</v>
       </c>
       <c r="E149" t="n">
-        <v>268.2</v>
+        <v>274.5</v>
       </c>
       <c r="F149" t="n">
-        <v>20</v>
+        <v>989.4508</v>
       </c>
       <c r="G149" t="n">
-        <v>-186512.03741792</v>
+        <v>-160200.36124502</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>268.2</v>
+        <v>274.5</v>
       </c>
       <c r="C150" t="n">
-        <v>268.1</v>
+        <v>273.7</v>
       </c>
       <c r="D150" t="n">
-        <v>268.2</v>
+        <v>274.5</v>
       </c>
       <c r="E150" t="n">
-        <v>268.1</v>
+        <v>273.7</v>
       </c>
       <c r="F150" t="n">
-        <v>2365.3763</v>
+        <v>9299.0576</v>
       </c>
       <c r="G150" t="n">
-        <v>-188877.41371792</v>
+        <v>-169499.41884502</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>268.1</v>
+        <v>273.7</v>
       </c>
       <c r="C151" t="n">
-        <v>268</v>
+        <v>273.7</v>
       </c>
       <c r="D151" t="n">
-        <v>268.1</v>
+        <v>273.7</v>
       </c>
       <c r="E151" t="n">
-        <v>268</v>
+        <v>273.7</v>
       </c>
       <c r="F151" t="n">
-        <v>3669.9804</v>
+        <v>111.9739</v>
       </c>
       <c r="G151" t="n">
-        <v>-192547.39411792</v>
+        <v>-169499.41884502</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>268.2</v>
+        <v>273.7</v>
       </c>
       <c r="C152" t="n">
-        <v>268.2</v>
+        <v>273.7</v>
       </c>
       <c r="D152" t="n">
-        <v>268.2</v>
+        <v>273.7</v>
       </c>
       <c r="E152" t="n">
-        <v>268.2</v>
+        <v>273.7</v>
       </c>
       <c r="F152" t="n">
-        <v>5640.3941</v>
+        <v>33.5359</v>
       </c>
       <c r="G152" t="n">
-        <v>-186907.00001792</v>
+        <v>-169499.41884502</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5758,1748 +6535,83 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>268.2</v>
+        <v>273.7</v>
       </c>
       <c r="C153" t="n">
-        <v>268</v>
+        <v>273.7</v>
       </c>
       <c r="D153" t="n">
-        <v>268.2</v>
+        <v>273.7</v>
       </c>
       <c r="E153" t="n">
-        <v>268</v>
+        <v>273.7</v>
       </c>
       <c r="F153" t="n">
-        <v>12298.1208</v>
+        <v>3922.4654</v>
       </c>
       <c r="G153" t="n">
-        <v>-199205.12081792</v>
+        <v>-169499.41884502</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>268.2</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>267.9</v>
+        <v>273.1</v>
       </c>
       <c r="C154" t="n">
-        <v>267.9</v>
+        <v>273.1</v>
       </c>
       <c r="D154" t="n">
-        <v>267.9</v>
+        <v>273.1</v>
       </c>
       <c r="E154" t="n">
-        <v>267.9</v>
+        <v>273.1</v>
       </c>
       <c r="F154" t="n">
-        <v>20</v>
+        <v>715.9143</v>
       </c>
       <c r="G154" t="n">
-        <v>-199225.12081792</v>
+        <v>-170215.33314502</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>268</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="C155" t="n">
-        <v>266.8</v>
-      </c>
-      <c r="D155" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="E155" t="n">
-        <v>266.8</v>
-      </c>
-      <c r="F155" t="n">
-        <v>4800</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-204025.12081792</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="C156" t="n">
-        <v>267.3</v>
-      </c>
-      <c r="D156" t="n">
-        <v>267.3</v>
-      </c>
-      <c r="E156" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="F156" t="n">
-        <v>7</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-204018.12081792</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>266.8</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>266.3</v>
-      </c>
-      <c r="C157" t="n">
-        <v>266.3</v>
-      </c>
-      <c r="D157" t="n">
-        <v>266.3</v>
-      </c>
-      <c r="E157" t="n">
-        <v>266.3</v>
-      </c>
-      <c r="F157" t="n">
-        <v>249.7394</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-204267.86021792</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>267.3</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>267</v>
-      </c>
-      <c r="C158" t="n">
-        <v>267.3</v>
-      </c>
-      <c r="D158" t="n">
-        <v>267.3</v>
-      </c>
-      <c r="E158" t="n">
-        <v>267</v>
-      </c>
-      <c r="F158" t="n">
-        <v>4092.6088</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-200175.2514179201</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>266.3</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>267.2</v>
-      </c>
-      <c r="C159" t="n">
-        <v>267.2</v>
-      </c>
-      <c r="D159" t="n">
-        <v>267.2</v>
-      </c>
-      <c r="E159" t="n">
-        <v>267.2</v>
-      </c>
-      <c r="F159" t="n">
-        <v>249.7394</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-200424.99081792</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>267.3</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>268.3</v>
-      </c>
-      <c r="C160" t="n">
-        <v>268.3</v>
-      </c>
-      <c r="D160" t="n">
-        <v>268.3</v>
-      </c>
-      <c r="E160" t="n">
-        <v>268.3</v>
-      </c>
-      <c r="F160" t="n">
-        <v>23.00037271</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-200401.99044521</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>267.2</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>268.3</v>
-      </c>
-      <c r="C161" t="n">
-        <v>268.3</v>
-      </c>
-      <c r="D161" t="n">
-        <v>268.3</v>
-      </c>
-      <c r="E161" t="n">
-        <v>268.3</v>
-      </c>
-      <c r="F161" t="n">
-        <v>4224.00492729</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-200401.99044521</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="C162" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="D162" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="E162" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="F162" t="n">
-        <v>2435.2705</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-197966.71994521</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="C163" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="D163" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="E163" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1070.321</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-197966.71994521</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="C164" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="D164" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="E164" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="F164" t="n">
-        <v>2092.0291</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-197966.71994521</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="C165" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="D165" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="E165" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1070.9999</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-197966.71994521</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>269</v>
-      </c>
-      <c r="C166" t="n">
-        <v>271.5</v>
-      </c>
-      <c r="D166" t="n">
-        <v>271.5</v>
-      </c>
-      <c r="E166" t="n">
-        <v>269</v>
-      </c>
-      <c r="F166" t="n">
-        <v>4971.8424</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-192994.87754521</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>270.6</v>
-      </c>
-      <c r="C167" t="n">
-        <v>270.6</v>
-      </c>
-      <c r="D167" t="n">
-        <v>270.6</v>
-      </c>
-      <c r="E167" t="n">
-        <v>270.6</v>
-      </c>
-      <c r="F167" t="n">
-        <v>871.2763</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-193866.15384521</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>271.4</v>
-      </c>
-      <c r="C168" t="n">
-        <v>271.6</v>
-      </c>
-      <c r="D168" t="n">
-        <v>271.6</v>
-      </c>
-      <c r="E168" t="n">
-        <v>271.4</v>
-      </c>
-      <c r="F168" t="n">
-        <v>3861.5326</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-190004.62124521</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>271.6</v>
-      </c>
-      <c r="C169" t="n">
-        <v>271.6</v>
-      </c>
-      <c r="D169" t="n">
-        <v>271.6</v>
-      </c>
-      <c r="E169" t="n">
-        <v>271.6</v>
-      </c>
-      <c r="F169" t="n">
-        <v>2740</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-190004.62124521</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>271.6</v>
-      </c>
-      <c r="C170" t="n">
-        <v>271.6</v>
-      </c>
-      <c r="D170" t="n">
-        <v>271.6</v>
-      </c>
-      <c r="E170" t="n">
-        <v>271.6</v>
-      </c>
-      <c r="F170" t="n">
-        <v>431.0019</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-190004.62124521</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>271.9</v>
-      </c>
-      <c r="C171" t="n">
-        <v>271.9</v>
-      </c>
-      <c r="D171" t="n">
-        <v>271.9</v>
-      </c>
-      <c r="E171" t="n">
-        <v>271.9</v>
-      </c>
-      <c r="F171" t="n">
-        <v>2620</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-187384.62124521</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>271.9</v>
-      </c>
-      <c r="C172" t="n">
-        <v>272</v>
-      </c>
-      <c r="D172" t="n">
-        <v>272</v>
-      </c>
-      <c r="E172" t="n">
-        <v>271.9</v>
-      </c>
-      <c r="F172" t="n">
-        <v>2585.1552</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-184799.46604521</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>272</v>
-      </c>
-      <c r="C173" t="n">
-        <v>272</v>
-      </c>
-      <c r="D173" t="n">
-        <v>272</v>
-      </c>
-      <c r="E173" t="n">
-        <v>272</v>
-      </c>
-      <c r="F173" t="n">
-        <v>134.3803</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-184799.46604521</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>272</v>
-      </c>
-      <c r="C174" t="n">
-        <v>272</v>
-      </c>
-      <c r="D174" t="n">
-        <v>272</v>
-      </c>
-      <c r="E174" t="n">
-        <v>272</v>
-      </c>
-      <c r="F174" t="n">
-        <v>937.9905</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-184799.46604521</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>272</v>
-      </c>
-      <c r="C175" t="n">
-        <v>272</v>
-      </c>
-      <c r="D175" t="n">
-        <v>272</v>
-      </c>
-      <c r="E175" t="n">
-        <v>272</v>
-      </c>
-      <c r="F175" t="n">
-        <v>831.9299</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-184799.46604521</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="C176" t="n">
-        <v>273.8</v>
-      </c>
-      <c r="D176" t="n">
-        <v>273.8</v>
-      </c>
-      <c r="E176" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="F176" t="n">
-        <v>14642.35296197</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-170157.11308324</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="C177" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="D177" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="E177" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="F177" t="n">
-        <v>5</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-170162.11308324</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>271.5</v>
-      </c>
-      <c r="C178" t="n">
-        <v>271.5</v>
-      </c>
-      <c r="D178" t="n">
-        <v>271.5</v>
-      </c>
-      <c r="E178" t="n">
-        <v>271.5</v>
-      </c>
-      <c r="F178" t="n">
-        <v>3143.935</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-173306.04808324</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>271.5</v>
-      </c>
-      <c r="C179" t="n">
-        <v>271.5</v>
-      </c>
-      <c r="D179" t="n">
-        <v>271.5</v>
-      </c>
-      <c r="E179" t="n">
-        <v>271.5</v>
-      </c>
-      <c r="F179" t="n">
-        <v>901.2575000000001</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-173306.04808324</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>272.3</v>
-      </c>
-      <c r="C180" t="n">
-        <v>272.5</v>
-      </c>
-      <c r="D180" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="E180" t="n">
-        <v>272.3</v>
-      </c>
-      <c r="F180" t="n">
-        <v>2233.9839</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-171072.06418324</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="C181" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="D181" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="E181" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="F181" t="n">
-        <v>142.7158</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-170929.34838324</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>274</v>
-      </c>
-      <c r="C182" t="n">
-        <v>274</v>
-      </c>
-      <c r="D182" t="n">
-        <v>274</v>
-      </c>
-      <c r="E182" t="n">
-        <v>274</v>
-      </c>
-      <c r="F182" t="n">
-        <v>2.3761</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-170926.97228324</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>274</v>
-      </c>
-      <c r="C183" t="n">
-        <v>274</v>
-      </c>
-      <c r="D183" t="n">
-        <v>274</v>
-      </c>
-      <c r="E183" t="n">
-        <v>274</v>
-      </c>
-      <c r="F183" t="n">
-        <v>3173.5789</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-170926.97228324</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="C184" t="n">
-        <v>274.8</v>
-      </c>
-      <c r="D184" t="n">
-        <v>274.8</v>
-      </c>
-      <c r="E184" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="F184" t="n">
-        <v>3600</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-167326.97228324</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="C185" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="D185" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="E185" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="F185" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-169326.97228324</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="C186" t="n">
-        <v>275.5</v>
-      </c>
-      <c r="D186" t="n">
-        <v>275.5</v>
-      </c>
-      <c r="E186" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="F186" t="n">
-        <v>9994.87143822</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-159332.10084502</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="C187" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="D187" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="E187" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="F187" t="n">
-        <v>868.2604</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-160200.36124502</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="C188" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="D188" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="E188" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="F188" t="n">
-        <v>370.7396</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-160200.36124502</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>275.4</v>
-      </c>
-      <c r="C189" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="D189" t="n">
-        <v>275.5</v>
-      </c>
-      <c r="E189" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="F189" t="n">
-        <v>17545.2831</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-160200.36124502</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="C190" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="D190" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="E190" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="F190" t="n">
-        <v>16308.0954</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-160200.36124502</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="C191" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="D191" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="E191" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="F191" t="n">
-        <v>989.4508</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-160200.36124502</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="C192" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="D192" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="E192" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="F192" t="n">
-        <v>9299.0576</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-169499.41884502</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="C193" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="D193" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="E193" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="F193" t="n">
-        <v>111.9739</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-169499.41884502</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="C194" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="D194" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="E194" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="F194" t="n">
-        <v>33.5359</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-169499.41884502</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="C195" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="D195" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="E195" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="F195" t="n">
-        <v>3922.4654</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-169499.41884502</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="C196" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="D196" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="E196" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="F196" t="n">
-        <v>715.9143</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-170215.33314502</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
+      <c r="N154" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-26 BackTest MTL.xlsx
+++ b/BackTest/2020-01-26 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N154"/>
+  <dimension ref="A1:N225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>267.7</v>
+        <v>271.9</v>
       </c>
       <c r="C2" t="n">
-        <v>267.7</v>
+        <v>272</v>
       </c>
       <c r="D2" t="n">
-        <v>267.7</v>
+        <v>273.6</v>
       </c>
       <c r="E2" t="n">
-        <v>267.7</v>
+        <v>271.9</v>
       </c>
       <c r="F2" t="n">
-        <v>2390.7324</v>
+        <v>22204.8721</v>
       </c>
       <c r="G2" t="n">
-        <v>-46359.29262778</v>
+        <v>5234.412672220002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>267.2</v>
+        <v>273.8</v>
       </c>
       <c r="C3" t="n">
-        <v>267.2</v>
+        <v>272.2</v>
       </c>
       <c r="D3" t="n">
-        <v>267.2</v>
+        <v>273.8</v>
       </c>
       <c r="E3" t="n">
-        <v>267.2</v>
+        <v>272.2</v>
       </c>
       <c r="F3" t="n">
-        <v>703.2109</v>
+        <v>2680.491</v>
       </c>
       <c r="G3" t="n">
-        <v>-47062.50352778</v>
+        <v>7914.903672220002</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>267.2</v>
+        <v>272.8</v>
       </c>
       <c r="C4" t="n">
-        <v>267.2</v>
+        <v>272.8</v>
       </c>
       <c r="D4" t="n">
-        <v>267.2</v>
+        <v>272.8</v>
       </c>
       <c r="E4" t="n">
-        <v>267.2</v>
+        <v>272.8</v>
       </c>
       <c r="F4" t="n">
-        <v>3296.7891</v>
+        <v>200</v>
       </c>
       <c r="G4" t="n">
-        <v>-47062.50352778</v>
+        <v>8114.903672220002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>267.2</v>
+        <v>271.8</v>
       </c>
       <c r="C5" t="n">
-        <v>267.2</v>
+        <v>271.8</v>
       </c>
       <c r="D5" t="n">
-        <v>267.2</v>
+        <v>271.8</v>
       </c>
       <c r="E5" t="n">
-        <v>267.2</v>
+        <v>271.8</v>
       </c>
       <c r="F5" t="n">
-        <v>2302.9839</v>
+        <v>1753.3689</v>
       </c>
       <c r="G5" t="n">
-        <v>-47062.50352778</v>
+        <v>6361.534772220002</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>266.5</v>
+        <v>272.6</v>
       </c>
       <c r="C6" t="n">
-        <v>265.5</v>
+        <v>271.7</v>
       </c>
       <c r="D6" t="n">
-        <v>266.5</v>
+        <v>272.6</v>
       </c>
       <c r="E6" t="n">
-        <v>265.5</v>
+        <v>270.7</v>
       </c>
       <c r="F6" t="n">
-        <v>17731.0287</v>
+        <v>4008.9301</v>
       </c>
       <c r="G6" t="n">
-        <v>-64793.53222778</v>
+        <v>2352.604672220002</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>266.3</v>
+        <v>271.8</v>
       </c>
       <c r="C7" t="n">
-        <v>266.3</v>
+        <v>271.8</v>
       </c>
       <c r="D7" t="n">
-        <v>266.3</v>
+        <v>271.8</v>
       </c>
       <c r="E7" t="n">
-        <v>266.3</v>
+        <v>271.8</v>
       </c>
       <c r="F7" t="n">
-        <v>169.3307</v>
+        <v>1582.8309</v>
       </c>
       <c r="G7" t="n">
-        <v>-64624.20152778</v>
+        <v>3935.435572220002</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>265.6</v>
+        <v>270</v>
       </c>
       <c r="C8" t="n">
-        <v>265.6</v>
+        <v>270</v>
       </c>
       <c r="D8" t="n">
-        <v>265.6</v>
+        <v>270</v>
       </c>
       <c r="E8" t="n">
-        <v>265.6</v>
+        <v>270</v>
       </c>
       <c r="F8" t="n">
-        <v>2455.8765</v>
+        <v>76</v>
       </c>
       <c r="G8" t="n">
-        <v>-67080.07802778001</v>
+        <v>3859.435572220002</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>265.5</v>
+        <v>270</v>
       </c>
       <c r="C9" t="n">
-        <v>265.5</v>
+        <v>270</v>
       </c>
       <c r="D9" t="n">
-        <v>265.5</v>
+        <v>270</v>
       </c>
       <c r="E9" t="n">
-        <v>265.5</v>
+        <v>270</v>
       </c>
       <c r="F9" t="n">
-        <v>42.3061</v>
+        <v>1900</v>
       </c>
       <c r="G9" t="n">
-        <v>-67122.38412778001</v>
+        <v>3859.435572220002</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>265.3</v>
+        <v>270.2</v>
       </c>
       <c r="C10" t="n">
-        <v>265.3</v>
+        <v>270.2</v>
       </c>
       <c r="D10" t="n">
-        <v>265.3</v>
+        <v>270.2</v>
       </c>
       <c r="E10" t="n">
-        <v>265.3</v>
+        <v>270.2</v>
       </c>
       <c r="F10" t="n">
-        <v>1844.9206</v>
+        <v>819.6</v>
       </c>
       <c r="G10" t="n">
-        <v>-68967.30472778001</v>
+        <v>4679.035572220002</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>265.3</v>
+        <v>270.2</v>
       </c>
       <c r="C11" t="n">
-        <v>265.1</v>
+        <v>270.2</v>
       </c>
       <c r="D11" t="n">
-        <v>265.3</v>
+        <v>270.2</v>
       </c>
       <c r="E11" t="n">
-        <v>265.1</v>
+        <v>270.2</v>
       </c>
       <c r="F11" t="n">
-        <v>20000</v>
+        <v>169</v>
       </c>
       <c r="G11" t="n">
-        <v>-88967.30472778001</v>
+        <v>4679.035572220002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>265.1</v>
+        <v>270.2</v>
       </c>
       <c r="C12" t="n">
-        <v>265</v>
+        <v>270.2</v>
       </c>
       <c r="D12" t="n">
-        <v>265.1</v>
+        <v>270.2</v>
       </c>
       <c r="E12" t="n">
-        <v>265</v>
+        <v>270.2</v>
       </c>
       <c r="F12" t="n">
-        <v>10000</v>
+        <v>240.8</v>
       </c>
       <c r="G12" t="n">
-        <v>-98967.30472778001</v>
+        <v>4679.035572220002</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>265.1</v>
+        <v>271</v>
       </c>
       <c r="C13" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D13" t="n">
-        <v>265.1</v>
+        <v>271</v>
       </c>
       <c r="E13" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F13" t="n">
-        <v>10000</v>
+        <v>509.8</v>
       </c>
       <c r="G13" t="n">
-        <v>-98967.30472778001</v>
+        <v>4169.235572220002</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C14" t="n">
-        <v>265</v>
+        <v>269.2</v>
       </c>
       <c r="D14" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E14" t="n">
-        <v>265</v>
+        <v>269.2</v>
       </c>
       <c r="F14" t="n">
-        <v>4149.4271</v>
+        <v>6370.3756</v>
       </c>
       <c r="G14" t="n">
-        <v>-98967.30472778001</v>
+        <v>-2201.140027779998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>265</v>
+        <v>271.5</v>
       </c>
       <c r="C15" t="n">
-        <v>265</v>
+        <v>271.5</v>
       </c>
       <c r="D15" t="n">
-        <v>265</v>
+        <v>271.5</v>
       </c>
       <c r="E15" t="n">
-        <v>265</v>
+        <v>271.5</v>
       </c>
       <c r="F15" t="n">
-        <v>1017.3572</v>
+        <v>1052.6951</v>
       </c>
       <c r="G15" t="n">
-        <v>-98967.30472778001</v>
+        <v>-1148.444927779999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>265</v>
+        <v>271.3</v>
       </c>
       <c r="C16" t="n">
-        <v>265</v>
+        <v>271.3</v>
       </c>
       <c r="D16" t="n">
-        <v>265</v>
+        <v>271.3</v>
       </c>
       <c r="E16" t="n">
-        <v>265</v>
+        <v>271.3</v>
       </c>
       <c r="F16" t="n">
-        <v>1400</v>
+        <v>974.615</v>
       </c>
       <c r="G16" t="n">
-        <v>-98967.30472778001</v>
+        <v>-2123.059927779998</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>265</v>
+        <v>269.2</v>
       </c>
       <c r="C17" t="n">
-        <v>265.3</v>
+        <v>269.2</v>
       </c>
       <c r="D17" t="n">
-        <v>265.3</v>
+        <v>269.2</v>
       </c>
       <c r="E17" t="n">
-        <v>265</v>
+        <v>269.2</v>
       </c>
       <c r="F17" t="n">
-        <v>7507.9753</v>
+        <v>754</v>
       </c>
       <c r="G17" t="n">
-        <v>-91459.32942778</v>
+        <v>-2877.059927779998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>265</v>
+        <v>269.2</v>
       </c>
       <c r="C18" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D18" t="n">
-        <v>265</v>
+        <v>269.2</v>
       </c>
       <c r="E18" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F18" t="n">
-        <v>700</v>
+        <v>4076.9999</v>
       </c>
       <c r="G18" t="n">
-        <v>-92159.32942778</v>
+        <v>-6954.059827779998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>265</v>
+        <v>270.2</v>
       </c>
       <c r="C19" t="n">
-        <v>265</v>
+        <v>270.2</v>
       </c>
       <c r="D19" t="n">
-        <v>265</v>
+        <v>270.2</v>
       </c>
       <c r="E19" t="n">
-        <v>265</v>
+        <v>270.2</v>
       </c>
       <c r="F19" t="n">
-        <v>992.2332</v>
+        <v>1619.9472</v>
       </c>
       <c r="G19" t="n">
-        <v>-92159.32942778</v>
+        <v>-5334.112627779998</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>265.9</v>
+        <v>270.2</v>
       </c>
       <c r="C20" t="n">
-        <v>265.9</v>
+        <v>270.2</v>
       </c>
       <c r="D20" t="n">
-        <v>265.9</v>
+        <v>270.2</v>
       </c>
       <c r="E20" t="n">
-        <v>265.9</v>
+        <v>270.2</v>
       </c>
       <c r="F20" t="n">
-        <v>1700</v>
+        <v>1272.8856</v>
       </c>
       <c r="G20" t="n">
-        <v>-90459.32942778</v>
+        <v>-5334.112627779998</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>265.4</v>
+        <v>270</v>
       </c>
       <c r="C21" t="n">
-        <v>265.4</v>
+        <v>270</v>
       </c>
       <c r="D21" t="n">
-        <v>265.4</v>
+        <v>270</v>
       </c>
       <c r="E21" t="n">
-        <v>265.4</v>
+        <v>270</v>
       </c>
       <c r="F21" t="n">
-        <v>1275</v>
+        <v>27.1633</v>
       </c>
       <c r="G21" t="n">
-        <v>-91734.32942778</v>
+        <v>-5361.275927779998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>265.4</v>
+        <v>269</v>
       </c>
       <c r="C22" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D22" t="n">
-        <v>265.4</v>
+        <v>269</v>
       </c>
       <c r="E22" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F22" t="n">
-        <v>610.5300999999999</v>
+        <v>260.1128</v>
       </c>
       <c r="G22" t="n">
-        <v>-92344.85952778001</v>
+        <v>-5621.388727779998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>265.8</v>
+        <v>269</v>
       </c>
       <c r="C23" t="n">
-        <v>265.8</v>
+        <v>269</v>
       </c>
       <c r="D23" t="n">
-        <v>265.8</v>
+        <v>269</v>
       </c>
       <c r="E23" t="n">
-        <v>265.8</v>
+        <v>269</v>
       </c>
       <c r="F23" t="n">
-        <v>394.3662</v>
+        <v>295.2938</v>
       </c>
       <c r="G23" t="n">
-        <v>-91950.49332778</v>
+        <v>-5621.388727779998</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>265.1</v>
+        <v>269</v>
       </c>
       <c r="C24" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D24" t="n">
-        <v>265.1</v>
+        <v>269</v>
       </c>
       <c r="E24" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F24" t="n">
-        <v>14000</v>
+        <v>351.9288</v>
       </c>
       <c r="G24" t="n">
-        <v>-105950.49332778</v>
+        <v>-5621.388727779998</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C25" t="n">
-        <v>263.9</v>
+        <v>269</v>
       </c>
       <c r="D25" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E25" t="n">
-        <v>263.9</v>
+        <v>269</v>
       </c>
       <c r="F25" t="n">
-        <v>47141.5976</v>
+        <v>234.1045</v>
       </c>
       <c r="G25" t="n">
-        <v>-153092.09092778</v>
+        <v>-5621.388727779998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C26" t="n">
-        <v>262.8</v>
+        <v>269</v>
       </c>
       <c r="D26" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E26" t="n">
-        <v>262.8</v>
+        <v>269</v>
       </c>
       <c r="F26" t="n">
-        <v>12858.5616</v>
+        <v>744</v>
       </c>
       <c r="G26" t="n">
-        <v>-165950.65252778</v>
+        <v>-5621.388727779998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>263.9</v>
+        <v>269</v>
       </c>
       <c r="C27" t="n">
-        <v>263.9</v>
+        <v>269</v>
       </c>
       <c r="D27" t="n">
-        <v>263.9</v>
+        <v>269</v>
       </c>
       <c r="E27" t="n">
-        <v>263.9</v>
+        <v>269</v>
       </c>
       <c r="F27" t="n">
-        <v>146.3</v>
+        <v>2936.63</v>
       </c>
       <c r="G27" t="n">
-        <v>-165804.35252778</v>
+        <v>-5621.388727779998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>263.9</v>
+        <v>269</v>
       </c>
       <c r="C28" t="n">
-        <v>263.9</v>
+        <v>269</v>
       </c>
       <c r="D28" t="n">
-        <v>263.9</v>
+        <v>269</v>
       </c>
       <c r="E28" t="n">
-        <v>263.9</v>
+        <v>269</v>
       </c>
       <c r="F28" t="n">
-        <v>996.1236</v>
+        <v>904</v>
       </c>
       <c r="G28" t="n">
-        <v>-165804.35252778</v>
+        <v>-5621.388727779998</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>263.9</v>
+        <v>269</v>
       </c>
       <c r="C29" t="n">
-        <v>263.9</v>
+        <v>269</v>
       </c>
       <c r="D29" t="n">
-        <v>263.9</v>
+        <v>269</v>
       </c>
       <c r="E29" t="n">
-        <v>263.9</v>
+        <v>269</v>
       </c>
       <c r="F29" t="n">
-        <v>2579.0737</v>
+        <v>1319</v>
       </c>
       <c r="G29" t="n">
-        <v>-165804.35252778</v>
+        <v>-5621.388727779998</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>263.9</v>
+        <v>271</v>
       </c>
       <c r="C30" t="n">
-        <v>263.9</v>
+        <v>270</v>
       </c>
       <c r="D30" t="n">
-        <v>263.9</v>
+        <v>271.8</v>
       </c>
       <c r="E30" t="n">
-        <v>263.9</v>
+        <v>270</v>
       </c>
       <c r="F30" t="n">
-        <v>164.2747</v>
+        <v>9821.258099999999</v>
       </c>
       <c r="G30" t="n">
-        <v>-165804.35252778</v>
+        <v>4199.869372220001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C31" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D31" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E31" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F31" t="n">
-        <v>12.1541</v>
+        <v>11.6161</v>
       </c>
       <c r="G31" t="n">
-        <v>-165792.19842778</v>
+        <v>4199.869372220001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C32" t="n">
-        <v>263.7</v>
+        <v>269.1</v>
       </c>
       <c r="D32" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E32" t="n">
-        <v>263.7</v>
+        <v>269.1</v>
       </c>
       <c r="F32" t="n">
-        <v>2751.5867</v>
+        <v>4000</v>
       </c>
       <c r="G32" t="n">
-        <v>-168543.78512778</v>
+        <v>199.8693722200014</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>265.2</v>
+        <v>271</v>
       </c>
       <c r="C33" t="n">
-        <v>265.2</v>
+        <v>269.5</v>
       </c>
       <c r="D33" t="n">
-        <v>265.2</v>
+        <v>271</v>
       </c>
       <c r="E33" t="n">
-        <v>265.2</v>
+        <v>269.5</v>
       </c>
       <c r="F33" t="n">
-        <v>3.7836</v>
+        <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>-168540.00152778</v>
+        <v>203.8693722200014</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>263.2</v>
+        <v>271</v>
       </c>
       <c r="C34" t="n">
-        <v>263.2</v>
+        <v>270.7</v>
       </c>
       <c r="D34" t="n">
-        <v>263.2</v>
+        <v>271</v>
       </c>
       <c r="E34" t="n">
-        <v>263.2</v>
+        <v>269.1</v>
       </c>
       <c r="F34" t="n">
-        <v>2810</v>
+        <v>14</v>
       </c>
       <c r="G34" t="n">
-        <v>-171350.00152778</v>
+        <v>217.8693722200014</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>264</v>
+        <v>269.1</v>
       </c>
       <c r="C35" t="n">
-        <v>264</v>
+        <v>269.1</v>
       </c>
       <c r="D35" t="n">
-        <v>264</v>
+        <v>269.1</v>
       </c>
       <c r="E35" t="n">
-        <v>264</v>
+        <v>269.1</v>
       </c>
       <c r="F35" t="n">
-        <v>757.2271</v>
+        <v>250.5701</v>
       </c>
       <c r="G35" t="n">
-        <v>-170592.77442778</v>
+        <v>-32.70072777999857</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>264</v>
+        <v>269.1</v>
       </c>
       <c r="C36" t="n">
-        <v>264</v>
+        <v>269.1</v>
       </c>
       <c r="D36" t="n">
-        <v>264</v>
+        <v>269.1</v>
       </c>
       <c r="E36" t="n">
-        <v>264</v>
+        <v>269.1</v>
       </c>
       <c r="F36" t="n">
-        <v>80</v>
+        <v>2885.4829</v>
       </c>
       <c r="G36" t="n">
-        <v>-170592.77442778</v>
+        <v>-32.70072777999857</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>264</v>
+        <v>269.1</v>
       </c>
       <c r="C37" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D37" t="n">
-        <v>264</v>
+        <v>269.1</v>
       </c>
       <c r="E37" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F37" t="n">
-        <v>1070.321</v>
+        <v>7500</v>
       </c>
       <c r="G37" t="n">
-        <v>-170592.77442778</v>
+        <v>-7532.700727779998</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C38" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D38" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E38" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F38" t="n">
-        <v>1601.6946</v>
+        <v>400</v>
       </c>
       <c r="G38" t="n">
-        <v>-170592.77442778</v>
+        <v>-7532.700727779998</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>264</v>
+        <v>270.1</v>
       </c>
       <c r="C39" t="n">
-        <v>264</v>
+        <v>270.1</v>
       </c>
       <c r="D39" t="n">
-        <v>264</v>
+        <v>270.1</v>
       </c>
       <c r="E39" t="n">
-        <v>264</v>
+        <v>270.1</v>
       </c>
       <c r="F39" t="n">
-        <v>2468.7405</v>
+        <v>923.2714</v>
       </c>
       <c r="G39" t="n">
-        <v>-170592.77442778</v>
+        <v>-6609.429327779999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>264</v>
+        <v>270.1</v>
       </c>
       <c r="C40" t="n">
-        <v>264</v>
+        <v>270.1</v>
       </c>
       <c r="D40" t="n">
-        <v>264</v>
+        <v>270.1</v>
       </c>
       <c r="E40" t="n">
-        <v>264</v>
+        <v>270.1</v>
       </c>
       <c r="F40" t="n">
-        <v>1631.8495</v>
+        <v>3.6987</v>
       </c>
       <c r="G40" t="n">
-        <v>-170592.77442778</v>
+        <v>-6609.429327779999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,35 +1842,31 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C41" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D41" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E41" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F41" t="n">
-        <v>934.1673</v>
+        <v>1011</v>
       </c>
       <c r="G41" t="n">
-        <v>-170592.77442778</v>
+        <v>-7620.429327779999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>264</v>
-      </c>
-      <c r="K41" t="n">
-        <v>264</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
@@ -1882,40 +1878,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>264</v>
+        <v>270.4</v>
       </c>
       <c r="C42" t="n">
-        <v>264</v>
+        <v>270.4</v>
       </c>
       <c r="D42" t="n">
-        <v>264</v>
+        <v>270.4</v>
       </c>
       <c r="E42" t="n">
-        <v>264</v>
+        <v>270.4</v>
       </c>
       <c r="F42" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="G42" t="n">
-        <v>-170592.77442778</v>
+        <v>-6620.429327779999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>264</v>
-      </c>
-      <c r="K42" t="n">
-        <v>264</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1926,40 +1914,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>266.4</v>
+        <v>270.4</v>
       </c>
       <c r="C43" t="n">
-        <v>266.4</v>
+        <v>269</v>
       </c>
       <c r="D43" t="n">
-        <v>266.4</v>
+        <v>270.4</v>
       </c>
       <c r="E43" t="n">
-        <v>266.4</v>
+        <v>269</v>
       </c>
       <c r="F43" t="n">
-        <v>126.9999</v>
+        <v>4443.1032</v>
       </c>
       <c r="G43" t="n">
-        <v>-170465.77452778</v>
+        <v>-11063.53252778</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>264</v>
-      </c>
-      <c r="K43" t="n">
-        <v>264</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1970,35 +1950,31 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>266.4</v>
+        <v>269</v>
       </c>
       <c r="C44" t="n">
-        <v>266.4</v>
+        <v>269</v>
       </c>
       <c r="D44" t="n">
-        <v>266.4</v>
+        <v>269</v>
       </c>
       <c r="E44" t="n">
-        <v>266.4</v>
+        <v>269</v>
       </c>
       <c r="F44" t="n">
-        <v>317.4575</v>
+        <v>923.2714</v>
       </c>
       <c r="G44" t="n">
-        <v>-170465.77452778</v>
+        <v>-11063.53252778</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="K44" t="n">
-        <v>266.4</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
@@ -2010,40 +1986,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C45" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D45" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E45" t="n">
-        <v>266</v>
+        <v>268.8</v>
       </c>
       <c r="F45" t="n">
-        <v>2420</v>
+        <v>924.3584</v>
       </c>
       <c r="G45" t="n">
-        <v>-168045.77452778</v>
+        <v>-11063.53252778</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="K45" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2054,40 +2022,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C46" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D46" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E46" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F46" t="n">
-        <v>1140</v>
+        <v>706.9018</v>
       </c>
       <c r="G46" t="n">
-        <v>-168045.77452778</v>
+        <v>-11063.53252778</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>267</v>
-      </c>
-      <c r="K46" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2098,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>266.9</v>
+        <v>269</v>
       </c>
       <c r="C47" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D47" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E47" t="n">
-        <v>266.9</v>
+        <v>269</v>
       </c>
       <c r="F47" t="n">
-        <v>2075.6225</v>
+        <v>4903.4306</v>
       </c>
       <c r="G47" t="n">
-        <v>-168045.77452778</v>
+        <v>-11063.53252778</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2122,14 +2082,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2140,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>267</v>
+        <v>270.6</v>
       </c>
       <c r="C48" t="n">
-        <v>267</v>
+        <v>270.7</v>
       </c>
       <c r="D48" t="n">
-        <v>267</v>
+        <v>270.7</v>
       </c>
       <c r="E48" t="n">
-        <v>267</v>
+        <v>270.6</v>
       </c>
       <c r="F48" t="n">
-        <v>1070.321</v>
+        <v>13000</v>
       </c>
       <c r="G48" t="n">
-        <v>-168045.77452778</v>
+        <v>1936.467472220002</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2164,14 +2118,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2182,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>267</v>
+        <v>270.8</v>
       </c>
       <c r="C49" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D49" t="n">
-        <v>267</v>
+        <v>272.3</v>
       </c>
       <c r="E49" t="n">
-        <v>267</v>
+        <v>270.8</v>
       </c>
       <c r="F49" t="n">
-        <v>106.8202</v>
+        <v>12694.0441</v>
       </c>
       <c r="G49" t="n">
-        <v>-168045.77452778</v>
+        <v>14630.51157222</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2206,14 +2154,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2224,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>268</v>
+        <v>271.8</v>
       </c>
       <c r="C50" t="n">
-        <v>267.8</v>
+        <v>271.8</v>
       </c>
       <c r="D50" t="n">
-        <v>268</v>
+        <v>271.8</v>
       </c>
       <c r="E50" t="n">
-        <v>267.8</v>
+        <v>271.8</v>
       </c>
       <c r="F50" t="n">
-        <v>4569.1213</v>
+        <v>3</v>
       </c>
       <c r="G50" t="n">
-        <v>-163476.65322778</v>
+        <v>14633.51157222</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2248,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2266,38 +2202,32 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>267.8</v>
+        <v>270</v>
       </c>
       <c r="C51" t="n">
-        <v>267.8</v>
+        <v>270</v>
       </c>
       <c r="D51" t="n">
-        <v>267.8</v>
+        <v>270</v>
       </c>
       <c r="E51" t="n">
-        <v>267.8</v>
+        <v>270</v>
       </c>
       <c r="F51" t="n">
-        <v>341.4</v>
+        <v>5</v>
       </c>
       <c r="G51" t="n">
-        <v>-163476.65322778</v>
+        <v>14628.51157222</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2308,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>267.8</v>
+        <v>269</v>
       </c>
       <c r="C52" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D52" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E52" t="n">
-        <v>267.8</v>
+        <v>269</v>
       </c>
       <c r="F52" t="n">
-        <v>483.5425</v>
+        <v>10421.2351</v>
       </c>
       <c r="G52" t="n">
-        <v>-162993.11072778</v>
+        <v>4207.276472220001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2332,14 +2262,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2350,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>266.9</v>
+        <v>269</v>
       </c>
       <c r="C53" t="n">
-        <v>267.8</v>
+        <v>268.8</v>
       </c>
       <c r="D53" t="n">
-        <v>267.9</v>
+        <v>269</v>
       </c>
       <c r="E53" t="n">
-        <v>266.9</v>
+        <v>268.8</v>
       </c>
       <c r="F53" t="n">
-        <v>3156.3813</v>
+        <v>6595.2328</v>
       </c>
       <c r="G53" t="n">
-        <v>-166149.49202778</v>
+        <v>-2387.956327779999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2374,14 +2298,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2392,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>266.9</v>
+        <v>268.8</v>
       </c>
       <c r="C54" t="n">
-        <v>266.9</v>
+        <v>268.8</v>
       </c>
       <c r="D54" t="n">
-        <v>266.9</v>
+        <v>268.8</v>
       </c>
       <c r="E54" t="n">
-        <v>266.9</v>
+        <v>268.8</v>
       </c>
       <c r="F54" t="n">
-        <v>3669.9804</v>
+        <v>3615.4518</v>
       </c>
       <c r="G54" t="n">
-        <v>-169819.47242778</v>
+        <v>-2387.956327779999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2416,14 +2334,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2434,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>267.3</v>
+        <v>268.7</v>
       </c>
       <c r="C55" t="n">
-        <v>267.3</v>
+        <v>268.7</v>
       </c>
       <c r="D55" t="n">
-        <v>267.3</v>
+        <v>268.7</v>
       </c>
       <c r="E55" t="n">
-        <v>267.3</v>
+        <v>268.7</v>
       </c>
       <c r="F55" t="n">
-        <v>474.1869</v>
+        <v>4055.76</v>
       </c>
       <c r="G55" t="n">
-        <v>-169345.28552778</v>
+        <v>-6443.716327779999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2458,14 +2370,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2476,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>266.5</v>
+        <v>268.7</v>
       </c>
       <c r="C56" t="n">
-        <v>266.5</v>
+        <v>268.5</v>
       </c>
       <c r="D56" t="n">
-        <v>266.5</v>
+        <v>268.7</v>
       </c>
       <c r="E56" t="n">
-        <v>266.5</v>
+        <v>268.5</v>
       </c>
       <c r="F56" t="n">
-        <v>2074.6099</v>
+        <v>2394.5777</v>
       </c>
       <c r="G56" t="n">
-        <v>-171419.89542778</v>
+        <v>-8838.294027779999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2500,14 +2406,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2518,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>266.1</v>
+        <v>268.5</v>
       </c>
       <c r="C57" t="n">
-        <v>266.1</v>
+        <v>268.1</v>
       </c>
       <c r="D57" t="n">
-        <v>266.1</v>
+        <v>268.5</v>
       </c>
       <c r="E57" t="n">
-        <v>266.1</v>
+        <v>268.1</v>
       </c>
       <c r="F57" t="n">
-        <v>785.7942</v>
+        <v>10365.8568</v>
       </c>
       <c r="G57" t="n">
-        <v>-172205.68962778</v>
+        <v>-19204.15082778</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2542,14 +2442,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2560,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>265.7</v>
+        <v>268.1</v>
       </c>
       <c r="C58" t="n">
-        <v>265.7</v>
+        <v>268.1</v>
       </c>
       <c r="D58" t="n">
-        <v>265.7</v>
+        <v>268.1</v>
       </c>
       <c r="E58" t="n">
-        <v>265.7</v>
+        <v>268.1</v>
       </c>
       <c r="F58" t="n">
-        <v>5018.9997</v>
+        <v>913.7034</v>
       </c>
       <c r="G58" t="n">
-        <v>-177224.68932778</v>
+        <v>-19204.15082778</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2584,14 +2478,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2602,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>265.7</v>
+        <v>268.1</v>
       </c>
       <c r="C59" t="n">
-        <v>265.7</v>
+        <v>268.1</v>
       </c>
       <c r="D59" t="n">
-        <v>265.7</v>
+        <v>268.1</v>
       </c>
       <c r="E59" t="n">
-        <v>265.7</v>
+        <v>268.1</v>
       </c>
       <c r="F59" t="n">
-        <v>2525.8131</v>
+        <v>511</v>
       </c>
       <c r="G59" t="n">
-        <v>-177224.68932778</v>
+        <v>-19204.15082778</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2626,14 +2514,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2644,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>265.7</v>
+        <v>268.1</v>
       </c>
       <c r="C60" t="n">
-        <v>265.7</v>
+        <v>268.1</v>
       </c>
       <c r="D60" t="n">
-        <v>265.7</v>
+        <v>268.1</v>
       </c>
       <c r="E60" t="n">
-        <v>265.7</v>
+        <v>268.1</v>
       </c>
       <c r="F60" t="n">
-        <v>72.6561</v>
+        <v>300</v>
       </c>
       <c r="G60" t="n">
-        <v>-177224.68932778</v>
+        <v>-19204.15082778</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2668,14 +2550,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2686,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>265.1</v>
+        <v>268.1</v>
       </c>
       <c r="C61" t="n">
-        <v>265.1</v>
+        <v>268.1</v>
       </c>
       <c r="D61" t="n">
-        <v>265.1</v>
+        <v>268.1</v>
       </c>
       <c r="E61" t="n">
-        <v>265.1</v>
+        <v>268.1</v>
       </c>
       <c r="F61" t="n">
-        <v>2060</v>
+        <v>255.8105</v>
       </c>
       <c r="G61" t="n">
-        <v>-179284.68932778</v>
+        <v>-19204.15082778</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2710,14 +2586,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2728,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>265.1</v>
+        <v>268.1</v>
       </c>
       <c r="C62" t="n">
-        <v>265.1</v>
+        <v>268</v>
       </c>
       <c r="D62" t="n">
-        <v>265.1</v>
+        <v>268.1</v>
       </c>
       <c r="E62" t="n">
-        <v>265.1</v>
+        <v>268</v>
       </c>
       <c r="F62" t="n">
-        <v>244.9352</v>
+        <v>6296.7658</v>
       </c>
       <c r="G62" t="n">
-        <v>-179284.68932778</v>
+        <v>-25500.91662778</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2752,14 +2622,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2770,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>264.5</v>
+        <v>268</v>
       </c>
       <c r="C63" t="n">
-        <v>264.4</v>
+        <v>267.7</v>
       </c>
       <c r="D63" t="n">
-        <v>264.5</v>
+        <v>268</v>
       </c>
       <c r="E63" t="n">
-        <v>264.4</v>
+        <v>267.7</v>
       </c>
       <c r="F63" t="n">
-        <v>4260</v>
+        <v>4676</v>
       </c>
       <c r="G63" t="n">
-        <v>-183544.68932778</v>
+        <v>-30176.91662778</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2794,14 +2658,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2812,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>264.4</v>
+        <v>267.7</v>
       </c>
       <c r="C64" t="n">
-        <v>264</v>
+        <v>268.9</v>
       </c>
       <c r="D64" t="n">
-        <v>264.4</v>
+        <v>268.9</v>
       </c>
       <c r="E64" t="n">
-        <v>264</v>
+        <v>267.7</v>
       </c>
       <c r="F64" t="n">
-        <v>15147.4452</v>
+        <v>14089.4452</v>
       </c>
       <c r="G64" t="n">
-        <v>-198692.13452778</v>
+        <v>-16087.47142778</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2836,14 +2694,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2854,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>264.7</v>
+        <v>267.7</v>
       </c>
       <c r="C65" t="n">
-        <v>264.7</v>
+        <v>267.7</v>
       </c>
       <c r="D65" t="n">
-        <v>264.7</v>
+        <v>267.7</v>
       </c>
       <c r="E65" t="n">
-        <v>264.7</v>
+        <v>267.7</v>
       </c>
       <c r="F65" t="n">
-        <v>2.7749</v>
+        <v>162.93</v>
       </c>
       <c r="G65" t="n">
-        <v>-198689.35962778</v>
+        <v>-16250.40142778</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2878,14 +2730,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2896,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>264.6</v>
+        <v>267.7</v>
       </c>
       <c r="C66" t="n">
-        <v>264.6</v>
+        <v>267.5</v>
       </c>
       <c r="D66" t="n">
-        <v>265.6</v>
+        <v>267.7</v>
       </c>
       <c r="E66" t="n">
-        <v>264.6</v>
+        <v>267.5</v>
       </c>
       <c r="F66" t="n">
-        <v>1321.8</v>
+        <v>3053.3728</v>
       </c>
       <c r="G66" t="n">
-        <v>-200011.15962778</v>
+        <v>-19303.77422778</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2920,14 +2766,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2938,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>264.6</v>
+        <v>267.5</v>
       </c>
       <c r="C67" t="n">
-        <v>264.4</v>
+        <v>267.5</v>
       </c>
       <c r="D67" t="n">
-        <v>264.6</v>
+        <v>267.5</v>
       </c>
       <c r="E67" t="n">
-        <v>264.4</v>
+        <v>267.5</v>
       </c>
       <c r="F67" t="n">
-        <v>12645.0405</v>
+        <v>5017.8907</v>
       </c>
       <c r="G67" t="n">
-        <v>-212656.20012778</v>
+        <v>-19303.77422778</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2962,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2980,40 +2814,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>266.1</v>
+        <v>267.5</v>
       </c>
       <c r="C68" t="n">
-        <v>266.1</v>
+        <v>267</v>
       </c>
       <c r="D68" t="n">
-        <v>266.6</v>
+        <v>267.5</v>
       </c>
       <c r="E68" t="n">
-        <v>266.1</v>
+        <v>267</v>
       </c>
       <c r="F68" t="n">
-        <v>21592.1345</v>
+        <v>20133.9437</v>
       </c>
       <c r="G68" t="n">
-        <v>-191064.06562778</v>
+        <v>-39437.71792778</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="K68" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3024,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>266.5</v>
+        <v>267.1</v>
       </c>
       <c r="C69" t="n">
-        <v>267.6</v>
+        <v>267.1</v>
       </c>
       <c r="D69" t="n">
-        <v>267.6</v>
+        <v>267.1</v>
       </c>
       <c r="E69" t="n">
-        <v>266.5</v>
+        <v>267.1</v>
       </c>
       <c r="F69" t="n">
-        <v>16443.61720986</v>
+        <v>1716.5677</v>
       </c>
       <c r="G69" t="n">
-        <v>-174620.44841792</v>
+        <v>-37721.15022778</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3048,14 +2874,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3066,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>266.7</v>
+        <v>267.1</v>
       </c>
       <c r="C70" t="n">
-        <v>266.7</v>
+        <v>266.6</v>
       </c>
       <c r="D70" t="n">
-        <v>266.7</v>
+        <v>267.1</v>
       </c>
       <c r="E70" t="n">
-        <v>266.7</v>
+        <v>266.6</v>
       </c>
       <c r="F70" t="n">
-        <v>984.0999</v>
+        <v>10162.2665</v>
       </c>
       <c r="G70" t="n">
-        <v>-175604.54831792</v>
+        <v>-47883.41672778</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3090,14 +2910,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3111,19 +2925,19 @@
         <v>266.7</v>
       </c>
       <c r="C71" t="n">
+        <v>266.6</v>
+      </c>
+      <c r="D71" t="n">
         <v>266.7</v>
       </c>
-      <c r="D71" t="n">
-        <v>266.8</v>
-      </c>
       <c r="E71" t="n">
-        <v>266.7</v>
+        <v>266.6</v>
       </c>
       <c r="F71" t="n">
-        <v>4419.0504</v>
+        <v>1529.7362</v>
       </c>
       <c r="G71" t="n">
-        <v>-175604.54831792</v>
+        <v>-47883.41672778</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3132,14 +2946,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3150,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>266.7</v>
+        <v>266.6</v>
       </c>
       <c r="C72" t="n">
-        <v>266.7</v>
+        <v>267.7</v>
       </c>
       <c r="D72" t="n">
-        <v>266.7</v>
+        <v>267.7</v>
       </c>
       <c r="E72" t="n">
-        <v>266.7</v>
+        <v>266.6</v>
       </c>
       <c r="F72" t="n">
-        <v>1617.5843</v>
+        <v>1524.1241</v>
       </c>
       <c r="G72" t="n">
-        <v>-175604.54831792</v>
+        <v>-46359.29262778</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3174,14 +2982,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3204,10 +3006,10 @@
         <v>267.7</v>
       </c>
       <c r="F73" t="n">
-        <v>1117.8619</v>
+        <v>2390.7324</v>
       </c>
       <c r="G73" t="n">
-        <v>-174486.68641792</v>
+        <v>-46359.29262778</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3216,14 +3018,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3234,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>266.5</v>
+        <v>267.2</v>
       </c>
       <c r="C74" t="n">
-        <v>266.5</v>
+        <v>267.2</v>
       </c>
       <c r="D74" t="n">
-        <v>266.5</v>
+        <v>267.2</v>
       </c>
       <c r="E74" t="n">
-        <v>266.5</v>
+        <v>267.2</v>
       </c>
       <c r="F74" t="n">
-        <v>20</v>
+        <v>703.2109</v>
       </c>
       <c r="G74" t="n">
-        <v>-174506.68641792</v>
+        <v>-47062.50352778</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3258,14 +3054,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3276,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>267</v>
+        <v>267.2</v>
       </c>
       <c r="C75" t="n">
-        <v>268</v>
+        <v>267.2</v>
       </c>
       <c r="D75" t="n">
-        <v>268</v>
+        <v>267.2</v>
       </c>
       <c r="E75" t="n">
-        <v>267</v>
+        <v>267.2</v>
       </c>
       <c r="F75" t="n">
-        <v>7035.0181</v>
+        <v>3296.7891</v>
       </c>
       <c r="G75" t="n">
-        <v>-167471.6683179201</v>
+        <v>-47062.50352778</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3300,14 +3090,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3318,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>268.9</v>
+        <v>267.2</v>
       </c>
       <c r="C76" t="n">
-        <v>269.7</v>
+        <v>267.2</v>
       </c>
       <c r="D76" t="n">
-        <v>269.7</v>
+        <v>267.2</v>
       </c>
       <c r="E76" t="n">
-        <v>268.9</v>
+        <v>267.2</v>
       </c>
       <c r="F76" t="n">
-        <v>5100</v>
+        <v>2302.9839</v>
       </c>
       <c r="G76" t="n">
-        <v>-162371.6683179201</v>
+        <v>-47062.50352778</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3342,14 +3126,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3360,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>268.7</v>
+        <v>266.5</v>
       </c>
       <c r="C77" t="n">
-        <v>270</v>
+        <v>265.5</v>
       </c>
       <c r="D77" t="n">
-        <v>270</v>
+        <v>266.5</v>
       </c>
       <c r="E77" t="n">
-        <v>268.7</v>
+        <v>265.5</v>
       </c>
       <c r="F77" t="n">
-        <v>1932.3881</v>
+        <v>17731.0287</v>
       </c>
       <c r="G77" t="n">
-        <v>-160439.2802179201</v>
+        <v>-64793.53222778</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3384,14 +3162,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3402,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>269.9</v>
+        <v>266.3</v>
       </c>
       <c r="C78" t="n">
-        <v>269.9</v>
+        <v>266.3</v>
       </c>
       <c r="D78" t="n">
-        <v>269.9</v>
+        <v>266.3</v>
       </c>
       <c r="E78" t="n">
-        <v>269.9</v>
+        <v>266.3</v>
       </c>
       <c r="F78" t="n">
-        <v>2.6022</v>
+        <v>169.3307</v>
       </c>
       <c r="G78" t="n">
-        <v>-160441.88241792</v>
+        <v>-64624.20152778</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3426,14 +3198,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3444,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>269.9</v>
+        <v>265.6</v>
       </c>
       <c r="C79" t="n">
-        <v>269.8</v>
+        <v>265.6</v>
       </c>
       <c r="D79" t="n">
-        <v>269.9</v>
+        <v>265.6</v>
       </c>
       <c r="E79" t="n">
-        <v>269.8</v>
+        <v>265.6</v>
       </c>
       <c r="F79" t="n">
-        <v>450.8684</v>
+        <v>2455.8765</v>
       </c>
       <c r="G79" t="n">
-        <v>-160892.7508179201</v>
+        <v>-67080.07802778001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3468,14 +3234,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3486,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>270</v>
+        <v>265.5</v>
       </c>
       <c r="C80" t="n">
-        <v>270</v>
+        <v>265.5</v>
       </c>
       <c r="D80" t="n">
-        <v>270</v>
+        <v>265.5</v>
       </c>
       <c r="E80" t="n">
-        <v>270</v>
+        <v>265.5</v>
       </c>
       <c r="F80" t="n">
-        <v>912.3951</v>
+        <v>42.3061</v>
       </c>
       <c r="G80" t="n">
-        <v>-159980.3557179201</v>
+        <v>-67122.38412778001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3510,14 +3270,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3528,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>270</v>
+        <v>265.3</v>
       </c>
       <c r="C81" t="n">
-        <v>270.6</v>
+        <v>265.3</v>
       </c>
       <c r="D81" t="n">
-        <v>270.6</v>
+        <v>265.3</v>
       </c>
       <c r="E81" t="n">
-        <v>270</v>
+        <v>265.3</v>
       </c>
       <c r="F81" t="n">
-        <v>2663.0003</v>
+        <v>1844.9206</v>
       </c>
       <c r="G81" t="n">
-        <v>-157317.35541792</v>
+        <v>-68967.30472778001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3552,14 +3306,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3570,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>270.6</v>
+        <v>265.3</v>
       </c>
       <c r="C82" t="n">
-        <v>270.6</v>
+        <v>265.1</v>
       </c>
       <c r="D82" t="n">
-        <v>270.6</v>
+        <v>265.3</v>
       </c>
       <c r="E82" t="n">
-        <v>270.6</v>
+        <v>265.1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0001</v>
+        <v>20000</v>
       </c>
       <c r="G82" t="n">
-        <v>-157317.35541792</v>
+        <v>-88967.30472778001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3594,14 +3342,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3612,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>270.7</v>
+        <v>265.1</v>
       </c>
       <c r="C83" t="n">
-        <v>270.6</v>
+        <v>265</v>
       </c>
       <c r="D83" t="n">
-        <v>270.7</v>
+        <v>265.1</v>
       </c>
       <c r="E83" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F83" t="n">
-        <v>21435.8893</v>
+        <v>10000</v>
       </c>
       <c r="G83" t="n">
-        <v>-157317.35541792</v>
+        <v>-98967.30472778001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3636,14 +3378,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3654,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>270.6</v>
+        <v>265.1</v>
       </c>
       <c r="C84" t="n">
-        <v>270.6</v>
+        <v>265</v>
       </c>
       <c r="D84" t="n">
-        <v>270.6</v>
+        <v>265.1</v>
       </c>
       <c r="E84" t="n">
-        <v>270.6</v>
+        <v>265</v>
       </c>
       <c r="F84" t="n">
-        <v>5180</v>
+        <v>10000</v>
       </c>
       <c r="G84" t="n">
-        <v>-157317.35541792</v>
+        <v>-98967.30472778001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3678,14 +3414,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3696,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>270.5</v>
+        <v>265</v>
       </c>
       <c r="C85" t="n">
-        <v>270.5</v>
+        <v>265</v>
       </c>
       <c r="D85" t="n">
-        <v>270.5</v>
+        <v>265</v>
       </c>
       <c r="E85" t="n">
-        <v>270.5</v>
+        <v>265</v>
       </c>
       <c r="F85" t="n">
-        <v>6220.3628</v>
+        <v>4149.4271</v>
       </c>
       <c r="G85" t="n">
-        <v>-163537.71821792</v>
+        <v>-98967.30472778001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3720,14 +3450,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3738,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>269.6</v>
+        <v>265</v>
       </c>
       <c r="C86" t="n">
-        <v>269.6</v>
+        <v>265</v>
       </c>
       <c r="D86" t="n">
-        <v>269.6</v>
+        <v>265</v>
       </c>
       <c r="E86" t="n">
-        <v>269.6</v>
+        <v>265</v>
       </c>
       <c r="F86" t="n">
-        <v>2939.6999</v>
+        <v>1017.3572</v>
       </c>
       <c r="G86" t="n">
-        <v>-166477.4181179201</v>
+        <v>-98967.30472778001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3762,14 +3486,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3780,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>269.6</v>
+        <v>265</v>
       </c>
       <c r="C87" t="n">
-        <v>269.6</v>
+        <v>265</v>
       </c>
       <c r="D87" t="n">
-        <v>269.6</v>
+        <v>265</v>
       </c>
       <c r="E87" t="n">
-        <v>269.6</v>
+        <v>265</v>
       </c>
       <c r="F87" t="n">
-        <v>5385.5642</v>
+        <v>1400</v>
       </c>
       <c r="G87" t="n">
-        <v>-166477.4181179201</v>
+        <v>-98967.30472778001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3804,14 +3522,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3822,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>269.6</v>
+        <v>265</v>
       </c>
       <c r="C88" t="n">
-        <v>269.6</v>
+        <v>265.3</v>
       </c>
       <c r="D88" t="n">
-        <v>269.6</v>
+        <v>265.3</v>
       </c>
       <c r="E88" t="n">
-        <v>269.6</v>
+        <v>265</v>
       </c>
       <c r="F88" t="n">
-        <v>1147.5212</v>
+        <v>7507.9753</v>
       </c>
       <c r="G88" t="n">
-        <v>-166477.4181179201</v>
+        <v>-91459.32942778</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3846,14 +3558,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3864,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>268.5</v>
+        <v>265</v>
       </c>
       <c r="C89" t="n">
-        <v>267.9</v>
+        <v>265</v>
       </c>
       <c r="D89" t="n">
-        <v>268.5</v>
+        <v>265</v>
       </c>
       <c r="E89" t="n">
-        <v>267.9</v>
+        <v>265</v>
       </c>
       <c r="F89" t="n">
-        <v>2602.2</v>
+        <v>700</v>
       </c>
       <c r="G89" t="n">
-        <v>-169079.6181179201</v>
+        <v>-92159.32942778</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3888,14 +3594,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3906,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>267.9</v>
+        <v>265</v>
       </c>
       <c r="C90" t="n">
-        <v>267.8</v>
+        <v>265</v>
       </c>
       <c r="D90" t="n">
-        <v>267.9</v>
+        <v>265</v>
       </c>
       <c r="E90" t="n">
-        <v>267.8</v>
+        <v>265</v>
       </c>
       <c r="F90" t="n">
-        <v>200</v>
+        <v>992.2332</v>
       </c>
       <c r="G90" t="n">
-        <v>-169279.6181179201</v>
+        <v>-92159.32942778</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3930,14 +3630,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3948,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>267.8</v>
+        <v>265.9</v>
       </c>
       <c r="C91" t="n">
-        <v>267.8</v>
+        <v>265.9</v>
       </c>
       <c r="D91" t="n">
-        <v>267.8</v>
+        <v>265.9</v>
       </c>
       <c r="E91" t="n">
-        <v>267.8</v>
+        <v>265.9</v>
       </c>
       <c r="F91" t="n">
-        <v>130</v>
+        <v>1700</v>
       </c>
       <c r="G91" t="n">
-        <v>-169279.6181179201</v>
+        <v>-90459.32942778</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3972,14 +3666,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3990,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>267.7</v>
+        <v>265.4</v>
       </c>
       <c r="C92" t="n">
-        <v>267.7</v>
+        <v>265.4</v>
       </c>
       <c r="D92" t="n">
-        <v>267.7</v>
+        <v>265.4</v>
       </c>
       <c r="E92" t="n">
-        <v>267.7</v>
+        <v>265.4</v>
       </c>
       <c r="F92" t="n">
-        <v>249.7394</v>
+        <v>1275</v>
       </c>
       <c r="G92" t="n">
-        <v>-169529.3575179201</v>
+        <v>-91734.32942778</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4014,14 +3702,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4032,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>267.7</v>
+        <v>265.4</v>
       </c>
       <c r="C93" t="n">
-        <v>267.7</v>
+        <v>265</v>
       </c>
       <c r="D93" t="n">
-        <v>267.7</v>
+        <v>265.4</v>
       </c>
       <c r="E93" t="n">
-        <v>267.7</v>
+        <v>265</v>
       </c>
       <c r="F93" t="n">
-        <v>626.4874</v>
+        <v>610.5300999999999</v>
       </c>
       <c r="G93" t="n">
-        <v>-169529.3575179201</v>
+        <v>-92344.85952778001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4056,14 +3738,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4074,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>266.5</v>
+        <v>265.8</v>
       </c>
       <c r="C94" t="n">
-        <v>266.5</v>
+        <v>265.8</v>
       </c>
       <c r="D94" t="n">
-        <v>266.5</v>
+        <v>265.8</v>
       </c>
       <c r="E94" t="n">
-        <v>266.5</v>
+        <v>265.8</v>
       </c>
       <c r="F94" t="n">
-        <v>2462</v>
+        <v>394.3662</v>
       </c>
       <c r="G94" t="n">
-        <v>-171991.3575179201</v>
+        <v>-91950.49332778</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4098,14 +3774,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4116,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>266.5</v>
+        <v>265.1</v>
       </c>
       <c r="C95" t="n">
-        <v>266.4</v>
+        <v>265</v>
       </c>
       <c r="D95" t="n">
-        <v>266.5</v>
+        <v>265.1</v>
       </c>
       <c r="E95" t="n">
-        <v>266.4</v>
+        <v>265</v>
       </c>
       <c r="F95" t="n">
-        <v>1873.0299</v>
+        <v>14000</v>
       </c>
       <c r="G95" t="n">
-        <v>-173864.3874179201</v>
+        <v>-105950.49332778</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4140,14 +3810,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4158,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>266.4</v>
+        <v>265</v>
       </c>
       <c r="C96" t="n">
-        <v>266.4</v>
+        <v>263.9</v>
       </c>
       <c r="D96" t="n">
-        <v>266.4</v>
+        <v>265</v>
       </c>
       <c r="E96" t="n">
-        <v>266.4</v>
+        <v>263.9</v>
       </c>
       <c r="F96" t="n">
-        <v>123.6247</v>
+        <v>47141.5976</v>
       </c>
       <c r="G96" t="n">
-        <v>-173864.3874179201</v>
+        <v>-153092.09092778</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4182,14 +3846,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4200,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>266.4</v>
+        <v>264</v>
       </c>
       <c r="C97" t="n">
-        <v>266.4</v>
+        <v>262.8</v>
       </c>
       <c r="D97" t="n">
-        <v>266.4</v>
+        <v>264</v>
       </c>
       <c r="E97" t="n">
-        <v>266.4</v>
+        <v>262.8</v>
       </c>
       <c r="F97" t="n">
-        <v>248.6571</v>
+        <v>12858.5616</v>
       </c>
       <c r="G97" t="n">
-        <v>-173864.3874179201</v>
+        <v>-165950.65252778</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4224,14 +3882,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4242,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>266.2</v>
+        <v>263.9</v>
       </c>
       <c r="C98" t="n">
-        <v>265</v>
+        <v>263.9</v>
       </c>
       <c r="D98" t="n">
-        <v>266.2</v>
+        <v>263.9</v>
       </c>
       <c r="E98" t="n">
-        <v>265</v>
+        <v>263.9</v>
       </c>
       <c r="F98" t="n">
-        <v>28733.8125</v>
+        <v>146.3</v>
       </c>
       <c r="G98" t="n">
-        <v>-202598.1999179201</v>
+        <v>-165804.35252778</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4266,14 +3918,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4284,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>267.7</v>
+        <v>263.9</v>
       </c>
       <c r="C99" t="n">
-        <v>267.7</v>
+        <v>263.9</v>
       </c>
       <c r="D99" t="n">
-        <v>267.7</v>
+        <v>263.9</v>
       </c>
       <c r="E99" t="n">
-        <v>267.7</v>
+        <v>263.9</v>
       </c>
       <c r="F99" t="n">
-        <v>8671.3112</v>
+        <v>996.1236</v>
       </c>
       <c r="G99" t="n">
-        <v>-193926.8887179201</v>
+        <v>-165804.35252778</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4308,14 +3954,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4326,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>267.7</v>
+        <v>263.9</v>
       </c>
       <c r="C100" t="n">
-        <v>268</v>
+        <v>263.9</v>
       </c>
       <c r="D100" t="n">
-        <v>268</v>
+        <v>263.9</v>
       </c>
       <c r="E100" t="n">
-        <v>267.7</v>
+        <v>263.9</v>
       </c>
       <c r="F100" t="n">
-        <v>5026.8403</v>
+        <v>2579.0737</v>
       </c>
       <c r="G100" t="n">
-        <v>-188900.04841792</v>
+        <v>-165804.35252778</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4350,14 +3990,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4368,40 +4002,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>267.7</v>
+        <v>263.9</v>
       </c>
       <c r="C101" t="n">
-        <v>267.7</v>
+        <v>263.9</v>
       </c>
       <c r="D101" t="n">
-        <v>267.7</v>
+        <v>263.9</v>
       </c>
       <c r="E101" t="n">
-        <v>267.7</v>
+        <v>263.9</v>
       </c>
       <c r="F101" t="n">
-        <v>176.9999</v>
+        <v>164.2747</v>
       </c>
       <c r="G101" t="n">
-        <v>-189077.04831792</v>
+        <v>-165804.35252778</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>268</v>
-      </c>
-      <c r="K101" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4412,40 +4038,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C102" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D102" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E102" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F102" t="n">
-        <v>372.2038</v>
+        <v>12.1541</v>
       </c>
       <c r="G102" t="n">
-        <v>-188704.84451792</v>
+        <v>-165792.19842778</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>267.7</v>
-      </c>
-      <c r="K102" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4456,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>267.5</v>
+        <v>264</v>
       </c>
       <c r="C103" t="n">
-        <v>267.5</v>
+        <v>263.7</v>
       </c>
       <c r="D103" t="n">
-        <v>267.5</v>
+        <v>264</v>
       </c>
       <c r="E103" t="n">
-        <v>267.5</v>
+        <v>263.7</v>
       </c>
       <c r="F103" t="n">
-        <v>406.2212</v>
+        <v>2751.5867</v>
       </c>
       <c r="G103" t="n">
-        <v>-189111.06571792</v>
+        <v>-168543.78512778</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4480,14 +4098,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4498,40 +4110,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>268.9</v>
+        <v>265.2</v>
       </c>
       <c r="C104" t="n">
-        <v>268.8</v>
+        <v>265.2</v>
       </c>
       <c r="D104" t="n">
-        <v>268.9</v>
+        <v>265.2</v>
       </c>
       <c r="E104" t="n">
-        <v>268.1</v>
+        <v>265.2</v>
       </c>
       <c r="F104" t="n">
-        <v>859.6635</v>
+        <v>3.7836</v>
       </c>
       <c r="G104" t="n">
-        <v>-188251.4022179201</v>
+        <v>-168540.00152778</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>267.5</v>
-      </c>
-      <c r="K104" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4542,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>269</v>
+        <v>263.2</v>
       </c>
       <c r="C105" t="n">
-        <v>269</v>
+        <v>263.2</v>
       </c>
       <c r="D105" t="n">
-        <v>269</v>
+        <v>263.2</v>
       </c>
       <c r="E105" t="n">
-        <v>269</v>
+        <v>263.2</v>
       </c>
       <c r="F105" t="n">
-        <v>1779.3648</v>
+        <v>2810</v>
       </c>
       <c r="G105" t="n">
-        <v>-186472.03741792</v>
+        <v>-171350.00152778</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4566,14 +4170,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4584,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>268.4</v>
+        <v>264</v>
       </c>
       <c r="C106" t="n">
-        <v>268.4</v>
+        <v>264</v>
       </c>
       <c r="D106" t="n">
-        <v>268.4</v>
+        <v>264</v>
       </c>
       <c r="E106" t="n">
-        <v>268.4</v>
+        <v>264</v>
       </c>
       <c r="F106" t="n">
-        <v>20</v>
+        <v>757.2271</v>
       </c>
       <c r="G106" t="n">
-        <v>-186492.03741792</v>
+        <v>-170592.77442778</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4608,14 +4206,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4626,40 +4218,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>268.2</v>
+        <v>264</v>
       </c>
       <c r="C107" t="n">
-        <v>268.2</v>
+        <v>264</v>
       </c>
       <c r="D107" t="n">
-        <v>268.2</v>
+        <v>264</v>
       </c>
       <c r="E107" t="n">
-        <v>268.2</v>
+        <v>264</v>
       </c>
       <c r="F107" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G107" t="n">
-        <v>-186512.03741792</v>
+        <v>-170592.77442778</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="K107" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4670,40 +4254,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>268.2</v>
+        <v>264</v>
       </c>
       <c r="C108" t="n">
-        <v>268.1</v>
+        <v>264</v>
       </c>
       <c r="D108" t="n">
-        <v>268.2</v>
+        <v>264</v>
       </c>
       <c r="E108" t="n">
-        <v>268.1</v>
+        <v>264</v>
       </c>
       <c r="F108" t="n">
-        <v>2365.3763</v>
+        <v>1070.321</v>
       </c>
       <c r="G108" t="n">
-        <v>-188877.41371792</v>
+        <v>-170592.77442778</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>268.2</v>
-      </c>
-      <c r="K108" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4714,40 +4290,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>268.1</v>
+        <v>264</v>
       </c>
       <c r="C109" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D109" t="n">
-        <v>268.1</v>
+        <v>264</v>
       </c>
       <c r="E109" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F109" t="n">
-        <v>3669.9804</v>
+        <v>1601.6946</v>
       </c>
       <c r="G109" t="n">
-        <v>-192547.39411792</v>
+        <v>-170592.77442778</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>268.1</v>
-      </c>
-      <c r="K109" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4758,40 +4326,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>268.2</v>
+        <v>264</v>
       </c>
       <c r="C110" t="n">
-        <v>268.2</v>
+        <v>264</v>
       </c>
       <c r="D110" t="n">
-        <v>268.2</v>
+        <v>264</v>
       </c>
       <c r="E110" t="n">
-        <v>268.2</v>
+        <v>264</v>
       </c>
       <c r="F110" t="n">
-        <v>5640.3941</v>
+        <v>2468.7405</v>
       </c>
       <c r="G110" t="n">
-        <v>-186907.00001792</v>
+        <v>-170592.77442778</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>268</v>
-      </c>
-      <c r="K110" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4802,40 +4362,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>268.2</v>
+        <v>264</v>
       </c>
       <c r="C111" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D111" t="n">
-        <v>268.2</v>
+        <v>264</v>
       </c>
       <c r="E111" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F111" t="n">
-        <v>12298.1208</v>
+        <v>1631.8495</v>
       </c>
       <c r="G111" t="n">
-        <v>-199205.12081792</v>
+        <v>-170592.77442778</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>268.2</v>
-      </c>
-      <c r="K111" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4846,40 +4398,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>267.9</v>
+        <v>264</v>
       </c>
       <c r="C112" t="n">
-        <v>267.9</v>
+        <v>264</v>
       </c>
       <c r="D112" t="n">
-        <v>267.9</v>
+        <v>264</v>
       </c>
       <c r="E112" t="n">
-        <v>267.9</v>
+        <v>264</v>
       </c>
       <c r="F112" t="n">
-        <v>20</v>
+        <v>934.1673</v>
       </c>
       <c r="G112" t="n">
-        <v>-199225.12081792</v>
+        <v>-170592.77442778</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>268</v>
-      </c>
-      <c r="K112" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4890,40 +4434,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>267.9</v>
+        <v>264</v>
       </c>
       <c r="C113" t="n">
-        <v>266.8</v>
+        <v>264</v>
       </c>
       <c r="D113" t="n">
-        <v>267.9</v>
+        <v>264</v>
       </c>
       <c r="E113" t="n">
-        <v>266.8</v>
+        <v>264</v>
       </c>
       <c r="F113" t="n">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="G113" t="n">
-        <v>-204025.12081792</v>
+        <v>-170592.77442778</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="K113" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4934,40 +4470,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>266.2</v>
+        <v>266.4</v>
       </c>
       <c r="C114" t="n">
-        <v>267.3</v>
+        <v>266.4</v>
       </c>
       <c r="D114" t="n">
-        <v>267.3</v>
+        <v>266.4</v>
       </c>
       <c r="E114" t="n">
-        <v>266.2</v>
+        <v>266.4</v>
       </c>
       <c r="F114" t="n">
-        <v>7</v>
+        <v>126.9999</v>
       </c>
       <c r="G114" t="n">
-        <v>-204018.12081792</v>
+        <v>-170465.77452778</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>266.8</v>
-      </c>
-      <c r="K114" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4978,40 +4506,32 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>266.3</v>
+        <v>266.4</v>
       </c>
       <c r="C115" t="n">
-        <v>266.3</v>
+        <v>266.4</v>
       </c>
       <c r="D115" t="n">
-        <v>266.3</v>
+        <v>266.4</v>
       </c>
       <c r="E115" t="n">
-        <v>266.3</v>
+        <v>266.4</v>
       </c>
       <c r="F115" t="n">
-        <v>249.7394</v>
+        <v>317.4575</v>
       </c>
       <c r="G115" t="n">
-        <v>-204267.86021792</v>
+        <v>-170465.77452778</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>267.3</v>
-      </c>
-      <c r="K115" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5022,40 +4542,32 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>266</v>
+      </c>
+      <c r="C116" t="n">
         <v>267</v>
       </c>
-      <c r="C116" t="n">
-        <v>267.3</v>
-      </c>
       <c r="D116" t="n">
-        <v>267.3</v>
+        <v>267</v>
       </c>
       <c r="E116" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F116" t="n">
-        <v>4092.6088</v>
+        <v>2420</v>
       </c>
       <c r="G116" t="n">
-        <v>-200175.2514179201</v>
+        <v>-168045.77452778</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>266.3</v>
-      </c>
-      <c r="K116" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5066,40 +4578,32 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>267.2</v>
+        <v>267</v>
       </c>
       <c r="C117" t="n">
-        <v>267.2</v>
+        <v>267</v>
       </c>
       <c r="D117" t="n">
-        <v>267.2</v>
+        <v>267</v>
       </c>
       <c r="E117" t="n">
-        <v>267.2</v>
+        <v>267</v>
       </c>
       <c r="F117" t="n">
-        <v>249.7394</v>
+        <v>1140</v>
       </c>
       <c r="G117" t="n">
-        <v>-200424.99081792</v>
+        <v>-168045.77452778</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>267.3</v>
-      </c>
-      <c r="K117" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5110,40 +4614,32 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>268.3</v>
+        <v>266.9</v>
       </c>
       <c r="C118" t="n">
-        <v>268.3</v>
+        <v>267</v>
       </c>
       <c r="D118" t="n">
-        <v>268.3</v>
+        <v>267</v>
       </c>
       <c r="E118" t="n">
-        <v>268.3</v>
+        <v>266.9</v>
       </c>
       <c r="F118" t="n">
-        <v>23.00037271</v>
+        <v>2075.6225</v>
       </c>
       <c r="G118" t="n">
-        <v>-200401.99044521</v>
+        <v>-168045.77452778</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>267.2</v>
-      </c>
-      <c r="K118" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5154,40 +4650,32 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>268.3</v>
+        <v>267</v>
       </c>
       <c r="C119" t="n">
-        <v>268.3</v>
+        <v>267</v>
       </c>
       <c r="D119" t="n">
-        <v>268.3</v>
+        <v>267</v>
       </c>
       <c r="E119" t="n">
-        <v>268.3</v>
+        <v>267</v>
       </c>
       <c r="F119" t="n">
-        <v>4224.00492729</v>
+        <v>1070.321</v>
       </c>
       <c r="G119" t="n">
-        <v>-200401.99044521</v>
+        <v>-168045.77452778</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>268.3</v>
-      </c>
-      <c r="K119" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5198,40 +4686,32 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>268.4</v>
+        <v>267</v>
       </c>
       <c r="C120" t="n">
-        <v>268.4</v>
+        <v>267</v>
       </c>
       <c r="D120" t="n">
-        <v>268.4</v>
+        <v>267</v>
       </c>
       <c r="E120" t="n">
-        <v>268.4</v>
+        <v>267</v>
       </c>
       <c r="F120" t="n">
-        <v>2435.2705</v>
+        <v>106.8202</v>
       </c>
       <c r="G120" t="n">
-        <v>-197966.71994521</v>
+        <v>-168045.77452778</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>268.3</v>
-      </c>
-      <c r="K120" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5242,40 +4722,32 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>268.4</v>
+        <v>268</v>
       </c>
       <c r="C121" t="n">
-        <v>268.4</v>
+        <v>267.8</v>
       </c>
       <c r="D121" t="n">
-        <v>268.4</v>
+        <v>268</v>
       </c>
       <c r="E121" t="n">
-        <v>268.4</v>
+        <v>267.8</v>
       </c>
       <c r="F121" t="n">
-        <v>1070.321</v>
+        <v>4569.1213</v>
       </c>
       <c r="G121" t="n">
-        <v>-197966.71994521</v>
+        <v>-163476.65322778</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="K121" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5286,40 +4758,32 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>268.4</v>
+        <v>267.8</v>
       </c>
       <c r="C122" t="n">
-        <v>268.4</v>
+        <v>267.8</v>
       </c>
       <c r="D122" t="n">
-        <v>268.4</v>
+        <v>267.8</v>
       </c>
       <c r="E122" t="n">
-        <v>268.4</v>
+        <v>267.8</v>
       </c>
       <c r="F122" t="n">
-        <v>2092.0291</v>
+        <v>341.4</v>
       </c>
       <c r="G122" t="n">
-        <v>-197966.71994521</v>
+        <v>-163476.65322778</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="K122" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5330,40 +4794,32 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>268.4</v>
+        <v>267.8</v>
       </c>
       <c r="C123" t="n">
-        <v>268.4</v>
+        <v>268</v>
       </c>
       <c r="D123" t="n">
-        <v>268.4</v>
+        <v>268</v>
       </c>
       <c r="E123" t="n">
-        <v>268.4</v>
+        <v>267.8</v>
       </c>
       <c r="F123" t="n">
-        <v>1070.9999</v>
+        <v>483.5425</v>
       </c>
       <c r="G123" t="n">
-        <v>-197966.71994521</v>
+        <v>-162993.11072778</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="K123" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5374,40 +4830,32 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>269</v>
+        <v>266.9</v>
       </c>
       <c r="C124" t="n">
-        <v>271.5</v>
+        <v>267.8</v>
       </c>
       <c r="D124" t="n">
-        <v>271.5</v>
+        <v>267.9</v>
       </c>
       <c r="E124" t="n">
-        <v>269</v>
+        <v>266.9</v>
       </c>
       <c r="F124" t="n">
-        <v>4971.8424</v>
+        <v>3156.3813</v>
       </c>
       <c r="G124" t="n">
-        <v>-192994.87754521</v>
+        <v>-166149.49202778</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="K124" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5418,22 +4866,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>270.6</v>
+        <v>266.9</v>
       </c>
       <c r="C125" t="n">
-        <v>270.6</v>
+        <v>266.9</v>
       </c>
       <c r="D125" t="n">
-        <v>270.6</v>
+        <v>266.9</v>
       </c>
       <c r="E125" t="n">
-        <v>270.6</v>
+        <v>266.9</v>
       </c>
       <c r="F125" t="n">
-        <v>871.2763</v>
+        <v>3669.9804</v>
       </c>
       <c r="G125" t="n">
-        <v>-193866.15384521</v>
+        <v>-169819.47242778</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5442,14 +4890,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5460,22 +4902,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>271.4</v>
+        <v>267.3</v>
       </c>
       <c r="C126" t="n">
-        <v>271.6</v>
+        <v>267.3</v>
       </c>
       <c r="D126" t="n">
-        <v>271.6</v>
+        <v>267.3</v>
       </c>
       <c r="E126" t="n">
-        <v>271.4</v>
+        <v>267.3</v>
       </c>
       <c r="F126" t="n">
-        <v>3861.5326</v>
+        <v>474.1869</v>
       </c>
       <c r="G126" t="n">
-        <v>-190004.62124521</v>
+        <v>-169345.28552778</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5484,14 +4926,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5502,22 +4938,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>271.6</v>
+        <v>266.5</v>
       </c>
       <c r="C127" t="n">
-        <v>271.6</v>
+        <v>266.5</v>
       </c>
       <c r="D127" t="n">
-        <v>271.6</v>
+        <v>266.5</v>
       </c>
       <c r="E127" t="n">
-        <v>271.6</v>
+        <v>266.5</v>
       </c>
       <c r="F127" t="n">
-        <v>2740</v>
+        <v>2074.6099</v>
       </c>
       <c r="G127" t="n">
-        <v>-190004.62124521</v>
+        <v>-171419.89542778</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5526,14 +4962,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5544,22 +4974,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>271.6</v>
+        <v>266.1</v>
       </c>
       <c r="C128" t="n">
-        <v>271.6</v>
+        <v>266.1</v>
       </c>
       <c r="D128" t="n">
-        <v>271.6</v>
+        <v>266.1</v>
       </c>
       <c r="E128" t="n">
-        <v>271.6</v>
+        <v>266.1</v>
       </c>
       <c r="F128" t="n">
-        <v>431.0019</v>
+        <v>785.7942</v>
       </c>
       <c r="G128" t="n">
-        <v>-190004.62124521</v>
+        <v>-172205.68962778</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5568,14 +4998,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5586,22 +5010,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>271.9</v>
+        <v>265.7</v>
       </c>
       <c r="C129" t="n">
-        <v>271.9</v>
+        <v>265.7</v>
       </c>
       <c r="D129" t="n">
-        <v>271.9</v>
+        <v>265.7</v>
       </c>
       <c r="E129" t="n">
-        <v>271.9</v>
+        <v>265.7</v>
       </c>
       <c r="F129" t="n">
-        <v>2620</v>
+        <v>5018.9997</v>
       </c>
       <c r="G129" t="n">
-        <v>-187384.62124521</v>
+        <v>-177224.68932778</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5610,14 +5034,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5628,22 +5046,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>271.9</v>
+        <v>265.7</v>
       </c>
       <c r="C130" t="n">
-        <v>272</v>
+        <v>265.7</v>
       </c>
       <c r="D130" t="n">
-        <v>272</v>
+        <v>265.7</v>
       </c>
       <c r="E130" t="n">
-        <v>271.9</v>
+        <v>265.7</v>
       </c>
       <c r="F130" t="n">
-        <v>2585.1552</v>
+        <v>2525.8131</v>
       </c>
       <c r="G130" t="n">
-        <v>-184799.46604521</v>
+        <v>-177224.68932778</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5652,14 +5070,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5670,22 +5082,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>272</v>
+        <v>265.7</v>
       </c>
       <c r="C131" t="n">
-        <v>272</v>
+        <v>265.7</v>
       </c>
       <c r="D131" t="n">
-        <v>272</v>
+        <v>265.7</v>
       </c>
       <c r="E131" t="n">
-        <v>272</v>
+        <v>265.7</v>
       </c>
       <c r="F131" t="n">
-        <v>134.3803</v>
+        <v>72.6561</v>
       </c>
       <c r="G131" t="n">
-        <v>-184799.46604521</v>
+        <v>-177224.68932778</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5694,14 +5106,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5712,22 +5118,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>272</v>
+        <v>265.1</v>
       </c>
       <c r="C132" t="n">
-        <v>272</v>
+        <v>265.1</v>
       </c>
       <c r="D132" t="n">
-        <v>272</v>
+        <v>265.1</v>
       </c>
       <c r="E132" t="n">
-        <v>272</v>
+        <v>265.1</v>
       </c>
       <c r="F132" t="n">
-        <v>937.9905</v>
+        <v>2060</v>
       </c>
       <c r="G132" t="n">
-        <v>-184799.46604521</v>
+        <v>-179284.68932778</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5736,14 +5142,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5754,38 +5154,36 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>272</v>
+        <v>265.1</v>
       </c>
       <c r="C133" t="n">
-        <v>272</v>
+        <v>265.1</v>
       </c>
       <c r="D133" t="n">
-        <v>272</v>
+        <v>265.1</v>
       </c>
       <c r="E133" t="n">
-        <v>272</v>
+        <v>265.1</v>
       </c>
       <c r="F133" t="n">
-        <v>831.9299</v>
+        <v>244.9352</v>
       </c>
       <c r="G133" t="n">
-        <v>-184799.46604521</v>
+        <v>-179284.68932778</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>265.1</v>
+      </c>
       <c r="K133" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>265.1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5796,36 +5194,38 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>272.8</v>
+        <v>264.5</v>
       </c>
       <c r="C134" t="n">
-        <v>273.8</v>
+        <v>264.4</v>
       </c>
       <c r="D134" t="n">
-        <v>273.8</v>
+        <v>264.5</v>
       </c>
       <c r="E134" t="n">
-        <v>272.8</v>
+        <v>264.4</v>
       </c>
       <c r="F134" t="n">
-        <v>14642.35296197</v>
+        <v>4260</v>
       </c>
       <c r="G134" t="n">
-        <v>-170157.11308324</v>
+        <v>-183544.68932778</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>265.1</v>
+      </c>
       <c r="K134" t="n">
-        <v>266.4</v>
+        <v>265.1</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M134" t="n">
@@ -5838,32 +5238,34 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>272.7</v>
+        <v>264.4</v>
       </c>
       <c r="C135" t="n">
-        <v>272.7</v>
+        <v>264</v>
       </c>
       <c r="D135" t="n">
-        <v>272.7</v>
+        <v>264.4</v>
       </c>
       <c r="E135" t="n">
-        <v>272.7</v>
+        <v>264</v>
       </c>
       <c r="F135" t="n">
-        <v>5</v>
+        <v>15147.4452</v>
       </c>
       <c r="G135" t="n">
-        <v>-170162.11308324</v>
+        <v>-198692.13452778</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>264.4</v>
+      </c>
       <c r="K135" t="n">
-        <v>266.4</v>
+        <v>265.1</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5880,32 +5282,34 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>271.5</v>
+        <v>264.7</v>
       </c>
       <c r="C136" t="n">
-        <v>271.5</v>
+        <v>264.7</v>
       </c>
       <c r="D136" t="n">
-        <v>271.5</v>
+        <v>264.7</v>
       </c>
       <c r="E136" t="n">
-        <v>271.5</v>
+        <v>264.7</v>
       </c>
       <c r="F136" t="n">
-        <v>3143.935</v>
+        <v>2.7749</v>
       </c>
       <c r="G136" t="n">
-        <v>-173306.04808324</v>
+        <v>-198689.35962778</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>264</v>
+      </c>
       <c r="K136" t="n">
-        <v>266.4</v>
+        <v>265.1</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5922,32 +5326,34 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>271.5</v>
+        <v>264.6</v>
       </c>
       <c r="C137" t="n">
-        <v>271.5</v>
+        <v>264.6</v>
       </c>
       <c r="D137" t="n">
-        <v>271.5</v>
+        <v>265.6</v>
       </c>
       <c r="E137" t="n">
-        <v>271.5</v>
+        <v>264.6</v>
       </c>
       <c r="F137" t="n">
-        <v>901.2575000000001</v>
+        <v>1321.8</v>
       </c>
       <c r="G137" t="n">
-        <v>-173306.04808324</v>
+        <v>-200011.15962778</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>264.7</v>
+      </c>
       <c r="K137" t="n">
-        <v>266.4</v>
+        <v>265.1</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5964,32 +5370,34 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>272.3</v>
+        <v>264.6</v>
       </c>
       <c r="C138" t="n">
-        <v>272.5</v>
+        <v>264.4</v>
       </c>
       <c r="D138" t="n">
-        <v>272.8</v>
+        <v>264.6</v>
       </c>
       <c r="E138" t="n">
-        <v>272.3</v>
+        <v>264.4</v>
       </c>
       <c r="F138" t="n">
-        <v>2233.9839</v>
+        <v>12645.0405</v>
       </c>
       <c r="G138" t="n">
-        <v>-171072.06418324</v>
+        <v>-212656.20012778</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>264.6</v>
+      </c>
       <c r="K138" t="n">
-        <v>266.4</v>
+        <v>265.1</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -6006,32 +5414,34 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>272.8</v>
+        <v>266.1</v>
       </c>
       <c r="C139" t="n">
-        <v>272.8</v>
+        <v>266.1</v>
       </c>
       <c r="D139" t="n">
-        <v>272.8</v>
+        <v>266.6</v>
       </c>
       <c r="E139" t="n">
-        <v>272.8</v>
+        <v>266.1</v>
       </c>
       <c r="F139" t="n">
-        <v>142.7158</v>
+        <v>21592.1345</v>
       </c>
       <c r="G139" t="n">
-        <v>-170929.34838324</v>
+        <v>-191064.06562778</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>264.4</v>
+      </c>
       <c r="K139" t="n">
-        <v>266.4</v>
+        <v>265.1</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -6048,32 +5458,34 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>274</v>
+        <v>266.5</v>
       </c>
       <c r="C140" t="n">
-        <v>274</v>
+        <v>267.6</v>
       </c>
       <c r="D140" t="n">
-        <v>274</v>
+        <v>267.6</v>
       </c>
       <c r="E140" t="n">
-        <v>274</v>
+        <v>266.5</v>
       </c>
       <c r="F140" t="n">
-        <v>2.3761</v>
+        <v>16443.61720986</v>
       </c>
       <c r="G140" t="n">
-        <v>-170926.97228324</v>
+        <v>-174620.44841792</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>266.1</v>
+      </c>
       <c r="K140" t="n">
-        <v>266.4</v>
+        <v>265.1</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6090,32 +5502,34 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>274</v>
+        <v>266.7</v>
       </c>
       <c r="C141" t="n">
-        <v>274</v>
+        <v>266.7</v>
       </c>
       <c r="D141" t="n">
-        <v>274</v>
+        <v>266.7</v>
       </c>
       <c r="E141" t="n">
-        <v>274</v>
+        <v>266.7</v>
       </c>
       <c r="F141" t="n">
-        <v>3173.5789</v>
+        <v>984.0999</v>
       </c>
       <c r="G141" t="n">
-        <v>-170926.97228324</v>
+        <v>-175604.54831792</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>267.6</v>
+      </c>
       <c r="K141" t="n">
-        <v>266.4</v>
+        <v>265.1</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6132,32 +5546,34 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>274.5</v>
+        <v>266.7</v>
       </c>
       <c r="C142" t="n">
-        <v>274.8</v>
+        <v>266.7</v>
       </c>
       <c r="D142" t="n">
-        <v>274.8</v>
+        <v>266.8</v>
       </c>
       <c r="E142" t="n">
-        <v>274.5</v>
+        <v>266.7</v>
       </c>
       <c r="F142" t="n">
-        <v>3600</v>
+        <v>4419.0504</v>
       </c>
       <c r="G142" t="n">
-        <v>-167326.97228324</v>
+        <v>-175604.54831792</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>266.7</v>
+      </c>
       <c r="K142" t="n">
-        <v>266.4</v>
+        <v>265.1</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6174,22 +5590,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>274.5</v>
+        <v>266.7</v>
       </c>
       <c r="C143" t="n">
-        <v>274.5</v>
+        <v>266.7</v>
       </c>
       <c r="D143" t="n">
-        <v>274.5</v>
+        <v>266.7</v>
       </c>
       <c r="E143" t="n">
-        <v>274.5</v>
+        <v>266.7</v>
       </c>
       <c r="F143" t="n">
-        <v>2000</v>
+        <v>1617.5843</v>
       </c>
       <c r="G143" t="n">
-        <v>-169326.97228324</v>
+        <v>-175604.54831792</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6199,7 +5615,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>266.4</v>
+        <v>265.1</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6216,40 +5632,40 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>274.5</v>
+        <v>267.7</v>
       </c>
       <c r="C144" t="n">
-        <v>275.5</v>
+        <v>267.7</v>
       </c>
       <c r="D144" t="n">
-        <v>275.5</v>
+        <v>267.7</v>
       </c>
       <c r="E144" t="n">
-        <v>274.5</v>
+        <v>267.7</v>
       </c>
       <c r="F144" t="n">
-        <v>9994.87143822</v>
+        <v>1117.8619</v>
       </c>
       <c r="G144" t="n">
-        <v>-159332.10084502</v>
+        <v>-174486.68641792</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>266.4</v>
+        <v>265.1</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>1.029159159159159</v>
+        <v>1</v>
       </c>
       <c r="N144" t="inlineStr"/>
     </row>
@@ -6258,32 +5674,38 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>274.5</v>
+        <v>266.5</v>
       </c>
       <c r="C145" t="n">
-        <v>274.5</v>
+        <v>266.5</v>
       </c>
       <c r="D145" t="n">
-        <v>274.5</v>
+        <v>266.5</v>
       </c>
       <c r="E145" t="n">
-        <v>274.5</v>
+        <v>266.5</v>
       </c>
       <c r="F145" t="n">
-        <v>868.2604</v>
+        <v>20</v>
       </c>
       <c r="G145" t="n">
-        <v>-160200.36124502</v>
+        <v>-174506.68641792</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6294,32 +5716,38 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>274.5</v>
+        <v>267</v>
       </c>
       <c r="C146" t="n">
-        <v>274.5</v>
+        <v>268</v>
       </c>
       <c r="D146" t="n">
-        <v>274.5</v>
+        <v>268</v>
       </c>
       <c r="E146" t="n">
-        <v>274.5</v>
+        <v>267</v>
       </c>
       <c r="F146" t="n">
-        <v>370.7396</v>
+        <v>7035.0181</v>
       </c>
       <c r="G146" t="n">
-        <v>-160200.36124502</v>
+        <v>-167471.6683179201</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6330,32 +5758,38 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>275.4</v>
+        <v>268.9</v>
       </c>
       <c r="C147" t="n">
-        <v>274.5</v>
+        <v>269.7</v>
       </c>
       <c r="D147" t="n">
-        <v>275.5</v>
+        <v>269.7</v>
       </c>
       <c r="E147" t="n">
-        <v>274.5</v>
+        <v>268.9</v>
       </c>
       <c r="F147" t="n">
-        <v>17545.2831</v>
+        <v>5100</v>
       </c>
       <c r="G147" t="n">
-        <v>-160200.36124502</v>
+        <v>-162371.6683179201</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6366,32 +5800,38 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>274.5</v>
+        <v>268.7</v>
       </c>
       <c r="C148" t="n">
-        <v>274.5</v>
+        <v>270</v>
       </c>
       <c r="D148" t="n">
-        <v>274.5</v>
+        <v>270</v>
       </c>
       <c r="E148" t="n">
-        <v>274.5</v>
+        <v>268.7</v>
       </c>
       <c r="F148" t="n">
-        <v>16308.0954</v>
+        <v>1932.3881</v>
       </c>
       <c r="G148" t="n">
-        <v>-160200.36124502</v>
+        <v>-160439.2802179201</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6402,32 +5842,38 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>274.5</v>
+        <v>269.9</v>
       </c>
       <c r="C149" t="n">
-        <v>274.5</v>
+        <v>269.9</v>
       </c>
       <c r="D149" t="n">
-        <v>274.5</v>
+        <v>269.9</v>
       </c>
       <c r="E149" t="n">
-        <v>274.5</v>
+        <v>269.9</v>
       </c>
       <c r="F149" t="n">
-        <v>989.4508</v>
+        <v>2.6022</v>
       </c>
       <c r="G149" t="n">
-        <v>-160200.36124502</v>
+        <v>-160441.88241792</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6438,32 +5884,38 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>274.5</v>
+        <v>269.9</v>
       </c>
       <c r="C150" t="n">
-        <v>273.7</v>
+        <v>269.8</v>
       </c>
       <c r="D150" t="n">
-        <v>274.5</v>
+        <v>269.9</v>
       </c>
       <c r="E150" t="n">
-        <v>273.7</v>
+        <v>269.8</v>
       </c>
       <c r="F150" t="n">
-        <v>9299.0576</v>
+        <v>450.8684</v>
       </c>
       <c r="G150" t="n">
-        <v>-169499.41884502</v>
+        <v>-160892.7508179201</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6474,32 +5926,38 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>273.7</v>
+        <v>270</v>
       </c>
       <c r="C151" t="n">
-        <v>273.7</v>
+        <v>270</v>
       </c>
       <c r="D151" t="n">
-        <v>273.7</v>
+        <v>270</v>
       </c>
       <c r="E151" t="n">
-        <v>273.7</v>
+        <v>270</v>
       </c>
       <c r="F151" t="n">
-        <v>111.9739</v>
+        <v>912.3951</v>
       </c>
       <c r="G151" t="n">
-        <v>-169499.41884502</v>
+        <v>-159980.3557179201</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6510,22 +5968,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>273.7</v>
+        <v>270</v>
       </c>
       <c r="C152" t="n">
-        <v>273.7</v>
+        <v>270.6</v>
       </c>
       <c r="D152" t="n">
-        <v>273.7</v>
+        <v>270.6</v>
       </c>
       <c r="E152" t="n">
-        <v>273.7</v>
+        <v>270</v>
       </c>
       <c r="F152" t="n">
-        <v>33.5359</v>
+        <v>2663.0003</v>
       </c>
       <c r="G152" t="n">
-        <v>-169499.41884502</v>
+        <v>-157317.35541792</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6534,8 +5992,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6546,22 +6010,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>273.7</v>
+        <v>270.6</v>
       </c>
       <c r="C153" t="n">
-        <v>273.7</v>
+        <v>270.6</v>
       </c>
       <c r="D153" t="n">
-        <v>273.7</v>
+        <v>270.6</v>
       </c>
       <c r="E153" t="n">
-        <v>273.7</v>
+        <v>270.6</v>
       </c>
       <c r="F153" t="n">
-        <v>3922.4654</v>
+        <v>0.0001</v>
       </c>
       <c r="G153" t="n">
-        <v>-169499.41884502</v>
+        <v>-157317.35541792</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6570,8 +6034,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6582,36 +6052,3024 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="C154" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="D154" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="E154" t="n">
+        <v>270</v>
+      </c>
+      <c r="F154" t="n">
+        <v>21435.8893</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-157317.35541792</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="C155" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="D155" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="E155" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="F155" t="n">
+        <v>5180</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-157317.35541792</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>270.5</v>
+      </c>
+      <c r="C156" t="n">
+        <v>270.5</v>
+      </c>
+      <c r="D156" t="n">
+        <v>270.5</v>
+      </c>
+      <c r="E156" t="n">
+        <v>270.5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>6220.3628</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-163537.71821792</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="C157" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="D157" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="E157" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2939.6999</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-166477.4181179201</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="C158" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="D158" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="E158" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="F158" t="n">
+        <v>5385.5642</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-166477.4181179201</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="C159" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="D159" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="E159" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1147.5212</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-166477.4181179201</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="C160" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="D160" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="E160" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2602.2</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-169079.6181179201</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="C161" t="n">
+        <v>267.8</v>
+      </c>
+      <c r="D161" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="E161" t="n">
+        <v>267.8</v>
+      </c>
+      <c r="F161" t="n">
+        <v>200</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-169279.6181179201</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>267.8</v>
+      </c>
+      <c r="C162" t="n">
+        <v>267.8</v>
+      </c>
+      <c r="D162" t="n">
+        <v>267.8</v>
+      </c>
+      <c r="E162" t="n">
+        <v>267.8</v>
+      </c>
+      <c r="F162" t="n">
+        <v>130</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-169279.6181179201</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="C163" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="D163" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="E163" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="F163" t="n">
+        <v>249.7394</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-169529.3575179201</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="C164" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="D164" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="E164" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="F164" t="n">
+        <v>626.4874</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-169529.3575179201</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="C165" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="D165" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="E165" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2462</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-171991.3575179201</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="C166" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="D166" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="E166" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1873.0299</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-173864.3874179201</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="C167" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="D167" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="E167" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="F167" t="n">
+        <v>123.6247</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-173864.3874179201</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="C168" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="D168" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="E168" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="F168" t="n">
+        <v>248.6571</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-173864.3874179201</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="C169" t="n">
+        <v>265</v>
+      </c>
+      <c r="D169" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="E169" t="n">
+        <v>265</v>
+      </c>
+      <c r="F169" t="n">
+        <v>28733.8125</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-202598.1999179201</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="C170" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="D170" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="E170" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="F170" t="n">
+        <v>8671.3112</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-193926.8887179201</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="C171" t="n">
+        <v>268</v>
+      </c>
+      <c r="D171" t="n">
+        <v>268</v>
+      </c>
+      <c r="E171" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="F171" t="n">
+        <v>5026.8403</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-188900.04841792</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="C172" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="D172" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="E172" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="F172" t="n">
+        <v>176.9999</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-189077.04831792</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>268</v>
+      </c>
+      <c r="C173" t="n">
+        <v>268</v>
+      </c>
+      <c r="D173" t="n">
+        <v>268</v>
+      </c>
+      <c r="E173" t="n">
+        <v>268</v>
+      </c>
+      <c r="F173" t="n">
+        <v>372.2038</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-188704.84451792</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>267.5</v>
+      </c>
+      <c r="C174" t="n">
+        <v>267.5</v>
+      </c>
+      <c r="D174" t="n">
+        <v>267.5</v>
+      </c>
+      <c r="E174" t="n">
+        <v>267.5</v>
+      </c>
+      <c r="F174" t="n">
+        <v>406.2212</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-189111.06571792</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>268.9</v>
+      </c>
+      <c r="C175" t="n">
+        <v>268.8</v>
+      </c>
+      <c r="D175" t="n">
+        <v>268.9</v>
+      </c>
+      <c r="E175" t="n">
+        <v>268.1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>859.6635</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-188251.4022179201</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>269</v>
+      </c>
+      <c r="C176" t="n">
+        <v>269</v>
+      </c>
+      <c r="D176" t="n">
+        <v>269</v>
+      </c>
+      <c r="E176" t="n">
+        <v>269</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1779.3648</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-186472.03741792</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="C177" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="D177" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="E177" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="F177" t="n">
+        <v>20</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-186492.03741792</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>268.2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>268.2</v>
+      </c>
+      <c r="D178" t="n">
+        <v>268.2</v>
+      </c>
+      <c r="E178" t="n">
+        <v>268.2</v>
+      </c>
+      <c r="F178" t="n">
+        <v>20</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-186512.03741792</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>268.2</v>
+      </c>
+      <c r="C179" t="n">
+        <v>268.1</v>
+      </c>
+      <c r="D179" t="n">
+        <v>268.2</v>
+      </c>
+      <c r="E179" t="n">
+        <v>268.1</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2365.3763</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-188877.41371792</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>268.1</v>
+      </c>
+      <c r="C180" t="n">
+        <v>268</v>
+      </c>
+      <c r="D180" t="n">
+        <v>268.1</v>
+      </c>
+      <c r="E180" t="n">
+        <v>268</v>
+      </c>
+      <c r="F180" t="n">
+        <v>3669.9804</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-192547.39411792</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>268.2</v>
+      </c>
+      <c r="C181" t="n">
+        <v>268.2</v>
+      </c>
+      <c r="D181" t="n">
+        <v>268.2</v>
+      </c>
+      <c r="E181" t="n">
+        <v>268.2</v>
+      </c>
+      <c r="F181" t="n">
+        <v>5640.3941</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-186907.00001792</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>268.2</v>
+      </c>
+      <c r="C182" t="n">
+        <v>268</v>
+      </c>
+      <c r="D182" t="n">
+        <v>268.2</v>
+      </c>
+      <c r="E182" t="n">
+        <v>268</v>
+      </c>
+      <c r="F182" t="n">
+        <v>12298.1208</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-199205.12081792</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="C183" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="D183" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="E183" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="F183" t="n">
+        <v>20</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-199225.12081792</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="C184" t="n">
+        <v>266.8</v>
+      </c>
+      <c r="D184" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="E184" t="n">
+        <v>266.8</v>
+      </c>
+      <c r="F184" t="n">
+        <v>4800</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-204025.12081792</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>267.3</v>
+      </c>
+      <c r="D185" t="n">
+        <v>267.3</v>
+      </c>
+      <c r="E185" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="F185" t="n">
+        <v>7</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-204018.12081792</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>266.3</v>
+      </c>
+      <c r="C186" t="n">
+        <v>266.3</v>
+      </c>
+      <c r="D186" t="n">
+        <v>266.3</v>
+      </c>
+      <c r="E186" t="n">
+        <v>266.3</v>
+      </c>
+      <c r="F186" t="n">
+        <v>249.7394</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-204267.86021792</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>267</v>
+      </c>
+      <c r="C187" t="n">
+        <v>267.3</v>
+      </c>
+      <c r="D187" t="n">
+        <v>267.3</v>
+      </c>
+      <c r="E187" t="n">
+        <v>267</v>
+      </c>
+      <c r="F187" t="n">
+        <v>4092.6088</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-200175.2514179201</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>267.2</v>
+      </c>
+      <c r="C188" t="n">
+        <v>267.2</v>
+      </c>
+      <c r="D188" t="n">
+        <v>267.2</v>
+      </c>
+      <c r="E188" t="n">
+        <v>267.2</v>
+      </c>
+      <c r="F188" t="n">
+        <v>249.7394</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-200424.99081792</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>268.3</v>
+      </c>
+      <c r="C189" t="n">
+        <v>268.3</v>
+      </c>
+      <c r="D189" t="n">
+        <v>268.3</v>
+      </c>
+      <c r="E189" t="n">
+        <v>268.3</v>
+      </c>
+      <c r="F189" t="n">
+        <v>23.00037271</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-200401.99044521</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>268.3</v>
+      </c>
+      <c r="C190" t="n">
+        <v>268.3</v>
+      </c>
+      <c r="D190" t="n">
+        <v>268.3</v>
+      </c>
+      <c r="E190" t="n">
+        <v>268.3</v>
+      </c>
+      <c r="F190" t="n">
+        <v>4224.00492729</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-200401.99044521</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="C191" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="D191" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="E191" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2435.2705</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-197966.71994521</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="C192" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="D192" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="E192" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1070.321</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-197966.71994521</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="C193" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="D193" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="E193" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2092.0291</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-197966.71994521</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="C194" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="D194" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="E194" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1070.9999</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-197966.71994521</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>269</v>
+      </c>
+      <c r="C195" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="D195" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="E195" t="n">
+        <v>269</v>
+      </c>
+      <c r="F195" t="n">
+        <v>4971.8424</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-192994.87754521</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="C196" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="E196" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="F196" t="n">
+        <v>871.2763</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-193866.15384521</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>271.4</v>
+      </c>
+      <c r="C197" t="n">
+        <v>271.6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>271.6</v>
+      </c>
+      <c r="E197" t="n">
+        <v>271.4</v>
+      </c>
+      <c r="F197" t="n">
+        <v>3861.5326</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-190004.62124521</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>271.6</v>
+      </c>
+      <c r="C198" t="n">
+        <v>271.6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>271.6</v>
+      </c>
+      <c r="E198" t="n">
+        <v>271.6</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2740</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-190004.62124521</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>271.6</v>
+      </c>
+      <c r="C199" t="n">
+        <v>271.6</v>
+      </c>
+      <c r="D199" t="n">
+        <v>271.6</v>
+      </c>
+      <c r="E199" t="n">
+        <v>271.6</v>
+      </c>
+      <c r="F199" t="n">
+        <v>431.0019</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-190004.62124521</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>271.9</v>
+      </c>
+      <c r="C200" t="n">
+        <v>271.9</v>
+      </c>
+      <c r="D200" t="n">
+        <v>271.9</v>
+      </c>
+      <c r="E200" t="n">
+        <v>271.9</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2620</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-187384.62124521</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>271.9</v>
+      </c>
+      <c r="C201" t="n">
+        <v>272</v>
+      </c>
+      <c r="D201" t="n">
+        <v>272</v>
+      </c>
+      <c r="E201" t="n">
+        <v>271.9</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2585.1552</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-184799.46604521</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>272</v>
+      </c>
+      <c r="C202" t="n">
+        <v>272</v>
+      </c>
+      <c r="D202" t="n">
+        <v>272</v>
+      </c>
+      <c r="E202" t="n">
+        <v>272</v>
+      </c>
+      <c r="F202" t="n">
+        <v>134.3803</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-184799.46604521</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>272</v>
+      </c>
+      <c r="C203" t="n">
+        <v>272</v>
+      </c>
+      <c r="D203" t="n">
+        <v>272</v>
+      </c>
+      <c r="E203" t="n">
+        <v>272</v>
+      </c>
+      <c r="F203" t="n">
+        <v>937.9905</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-184799.46604521</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>272</v>
+      </c>
+      <c r="C204" t="n">
+        <v>272</v>
+      </c>
+      <c r="D204" t="n">
+        <v>272</v>
+      </c>
+      <c r="E204" t="n">
+        <v>272</v>
+      </c>
+      <c r="F204" t="n">
+        <v>831.9299</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-184799.46604521</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="C205" t="n">
+        <v>273.8</v>
+      </c>
+      <c r="D205" t="n">
+        <v>273.8</v>
+      </c>
+      <c r="E205" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="F205" t="n">
+        <v>14642.35296197</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-170157.11308324</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="C206" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="D206" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="E206" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="F206" t="n">
+        <v>5</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-170162.11308324</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="C207" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="D207" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="E207" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="F207" t="n">
+        <v>3143.935</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-173306.04808324</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="C208" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="D208" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="E208" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="F208" t="n">
+        <v>901.2575000000001</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-173306.04808324</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>272.3</v>
+      </c>
+      <c r="C209" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="D209" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="E209" t="n">
+        <v>272.3</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2233.9839</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-171072.06418324</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="C210" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="D210" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="E210" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="F210" t="n">
+        <v>142.7158</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-170929.34838324</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>274</v>
+      </c>
+      <c r="C211" t="n">
+        <v>274</v>
+      </c>
+      <c r="D211" t="n">
+        <v>274</v>
+      </c>
+      <c r="E211" t="n">
+        <v>274</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2.3761</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-170926.97228324</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>274</v>
+      </c>
+      <c r="C212" t="n">
+        <v>274</v>
+      </c>
+      <c r="D212" t="n">
+        <v>274</v>
+      </c>
+      <c r="E212" t="n">
+        <v>274</v>
+      </c>
+      <c r="F212" t="n">
+        <v>3173.5789</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-170926.97228324</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="C213" t="n">
+        <v>274.8</v>
+      </c>
+      <c r="D213" t="n">
+        <v>274.8</v>
+      </c>
+      <c r="E213" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="F213" t="n">
+        <v>3600</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-167326.97228324</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="C214" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="D214" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="E214" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-169326.97228324</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="C215" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="D215" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="E215" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="F215" t="n">
+        <v>9994.87143822</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-159332.10084502</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="C216" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="D216" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="E216" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="F216" t="n">
+        <v>868.2604</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-160200.36124502</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="C217" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="D217" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="E217" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="F217" t="n">
+        <v>370.7396</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-160200.36124502</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>275.4</v>
+      </c>
+      <c r="C218" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="D218" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="E218" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="F218" t="n">
+        <v>17545.2831</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-160200.36124502</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="C219" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="D219" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="E219" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="F219" t="n">
+        <v>16308.0954</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-160200.36124502</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="C220" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="D220" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="E220" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="F220" t="n">
+        <v>989.4508</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-160200.36124502</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="C221" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="D221" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="E221" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="F221" t="n">
+        <v>9299.0576</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-169499.41884502</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="C222" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="D222" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="E222" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="F222" t="n">
+        <v>111.9739</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-169499.41884502</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="C223" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="D223" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="E223" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="F223" t="n">
+        <v>33.5359</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-169499.41884502</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="C224" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="D224" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="E224" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="F224" t="n">
+        <v>3922.4654</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-169499.41884502</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
         <v>273.1</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C225" t="n">
         <v>273.1</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D225" t="n">
         <v>273.1</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E225" t="n">
         <v>273.1</v>
       </c>
-      <c r="F154" t="n">
+      <c r="F225" t="n">
         <v>715.9143</v>
       </c>
-      <c r="G154" t="n">
+      <c r="G225" t="n">
         <v>-170215.33314502</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-26 BackTest MTL.xlsx
+++ b/BackTest/2020-01-26 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N225"/>
+  <dimension ref="A1:M225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>5234.412672220002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>7914.903672220002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>8114.903672220002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>6361.534772220002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>2352.604672220002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>3935.435572220002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>3859.435572220002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>3859.435572220002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>4679.035572220002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>4679.035572220002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>4679.035572220002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-2201.140027779998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-5361.275927779998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>4199.869372220001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>199.8693722200014</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-32.70072777999857</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-6609.429327779999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-11063.53252778</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>1936.467472220002</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>14628.51157222</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>4207.276472220001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>-2387.956327779999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>-2387.956327779999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>-8838.294027779999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>-19204.15082778</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>-19204.15082778</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>-19204.15082778</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>-19204.15082778</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>-19204.15082778</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>-25500.91662778</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>-30176.91662778</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>-16087.47142778</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>-16250.40142778</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>-19303.77422778</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>-19303.77422778</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>-39437.71792778</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>-37721.15022778</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>-47883.41672778</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>-47883.41672778</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>-46359.29262778</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>-47062.50352778</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>-64624.20152778</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,15 @@
         <v>-67080.07802778001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>-67122.38412778001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>-68967.30472778001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3091,15 @@
         <v>-88967.30472778001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>-98967.30472778001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,18 +3817,19 @@
         <v>-168540.00152778</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>263.7</v>
+      </c>
+      <c r="J104" t="n">
+        <v>263.7</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +3854,23 @@
         <v>-171350.00152778</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>265.2</v>
+      </c>
+      <c r="J105" t="n">
+        <v>263.7</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3897,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>263.7</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3936,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3969,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4002,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4035,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4068,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4416,18 +4099,19 @@
         <v>-170592.77442778</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="J112" t="n">
+        <v>264</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,18 +4136,23 @@
         <v>-170592.77442778</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="J113" t="n">
+        <v>264</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4488,18 +4177,23 @@
         <v>-170465.77452778</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="J114" t="n">
+        <v>264</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4524,18 +4218,19 @@
         <v>-170465.77452778</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
+        <v>266.4</v>
+      </c>
+      <c r="J115" t="n">
+        <v>266.4</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4257,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4296,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4335,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4374,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4413,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4452,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4491,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4530,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4569,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4608,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4647,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4686,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4725,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4764,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5064,18 +4801,23 @@
         <v>-177224.68932778</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+        <v>265.7</v>
+      </c>
+      <c r="J130" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5100,18 +4842,23 @@
         <v>-177224.68932778</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>265.7</v>
+      </c>
+      <c r="J131" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5136,18 +4883,23 @@
         <v>-179284.68932778</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>265.7</v>
+      </c>
+      <c r="J132" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5172,22 +4924,23 @@
         <v>-179284.68932778</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>265.1</v>
       </c>
       <c r="J133" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K133" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>266.4</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5212,26 +4965,23 @@
         <v>-183544.68932778</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>265.1</v>
       </c>
       <c r="J134" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K134" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>266.4</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5256,26 +5006,23 @@
         <v>-198692.13452778</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>264.4</v>
       </c>
       <c r="J135" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="K135" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>266.4</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5300,26 +5047,23 @@
         <v>-198689.35962778</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="J136" t="n">
-        <v>264</v>
-      </c>
-      <c r="K136" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>266.4</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5344,26 +5088,23 @@
         <v>-200011.15962778</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>264.7</v>
       </c>
       <c r="J137" t="n">
-        <v>264.7</v>
-      </c>
-      <c r="K137" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>266.4</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5388,26 +5129,23 @@
         <v>-212656.20012778</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>264.6</v>
       </c>
       <c r="J138" t="n">
-        <v>264.6</v>
-      </c>
-      <c r="K138" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>266.4</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5432,26 +5170,23 @@
         <v>-191064.06562778</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>264.4</v>
       </c>
       <c r="J139" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="K139" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>266.4</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5476,26 +5211,23 @@
         <v>-174620.44841792</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>266.1</v>
       </c>
       <c r="J140" t="n">
-        <v>266.1</v>
-      </c>
-      <c r="K140" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>266.4</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5520,26 +5252,23 @@
         <v>-175604.54831792</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>267.6</v>
       </c>
       <c r="J141" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="K141" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+        <v>266.4</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5564,26 +5293,21 @@
         <v>-175604.54831792</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>266.7</v>
-      </c>
-      <c r="K142" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>266.4</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5610,22 +5334,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5652,22 +5373,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5694,22 +5412,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5736,22 +5451,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5778,22 +5490,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5820,22 +5529,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5862,22 +5568,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5904,22 +5607,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5946,22 +5646,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5988,22 +5685,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6028,24 +5722,21 @@
         <v>-157317.35541792</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6070,24 +5761,21 @@
         <v>-157317.35541792</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6112,24 +5800,21 @@
         <v>-157317.35541792</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6156,22 +5841,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6198,22 +5880,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6240,22 +5919,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6282,22 +5958,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6324,22 +5997,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6366,22 +6036,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6408,22 +6075,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6450,22 +6114,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6492,22 +6153,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6534,22 +6192,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6574,24 +6229,21 @@
         <v>-173864.3874179201</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6616,24 +6268,21 @@
         <v>-173864.3874179201</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6658,24 +6307,21 @@
         <v>-173864.3874179201</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6700,24 +6346,21 @@
         <v>-202598.1999179201</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6742,24 +6385,21 @@
         <v>-193926.8887179201</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6784,24 +6424,21 @@
         <v>-188900.04841792</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6826,24 +6463,21 @@
         <v>-189077.04831792</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6868,24 +6502,21 @@
         <v>-188704.84451792</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6910,24 +6541,21 @@
         <v>-189111.06571792</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6952,24 +6580,21 @@
         <v>-188251.4022179201</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6994,24 +6619,21 @@
         <v>-186472.03741792</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7036,24 +6658,21 @@
         <v>-186492.03741792</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7078,24 +6697,21 @@
         <v>-186512.03741792</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7120,24 +6736,21 @@
         <v>-188877.41371792</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7162,24 +6775,21 @@
         <v>-192547.39411792</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7204,24 +6814,21 @@
         <v>-186907.00001792</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7246,24 +6853,21 @@
         <v>-199205.12081792</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7288,24 +6892,21 @@
         <v>-199225.12081792</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7332,22 +6933,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7374,22 +6972,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7416,22 +7011,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7458,22 +7050,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7500,22 +7089,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7542,22 +7128,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7584,22 +7167,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7626,22 +7206,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7668,22 +7245,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7710,22 +7284,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7752,22 +7323,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7794,22 +7362,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7834,24 +7399,21 @@
         <v>-193866.15384521</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7878,22 +7440,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7918,24 +7477,21 @@
         <v>-190004.62124521</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7960,24 +7516,21 @@
         <v>-190004.62124521</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8002,24 +7555,21 @@
         <v>-187384.62124521</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8046,22 +7596,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8088,22 +7635,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8130,22 +7674,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8170,24 +7711,21 @@
         <v>-184799.46604521</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8214,22 +7752,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8254,24 +7789,21 @@
         <v>-170162.11308324</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8298,22 +7830,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8340,22 +7869,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8382,22 +7908,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8424,22 +7947,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8466,22 +7986,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8508,22 +8025,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8550,22 +8064,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8592,22 +8103,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8634,22 +8142,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8674,24 +8179,21 @@
         <v>-160200.36124502</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1.025405405405406</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8716,24 +8218,15 @@
         <v>-160200.36124502</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8758,24 +8251,15 @@
         <v>-160200.36124502</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8802,22 +8286,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8844,22 +8319,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8886,22 +8352,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8928,22 +8385,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8970,22 +8418,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9012,22 +8451,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9054,24 +8484,15 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest MTL.xlsx
+++ b/BackTest/2020-01-26 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>5234.412672220002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>7914.903672220002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>8114.903672220002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>6361.534772220002</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2352.604672220002</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>3935.435572220002</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>3859.435572220002</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>3859.435572220002</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>4679.035572220002</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>4679.035572220002</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>4679.035572220002</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>4169.235572220002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-2201.140027779998</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1148.444927779999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2123.059927779998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2877.059927779998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-6954.059827779998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-5334.112627779998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-5334.112627779998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-5361.275927779998</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>4199.869372220001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>4199.869372220001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>199.8693722200014</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>203.8693722200014</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-32.70072777999857</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-6609.429327779999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-11063.53252778</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-11063.53252778</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-11063.53252778</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-11063.53252778</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-11063.53252778</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>1936.467472220002</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>14630.51157222</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>14633.51157222</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>14628.51157222</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>4207.276472220001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-2387.956327779999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-2387.956327779999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-6443.716327779999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-8838.294027779999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-19204.15082778</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-19204.15082778</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-19204.15082778</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-19204.15082778</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-19204.15082778</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-25500.91662778</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-30176.91662778</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-16087.47142778</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-16250.40142778</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-19303.77422778</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-19303.77422778</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-39437.71792778</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-37721.15022778</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-47883.41672778</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-47883.41672778</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-46359.29262778</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-46359.29262778</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-47062.50352778</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-47062.50352778</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-47062.50352778</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-64793.53222778</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-64624.20152778</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-67080.07802778001</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-67122.38412778001</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-68967.30472778001</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-88967.30472778001</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-98967.30472778001</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-91459.32942778</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3817,14 +3817,10 @@
         <v>-168540.00152778</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>263.7</v>
-      </c>
-      <c r="J104" t="n">
-        <v>263.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
@@ -3854,19 +3850,11 @@
         <v>-171350.00152778</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>265.2</v>
-      </c>
-      <c r="J105" t="n">
-        <v>263.7</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3898,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>263.7</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4099,14 +4081,10 @@
         <v>-170592.77442778</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>264</v>
-      </c>
-      <c r="J112" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
@@ -4136,19 +4114,11 @@
         <v>-170592.77442778</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>264</v>
-      </c>
-      <c r="J113" t="n">
-        <v>264</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4177,19 +4147,11 @@
         <v>-170465.77452778</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>264</v>
-      </c>
-      <c r="J114" t="n">
-        <v>264</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4218,14 +4180,10 @@
         <v>-170465.77452778</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="J115" t="n">
-        <v>266.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
@@ -4258,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4297,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4336,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4375,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4414,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4453,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4492,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4531,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4570,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4609,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4648,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4687,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4726,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4765,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4801,19 +4675,11 @@
         <v>-177224.68932778</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="J130" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4842,19 +4708,15 @@
         <v>-177224.68932778</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>265.7</v>
       </c>
       <c r="J131" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>265.7</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4883,17 +4745,17 @@
         <v>-179284.68932778</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>265.7</v>
       </c>
       <c r="J132" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L132" t="n">
@@ -4924,17 +4786,17 @@
         <v>-179284.68932778</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>265.1</v>
       </c>
       <c r="J133" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L133" t="n">
@@ -4965,17 +4827,17 @@
         <v>-183544.68932778</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>265.1</v>
       </c>
       <c r="J134" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L134" t="n">
@@ -5006,13 +4868,13 @@
         <v>-198692.13452778</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>264.4</v>
       </c>
       <c r="J135" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5047,13 +4909,13 @@
         <v>-198689.35962778</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>264</v>
       </c>
       <c r="J136" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5088,13 +4950,13 @@
         <v>-200011.15962778</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>264.7</v>
       </c>
       <c r="J137" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5129,13 +4991,13 @@
         <v>-212656.20012778</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>264.6</v>
       </c>
       <c r="J138" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5170,13 +5032,13 @@
         <v>-191064.06562778</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>264.4</v>
       </c>
       <c r="J139" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5211,13 +5073,13 @@
         <v>-174620.44841792</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>266.1</v>
       </c>
       <c r="J140" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5252,13 +5114,11 @@
         <v>-175604.54831792</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>267.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5297,7 +5157,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5336,7 +5196,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5375,7 +5235,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5414,7 +5274,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5453,7 +5313,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5492,7 +5352,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5531,7 +5391,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5570,7 +5430,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5609,7 +5469,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5648,7 +5508,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5687,7 +5547,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5722,11 +5582,11 @@
         <v>-157317.35541792</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5761,11 +5621,11 @@
         <v>-157317.35541792</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5800,11 +5660,11 @@
         <v>-157317.35541792</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5843,7 +5703,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5882,7 +5742,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5921,7 +5781,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5956,11 +5816,13 @@
         <v>-166477.4181179201</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>269.6</v>
+      </c>
       <c r="J159" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5995,11 +5857,13 @@
         <v>-169079.6181179201</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>269.6</v>
+      </c>
       <c r="J160" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6034,11 +5898,13 @@
         <v>-169279.6181179201</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>267.9</v>
+      </c>
       <c r="J161" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6073,11 +5939,13 @@
         <v>-169279.6181179201</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>267.8</v>
+      </c>
       <c r="J162" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6112,11 +5980,13 @@
         <v>-169529.3575179201</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>267.8</v>
+      </c>
       <c r="J163" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6155,7 +6025,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6194,7 +6064,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6231,9 +6101,11 @@
       <c r="H166" t="n">
         <v>1</v>
       </c>
-      <c r="I166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>266.5</v>
+      </c>
       <c r="J166" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6270,9 +6142,11 @@
       <c r="H167" t="n">
         <v>1</v>
       </c>
-      <c r="I167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>266.4</v>
+      </c>
       <c r="J167" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6309,9 +6183,11 @@
       <c r="H168" t="n">
         <v>1</v>
       </c>
-      <c r="I168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>266.4</v>
+      </c>
       <c r="J168" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6348,9 +6224,11 @@
       <c r="H169" t="n">
         <v>1</v>
       </c>
-      <c r="I169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>266.4</v>
+      </c>
       <c r="J169" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6385,11 +6263,11 @@
         <v>-193926.8887179201</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6424,11 +6302,11 @@
         <v>-188900.04841792</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6463,11 +6341,11 @@
         <v>-189077.04831792</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6502,11 +6380,11 @@
         <v>-188704.84451792</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6541,11 +6419,11 @@
         <v>-189111.06571792</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6580,11 +6458,11 @@
         <v>-188251.4022179201</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6619,11 +6497,11 @@
         <v>-186472.03741792</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6658,11 +6536,11 @@
         <v>-186492.03741792</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6697,11 +6575,11 @@
         <v>-186512.03741792</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6736,11 +6614,11 @@
         <v>-188877.41371792</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6775,11 +6653,11 @@
         <v>-192547.39411792</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6814,11 +6692,11 @@
         <v>-186907.00001792</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6855,9 +6733,11 @@
       <c r="H182" t="n">
         <v>1</v>
       </c>
-      <c r="I182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>268.2</v>
+      </c>
       <c r="J182" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6892,11 +6772,11 @@
         <v>-199225.12081792</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6935,7 +6815,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6974,7 +6854,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7013,7 +6893,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7048,11 +6928,13 @@
         <v>-200175.2514179201</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>266.3</v>
+      </c>
       <c r="J187" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7087,11 +6969,13 @@
         <v>-200424.99081792</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>267.3</v>
+      </c>
       <c r="J188" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7126,11 +7010,13 @@
         <v>-200401.99044521</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>267.2</v>
+      </c>
       <c r="J189" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7169,7 +7055,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7208,7 +7094,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7243,11 +7129,13 @@
         <v>-197966.71994521</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>268.4</v>
+      </c>
       <c r="J192" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7282,11 +7170,13 @@
         <v>-197966.71994521</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>268.4</v>
+      </c>
       <c r="J193" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7321,11 +7211,13 @@
         <v>-197966.71994521</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>268.4</v>
+      </c>
       <c r="J194" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7360,11 +7252,13 @@
         <v>-192994.87754521</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>268.4</v>
+      </c>
       <c r="J195" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7399,11 +7293,11 @@
         <v>-193866.15384521</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7442,7 +7336,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7477,11 +7371,11 @@
         <v>-190004.62124521</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7516,11 +7410,11 @@
         <v>-190004.62124521</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7555,11 +7449,11 @@
         <v>-187384.62124521</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7598,7 +7492,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7637,7 +7531,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7676,7 +7570,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7711,11 +7605,11 @@
         <v>-184799.46604521</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7754,7 +7648,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7789,11 +7683,11 @@
         <v>-170162.11308324</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7832,7 +7726,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7871,7 +7765,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7910,7 +7804,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7949,7 +7843,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7988,7 +7882,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8027,7 +7921,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8066,7 +7960,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8105,7 +7999,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8144,7 +8038,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8179,19 +8073,19 @@
         <v>-160200.36124502</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>266.4</v>
+        <v>265.7</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L216" t="n">
-        <v>1.025405405405406</v>
+        <v>1</v>
       </c>
       <c r="M216" t="inlineStr"/>
     </row>
@@ -8218,11 +8112,17 @@
         <v>-160200.36124502</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8251,11 +8151,17 @@
         <v>-160200.36124502</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8287,8 +8193,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8320,8 +8232,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8353,8 +8271,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8386,8 +8310,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8419,8 +8349,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8452,8 +8388,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8485,14 +8427,20 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
       <c r="M225" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest MTL.xlsx
+++ b/BackTest/2020-01-26 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>5234.412672220002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>7914.903672220002</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>8114.903672220002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>6361.534772220002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>3935.435572220002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>3859.435572220002</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>3859.435572220002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>4679.035572220002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>4679.035572220002</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>4679.035572220002</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>4169.235572220002</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-2201.140027779998</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1148.444927779999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2123.059927779998</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2877.059927779998</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-6954.059827779998</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-5334.112627779998</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-5334.112627779998</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-5361.275927779998</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>4199.869372220001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>199.8693722200014</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>203.8693722200014</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-6609.429327779999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-11063.53252778</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-11063.53252778</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-11063.53252778</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-11063.53252778</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>1936.467472220002</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>14630.51157222</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>14633.51157222</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>14628.51157222</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>4207.276472220001</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-2387.956327779999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-2387.956327779999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-6443.716327779999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-8838.294027779999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-19204.15082778</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-19204.15082778</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-19204.15082778</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-19204.15082778</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-19204.15082778</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-25500.91662778</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-30176.91662778</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-16087.47142778</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-16250.40142778</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-19303.77422778</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-19303.77422778</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-39437.71792778</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-37721.15022778</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-47883.41672778</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-47883.41672778</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-46359.29262778</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-46359.29262778</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-47062.50352778</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-47062.50352778</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-47062.50352778</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-64793.53222778</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-64624.20152778</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-67080.07802778001</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-67122.38412778001</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-91459.32942778</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -4147,10 +4147,14 @@
         <v>-170465.77452778</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>264</v>
+      </c>
+      <c r="J114" t="n">
+        <v>264</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
@@ -4183,8 +4187,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>264</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4226,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>264</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4708,14 +4724,10 @@
         <v>-177224.68932778</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="J131" t="n">
-        <v>265.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
@@ -4745,265 +4757,229 @@
         <v>-179284.68932778</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="J132" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K132" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>244.9352</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-179284.68932778</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="D134" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="E134" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4260</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-183544.68932778</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="C135" t="n">
+        <v>264</v>
+      </c>
+      <c r="D135" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="E135" t="n">
+        <v>264</v>
+      </c>
+      <c r="F135" t="n">
+        <v>15147.4452</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-198692.13452778</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>264.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>264.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>264.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>264.7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2.7749</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-198689.35962778</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>264</v>
+      </c>
+      <c r="J136" t="n">
+        <v>264</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>264.6</v>
+      </c>
+      <c r="C137" t="n">
+        <v>264.6</v>
+      </c>
+      <c r="D137" t="n">
+        <v>265.6</v>
+      </c>
+      <c r="E137" t="n">
+        <v>264.6</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1321.8</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-200011.15962778</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>264.7</v>
+      </c>
+      <c r="J137" t="n">
+        <v>264</v>
+      </c>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="C133" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="E133" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="F133" t="n">
-        <v>244.9352</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-179284.68932778</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="J133" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K133" t="inlineStr">
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>264.6</v>
+      </c>
+      <c r="C138" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="D138" t="n">
+        <v>264.6</v>
+      </c>
+      <c r="E138" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>12645.0405</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-212656.20012778</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>264.6</v>
+      </c>
+      <c r="J138" t="n">
+        <v>264</v>
+      </c>
+      <c r="K138" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>264.5</v>
-      </c>
-      <c r="C134" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="D134" t="n">
-        <v>264.5</v>
-      </c>
-      <c r="E134" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="F134" t="n">
-        <v>4260</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-183544.68932778</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="J134" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="C135" t="n">
-        <v>264</v>
-      </c>
-      <c r="D135" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="E135" t="n">
-        <v>264</v>
-      </c>
-      <c r="F135" t="n">
-        <v>15147.4452</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-198692.13452778</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="J135" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>264.7</v>
-      </c>
-      <c r="C136" t="n">
-        <v>264.7</v>
-      </c>
-      <c r="D136" t="n">
-        <v>264.7</v>
-      </c>
-      <c r="E136" t="n">
-        <v>264.7</v>
-      </c>
-      <c r="F136" t="n">
-        <v>2.7749</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-198689.35962778</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>264</v>
-      </c>
-      <c r="J136" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>264.6</v>
-      </c>
-      <c r="C137" t="n">
-        <v>264.6</v>
-      </c>
-      <c r="D137" t="n">
-        <v>265.6</v>
-      </c>
-      <c r="E137" t="n">
-        <v>264.6</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1321.8</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-200011.15962778</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>264.7</v>
-      </c>
-      <c r="J137" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>264.6</v>
-      </c>
-      <c r="C138" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="D138" t="n">
-        <v>264.6</v>
-      </c>
-      <c r="E138" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="F138" t="n">
-        <v>12645.0405</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-212656.20012778</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>264.6</v>
-      </c>
-      <c r="J138" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5038,13 +5014,9 @@
         <v>264.4</v>
       </c>
       <c r="J139" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>264.4</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5073,17 +5045,15 @@
         <v>-174620.44841792</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>266.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>265.7</v>
+        <v>264.4</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L140" t="n">
@@ -5118,11 +5088,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>265.7</v>
+        <v>264.4</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L141" t="n">
@@ -5156,14 +5126,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5195,14 +5159,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5234,14 +5192,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5273,14 +5225,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5312,14 +5258,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5351,14 +5291,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5390,14 +5324,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5426,17 +5354,11 @@
         <v>-160441.88241792</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5465,17 +5387,11 @@
         <v>-160892.7508179201</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5504,17 +5420,11 @@
         <v>-159980.3557179201</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5543,17 +5453,11 @@
         <v>-157317.35541792</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5582,17 +5486,11 @@
         <v>-157317.35541792</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5621,17 +5519,11 @@
         <v>-157317.35541792</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5660,17 +5552,11 @@
         <v>-157317.35541792</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5699,17 +5585,11 @@
         <v>-163537.71821792</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5738,17 +5618,11 @@
         <v>-166477.4181179201</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5777,17 +5651,11 @@
         <v>-166477.4181179201</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5816,19 +5684,11 @@
         <v>-166477.4181179201</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="J159" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5857,19 +5717,11 @@
         <v>-169079.6181179201</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="J160" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5898,19 +5750,11 @@
         <v>-169279.6181179201</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="J161" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5939,19 +5783,11 @@
         <v>-169279.6181179201</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>267.8</v>
-      </c>
-      <c r="J162" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5980,19 +5816,11 @@
         <v>-169529.3575179201</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>267.8</v>
-      </c>
-      <c r="J163" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6024,14 +5852,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6063,14 +5885,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6099,19 +5915,11 @@
         <v>-173864.3874179201</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>266.5</v>
-      </c>
-      <c r="J166" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6140,19 +5948,11 @@
         <v>-173864.3874179201</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="J167" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6181,19 +5981,11 @@
         <v>-173864.3874179201</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="J168" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6222,19 +6014,11 @@
         <v>-202598.1999179201</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="J169" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6266,14 +6050,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6305,14 +6083,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6344,14 +6116,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6383,14 +6149,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6422,14 +6182,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6461,14 +6215,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6500,14 +6248,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6536,17 +6278,11 @@
         <v>-186492.03741792</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6575,17 +6311,11 @@
         <v>-186512.03741792</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6614,17 +6344,11 @@
         <v>-188877.41371792</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6653,17 +6377,11 @@
         <v>-192547.39411792</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6692,17 +6410,11 @@
         <v>-186907.00001792</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6731,19 +6443,11 @@
         <v>-199205.12081792</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>268.2</v>
-      </c>
-      <c r="J182" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6772,17 +6476,11 @@
         <v>-199225.12081792</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6811,17 +6509,11 @@
         <v>-204025.12081792</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6850,17 +6542,11 @@
         <v>-204018.12081792</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6892,14 +6578,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6928,19 +6608,11 @@
         <v>-200175.2514179201</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>266.3</v>
-      </c>
-      <c r="J187" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6969,19 +6641,11 @@
         <v>-200424.99081792</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>267.3</v>
-      </c>
-      <c r="J188" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7010,19 +6674,11 @@
         <v>-200401.99044521</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>267.2</v>
-      </c>
-      <c r="J189" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7054,14 +6710,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7093,14 +6743,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7129,19 +6773,11 @@
         <v>-197966.71994521</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="J192" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7170,19 +6806,11 @@
         <v>-197966.71994521</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="J193" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7211,19 +6839,11 @@
         <v>-197966.71994521</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="J194" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7252,19 +6872,11 @@
         <v>-192994.87754521</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="J195" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7296,14 +6908,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7335,14 +6941,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7371,17 +6971,11 @@
         <v>-190004.62124521</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7413,14 +7007,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7452,14 +7040,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7491,14 +7073,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7530,14 +7106,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7569,14 +7139,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7608,14 +7172,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7647,14 +7205,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7686,14 +7238,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7725,14 +7271,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7764,14 +7304,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7803,14 +7337,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7842,14 +7370,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7881,14 +7403,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7920,14 +7436,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7959,14 +7469,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7998,14 +7502,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8037,14 +7535,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8076,14 +7568,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8115,14 +7601,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8154,14 +7634,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8193,14 +7667,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8232,14 +7700,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8271,14 +7733,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8310,14 +7766,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8349,14 +7799,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8388,14 +7832,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8427,20 +7865,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
       <c r="M225" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest MTL.xlsx
+++ b/BackTest/2020-01-26 BackTest MTL.xlsx
@@ -451,7 +451,7 @@
         <v>5234.412672220002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>7914.903672220002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>8114.903672220002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>6361.534772220002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2352.604672220002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>3935.435572220002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>3859.435572220002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>3859.435572220002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2123.059927779998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2877.059927779998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-5361.275927779998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-5621.388727779998</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>4199.869372220001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>4199.869372220001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>199.8693722200014</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>203.8693722200014</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>217.8693722200014</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-32.70072777999857</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-32.70072777999857</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-7532.700727779998</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>14628.51157222</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -4147,14 +4147,10 @@
         <v>-170465.77452778</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>264</v>
-      </c>
-      <c r="J114" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
@@ -4187,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>264</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4226,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>264</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4790,10 +4774,14 @@
         <v>-179284.68932778</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>265.1</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
@@ -4823,11 +4811,19 @@
         <v>-183544.68932778</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4856,11 +4852,19 @@
         <v>-198692.13452778</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="J135" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4895,9 +4899,13 @@
         <v>264</v>
       </c>
       <c r="J136" t="n">
-        <v>264</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
+        <v>265.1</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4932,11 +4940,11 @@
         <v>264.7</v>
       </c>
       <c r="J137" t="n">
-        <v>264</v>
+        <v>265.1</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L137" t="n">
@@ -4973,11 +4981,11 @@
         <v>264.6</v>
       </c>
       <c r="J138" t="n">
-        <v>264</v>
+        <v>265.1</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -5014,9 +5022,13 @@
         <v>264.4</v>
       </c>
       <c r="J139" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
+        <v>265.1</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5049,11 +5061,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>264.4</v>
+        <v>265.1</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L140" t="n">
@@ -5088,11 +5100,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>264.4</v>
+        <v>265.1</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L141" t="n">
@@ -5123,11 +5135,19 @@
         <v>-175604.54831792</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>266.7</v>
+      </c>
+      <c r="J142" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5156,11 +5176,19 @@
         <v>-175604.54831792</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>266.7</v>
+      </c>
+      <c r="J143" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5192,8 +5220,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5225,8 +5259,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5258,8 +5298,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5291,8 +5337,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5324,8 +5376,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5354,11 +5412,17 @@
         <v>-160441.88241792</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5387,11 +5451,17 @@
         <v>-160892.7508179201</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5420,11 +5490,17 @@
         <v>-159980.3557179201</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5453,11 +5529,17 @@
         <v>-157317.35541792</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5486,11 +5568,17 @@
         <v>-157317.35541792</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5519,11 +5607,17 @@
         <v>-157317.35541792</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5552,11 +5646,17 @@
         <v>-157317.35541792</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5585,11 +5685,17 @@
         <v>-163537.71821792</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5618,11 +5724,17 @@
         <v>-166477.4181179201</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5651,11 +5763,17 @@
         <v>-166477.4181179201</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5687,8 +5805,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5720,8 +5844,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5750,11 +5880,19 @@
         <v>-169279.6181179201</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="J161" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5783,11 +5921,19 @@
         <v>-169279.6181179201</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>267.8</v>
+      </c>
+      <c r="J162" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5819,8 +5965,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5852,8 +6004,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5885,8 +6043,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5918,8 +6082,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5951,8 +6121,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5984,8 +6160,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6017,8 +6199,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6050,8 +6238,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6083,8 +6277,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6116,8 +6316,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6149,8 +6355,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6182,8 +6394,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6215,8 +6433,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6248,8 +6472,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6278,11 +6508,17 @@
         <v>-186492.03741792</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6311,11 +6547,17 @@
         <v>-186512.03741792</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6344,11 +6586,17 @@
         <v>-188877.41371792</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6377,11 +6625,17 @@
         <v>-192547.39411792</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6410,11 +6664,17 @@
         <v>-186907.00001792</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6443,11 +6703,17 @@
         <v>-199205.12081792</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6476,11 +6742,17 @@
         <v>-199225.12081792</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6509,11 +6781,17 @@
         <v>-204025.12081792</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6542,11 +6820,17 @@
         <v>-204018.12081792</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6578,8 +6862,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6611,8 +6901,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6644,8 +6940,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6677,8 +6979,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6710,8 +7018,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6743,8 +7057,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6776,8 +7096,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6809,8 +7135,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6842,8 +7174,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6875,8 +7213,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6908,8 +7252,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6941,8 +7291,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6971,11 +7327,17 @@
         <v>-190004.62124521</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7007,8 +7369,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7040,8 +7408,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7073,8 +7447,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7106,8 +7486,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7139,8 +7525,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7172,8 +7564,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7205,8 +7603,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7238,8 +7642,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7271,8 +7681,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7304,8 +7720,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7337,8 +7759,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7370,8 +7798,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7403,8 +7837,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7436,8 +7876,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7469,8 +7915,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7502,8 +7954,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7535,8 +7993,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7565,13 +8029,19 @@
         <v>-160200.36124502</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L216" t="n">
-        <v>1</v>
+        <v>1.030458317615994</v>
       </c>
       <c r="M216" t="inlineStr"/>
     </row>
@@ -7598,7 +8068,7 @@
         <v>-160200.36124502</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7664,7 +8134,7 @@
         <v>-160200.36124502</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7697,7 +8167,7 @@
         <v>-160200.36124502</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7730,7 +8200,7 @@
         <v>-169499.41884502</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7829,7 +8299,7 @@
         <v>-169499.41884502</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7862,7 +8332,7 @@
         <v>-170215.33314502</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>

--- a/BackTest/2020-01-26 BackTest MTL.xlsx
+++ b/BackTest/2020-01-26 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M225"/>
+  <dimension ref="A1:L225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>22204.8721</v>
       </c>
       <c r="G2" t="n">
-        <v>5234.412672220002</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2680.491</v>
       </c>
       <c r="G3" t="n">
-        <v>7914.903672220002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>200</v>
       </c>
       <c r="G4" t="n">
-        <v>8114.903672220002</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1753.3689</v>
       </c>
       <c r="G5" t="n">
-        <v>6361.534772220002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>4008.9301</v>
       </c>
       <c r="G6" t="n">
-        <v>2352.604672220002</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1582.8309</v>
       </c>
       <c r="G7" t="n">
-        <v>3935.435572220002</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>76</v>
       </c>
       <c r="G8" t="n">
-        <v>3859.435572220002</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1900</v>
       </c>
       <c r="G9" t="n">
-        <v>3859.435572220002</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>819.6</v>
       </c>
       <c r="G10" t="n">
-        <v>4679.035572220002</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>169</v>
       </c>
       <c r="G11" t="n">
-        <v>4679.035572220002</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>240.8</v>
       </c>
       <c r="G12" t="n">
-        <v>4679.035572220002</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>509.8</v>
       </c>
       <c r="G13" t="n">
-        <v>4169.235572220002</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>6370.3756</v>
       </c>
       <c r="G14" t="n">
-        <v>-2201.140027779998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>1052.6951</v>
       </c>
       <c r="G15" t="n">
-        <v>-1148.444927779999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>974.615</v>
       </c>
       <c r="G16" t="n">
-        <v>-2123.059927779998</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>754</v>
       </c>
       <c r="G17" t="n">
-        <v>-2877.059927779998</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>4076.9999</v>
       </c>
       <c r="G18" t="n">
-        <v>-6954.059827779998</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1619.9472</v>
       </c>
       <c r="G19" t="n">
-        <v>-5334.112627779998</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1272.8856</v>
       </c>
       <c r="G20" t="n">
-        <v>-5334.112627779998</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>27.1633</v>
       </c>
       <c r="G21" t="n">
-        <v>-5361.275927779998</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>260.1128</v>
       </c>
       <c r="G22" t="n">
-        <v>-5621.388727779998</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>295.2938</v>
       </c>
       <c r="G23" t="n">
-        <v>-5621.388727779998</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>351.9288</v>
       </c>
       <c r="G24" t="n">
-        <v>-5621.388727779998</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>234.1045</v>
       </c>
       <c r="G25" t="n">
-        <v>-5621.388727779998</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>744</v>
       </c>
       <c r="G26" t="n">
-        <v>-5621.388727779998</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>2936.63</v>
       </c>
       <c r="G27" t="n">
-        <v>-5621.388727779998</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>904</v>
       </c>
       <c r="G28" t="n">
-        <v>-5621.388727779998</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1319</v>
       </c>
       <c r="G29" t="n">
-        <v>-5621.388727779998</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>9821.258099999999</v>
       </c>
       <c r="G30" t="n">
-        <v>4199.869372220001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>11.6161</v>
       </c>
       <c r="G31" t="n">
-        <v>4199.869372220001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>4000</v>
       </c>
       <c r="G32" t="n">
-        <v>199.8693722200014</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>203.8693722200014</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>14</v>
       </c>
       <c r="G34" t="n">
-        <v>217.8693722200014</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>250.5701</v>
       </c>
       <c r="G35" t="n">
-        <v>-32.70072777999857</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>2885.4829</v>
       </c>
       <c r="G36" t="n">
-        <v>-32.70072777999857</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>7500</v>
       </c>
       <c r="G37" t="n">
-        <v>-7532.700727779998</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>400</v>
       </c>
       <c r="G38" t="n">
-        <v>-7532.700727779998</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>923.2714</v>
       </c>
       <c r="G39" t="n">
-        <v>-6609.429327779999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>3.6987</v>
       </c>
       <c r="G40" t="n">
-        <v>-6609.429327779999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1011</v>
       </c>
       <c r="G41" t="n">
-        <v>-7620.429327779999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1000</v>
       </c>
       <c r="G42" t="n">
-        <v>-6620.429327779999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>4443.1032</v>
       </c>
       <c r="G43" t="n">
-        <v>-11063.53252778</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>923.2714</v>
       </c>
       <c r="G44" t="n">
-        <v>-11063.53252778</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>924.3584</v>
       </c>
       <c r="G45" t="n">
-        <v>-11063.53252778</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>706.9018</v>
       </c>
       <c r="G46" t="n">
-        <v>-11063.53252778</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>4903.4306</v>
       </c>
       <c r="G47" t="n">
-        <v>-11063.53252778</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>13000</v>
       </c>
       <c r="G48" t="n">
-        <v>1936.467472220002</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>12694.0441</v>
       </c>
       <c r="G49" t="n">
-        <v>14630.51157222</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>3</v>
       </c>
       <c r="G50" t="n">
-        <v>14633.51157222</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>5</v>
       </c>
       <c r="G51" t="n">
-        <v>14628.51157222</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>10421.2351</v>
       </c>
       <c r="G52" t="n">
-        <v>4207.276472220001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>6595.2328</v>
       </c>
       <c r="G53" t="n">
-        <v>-2387.956327779999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>3615.4518</v>
       </c>
       <c r="G54" t="n">
-        <v>-2387.956327779999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>4055.76</v>
       </c>
       <c r="G55" t="n">
-        <v>-6443.716327779999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>2394.5777</v>
       </c>
       <c r="G56" t="n">
-        <v>-8838.294027779999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>10365.8568</v>
       </c>
       <c r="G57" t="n">
-        <v>-19204.15082778</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>913.7034</v>
       </c>
       <c r="G58" t="n">
-        <v>-19204.15082778</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>511</v>
       </c>
       <c r="G59" t="n">
-        <v>-19204.15082778</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>300</v>
       </c>
       <c r="G60" t="n">
-        <v>-19204.15082778</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>255.8105</v>
       </c>
       <c r="G61" t="n">
-        <v>-19204.15082778</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>6296.7658</v>
       </c>
       <c r="G62" t="n">
-        <v>-25500.91662778</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>4676</v>
       </c>
       <c r="G63" t="n">
-        <v>-30176.91662778</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>14089.4452</v>
       </c>
       <c r="G64" t="n">
-        <v>-16087.47142778</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>162.93</v>
       </c>
       <c r="G65" t="n">
-        <v>-16250.40142778</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>3053.3728</v>
       </c>
       <c r="G66" t="n">
-        <v>-19303.77422778</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>5017.8907</v>
       </c>
       <c r="G67" t="n">
-        <v>-19303.77422778</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>20133.9437</v>
       </c>
       <c r="G68" t="n">
-        <v>-39437.71792778</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>1716.5677</v>
       </c>
       <c r="G69" t="n">
-        <v>-37721.15022778</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>10162.2665</v>
       </c>
       <c r="G70" t="n">
-        <v>-47883.41672778</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1529.7362</v>
       </c>
       <c r="G71" t="n">
-        <v>-47883.41672778</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>1524.1241</v>
       </c>
       <c r="G72" t="n">
-        <v>-46359.29262778</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>2390.7324</v>
       </c>
       <c r="G73" t="n">
-        <v>-46359.29262778</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>703.2109</v>
       </c>
       <c r="G74" t="n">
-        <v>-47062.50352778</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>3296.7891</v>
       </c>
       <c r="G75" t="n">
-        <v>-47062.50352778</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>2302.9839</v>
       </c>
       <c r="G76" t="n">
-        <v>-47062.50352778</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>17731.0287</v>
       </c>
       <c r="G77" t="n">
-        <v>-64793.53222778</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>169.3307</v>
       </c>
       <c r="G78" t="n">
-        <v>-64624.20152778</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>2455.8765</v>
       </c>
       <c r="G79" t="n">
-        <v>-67080.07802778001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>42.3061</v>
       </c>
       <c r="G80" t="n">
-        <v>-67122.38412778001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>1844.9206</v>
       </c>
       <c r="G81" t="n">
-        <v>-68967.30472778001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>20000</v>
       </c>
       <c r="G82" t="n">
-        <v>-88967.30472778001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>10000</v>
       </c>
       <c r="G83" t="n">
-        <v>-98967.30472778001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>10000</v>
       </c>
       <c r="G84" t="n">
-        <v>-98967.30472778001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>4149.4271</v>
       </c>
       <c r="G85" t="n">
-        <v>-98967.30472778001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>1017.3572</v>
       </c>
       <c r="G86" t="n">
-        <v>-98967.30472778001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>1400</v>
       </c>
       <c r="G87" t="n">
-        <v>-98967.30472778001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>7507.9753</v>
       </c>
       <c r="G88" t="n">
-        <v>-91459.32942778</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>700</v>
       </c>
       <c r="G89" t="n">
-        <v>-92159.32942778</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>992.2332</v>
       </c>
       <c r="G90" t="n">
-        <v>-92159.32942778</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>1700</v>
       </c>
       <c r="G91" t="n">
-        <v>-90459.32942778</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>1275</v>
       </c>
       <c r="G92" t="n">
-        <v>-91734.32942778</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>610.5300999999999</v>
       </c>
       <c r="G93" t="n">
-        <v>-92344.85952778001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>394.3662</v>
       </c>
       <c r="G94" t="n">
-        <v>-91950.49332778</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>14000</v>
       </c>
       <c r="G95" t="n">
-        <v>-105950.49332778</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>47141.5976</v>
       </c>
       <c r="G96" t="n">
-        <v>-153092.09092778</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>12858.5616</v>
       </c>
       <c r="G97" t="n">
-        <v>-165950.65252778</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>146.3</v>
       </c>
       <c r="G98" t="n">
-        <v>-165804.35252778</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>996.1236</v>
       </c>
       <c r="G99" t="n">
-        <v>-165804.35252778</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>2579.0737</v>
       </c>
       <c r="G100" t="n">
-        <v>-165804.35252778</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>164.2747</v>
       </c>
       <c r="G101" t="n">
-        <v>-165804.35252778</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>12.1541</v>
       </c>
       <c r="G102" t="n">
-        <v>-165792.19842778</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>2751.5867</v>
       </c>
       <c r="G103" t="n">
-        <v>-168543.78512778</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>3.7836</v>
       </c>
       <c r="G104" t="n">
-        <v>-168540.00152778</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>2810</v>
       </c>
       <c r="G105" t="n">
-        <v>-171350.00152778</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,19 @@
         <v>757.2271</v>
       </c>
       <c r="G106" t="n">
-        <v>-170592.77442778</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>263.2</v>
+      </c>
+      <c r="I106" t="n">
+        <v>263.2</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3597,23 @@
         <v>80</v>
       </c>
       <c r="G107" t="n">
-        <v>-170592.77442778</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I107" t="n">
+        <v>263.2</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3635,23 @@
         <v>1070.321</v>
       </c>
       <c r="G108" t="n">
-        <v>-170592.77442778</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I108" t="n">
+        <v>263.2</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3673,19 @@
         <v>1601.6946</v>
       </c>
       <c r="G109" t="n">
-        <v>-170592.77442778</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I109" t="n">
+        <v>264</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3707,23 @@
         <v>2468.7405</v>
       </c>
       <c r="G110" t="n">
-        <v>-170592.77442778</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I110" t="n">
+        <v>264</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3745,23 @@
         <v>1631.8495</v>
       </c>
       <c r="G111" t="n">
-        <v>-170592.77442778</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I111" t="n">
+        <v>264</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3783,15 @@
         <v>934.1673</v>
       </c>
       <c r="G112" t="n">
-        <v>-170592.77442778</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3813,19 @@
         <v>4500</v>
       </c>
       <c r="G113" t="n">
-        <v>-170592.77442778</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I113" t="n">
+        <v>264</v>
+      </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3847,23 @@
         <v>126.9999</v>
       </c>
       <c r="G114" t="n">
-        <v>-170465.77452778</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I114" t="n">
+        <v>264</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3885,21 @@
         <v>317.4575</v>
       </c>
       <c r="G115" t="n">
-        <v>-170465.77452778</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>264</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3921,15 @@
         <v>2420</v>
       </c>
       <c r="G116" t="n">
-        <v>-168045.77452778</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3951,15 @@
         <v>1140</v>
       </c>
       <c r="G117" t="n">
-        <v>-168045.77452778</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3981,15 @@
         <v>2075.6225</v>
       </c>
       <c r="G118" t="n">
-        <v>-168045.77452778</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4011,15 @@
         <v>1070.321</v>
       </c>
       <c r="G119" t="n">
-        <v>-168045.77452778</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4041,15 @@
         <v>106.8202</v>
       </c>
       <c r="G120" t="n">
-        <v>-168045.77452778</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4071,15 @@
         <v>4569.1213</v>
       </c>
       <c r="G121" t="n">
-        <v>-163476.65322778</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4101,15 @@
         <v>341.4</v>
       </c>
       <c r="G122" t="n">
-        <v>-163476.65322778</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4131,15 @@
         <v>483.5425</v>
       </c>
       <c r="G123" t="n">
-        <v>-162993.11072778</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4161,15 @@
         <v>3156.3813</v>
       </c>
       <c r="G124" t="n">
-        <v>-166149.49202778</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4191,15 @@
         <v>3669.9804</v>
       </c>
       <c r="G125" t="n">
-        <v>-169819.47242778</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4221,15 @@
         <v>474.1869</v>
       </c>
       <c r="G126" t="n">
-        <v>-169345.28552778</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4251,15 @@
         <v>2074.6099</v>
       </c>
       <c r="G127" t="n">
-        <v>-171419.89542778</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4281,15 @@
         <v>785.7942</v>
       </c>
       <c r="G128" t="n">
-        <v>-172205.68962778</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4311,15 @@
         <v>5018.9997</v>
       </c>
       <c r="G129" t="n">
-        <v>-177224.68932778</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4341,15 @@
         <v>2525.8131</v>
       </c>
       <c r="G130" t="n">
-        <v>-177224.68932778</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4371,15 @@
         <v>72.6561</v>
       </c>
       <c r="G131" t="n">
-        <v>-177224.68932778</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4401,15 @@
         <v>2060</v>
       </c>
       <c r="G132" t="n">
-        <v>-179284.68932778</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,22 +4431,15 @@
         <v>244.9352</v>
       </c>
       <c r="G133" t="n">
-        <v>-179284.68932778</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="J133" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4808,26 +4461,15 @@
         <v>4260</v>
       </c>
       <c r="G134" t="n">
-        <v>-183544.68932778</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="J134" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4849,26 +4491,15 @@
         <v>15147.4452</v>
       </c>
       <c r="G135" t="n">
-        <v>-198692.13452778</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="J135" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4890,26 +4521,15 @@
         <v>2.7749</v>
       </c>
       <c r="G136" t="n">
-        <v>-198689.35962778</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>264</v>
-      </c>
-      <c r="J136" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4931,26 +4551,15 @@
         <v>1321.8</v>
       </c>
       <c r="G137" t="n">
-        <v>-200011.15962778</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>264.7</v>
-      </c>
-      <c r="J137" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4972,26 +4581,15 @@
         <v>12645.0405</v>
       </c>
       <c r="G138" t="n">
-        <v>-212656.20012778</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>264.6</v>
-      </c>
-      <c r="J138" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5013,26 +4611,15 @@
         <v>21592.1345</v>
       </c>
       <c r="G139" t="n">
-        <v>-191064.06562778</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="J139" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5054,24 +4641,15 @@
         <v>16443.61720986</v>
       </c>
       <c r="G140" t="n">
-        <v>-174620.44841792</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5093,24 +4671,15 @@
         <v>984.0999</v>
       </c>
       <c r="G141" t="n">
-        <v>-175604.54831792</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5132,26 +4701,15 @@
         <v>4419.0504</v>
       </c>
       <c r="G142" t="n">
-        <v>-175604.54831792</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>266.7</v>
-      </c>
-      <c r="J142" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5173,26 +4731,15 @@
         <v>1617.5843</v>
       </c>
       <c r="G143" t="n">
-        <v>-175604.54831792</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>266.7</v>
-      </c>
-      <c r="J143" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5214,24 +4761,15 @@
         <v>1117.8619</v>
       </c>
       <c r="G144" t="n">
-        <v>-174486.68641792</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5253,24 +4791,15 @@
         <v>20</v>
       </c>
       <c r="G145" t="n">
-        <v>-174506.68641792</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5292,24 +4821,15 @@
         <v>7035.0181</v>
       </c>
       <c r="G146" t="n">
-        <v>-167471.6683179201</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5331,24 +4851,15 @@
         <v>5100</v>
       </c>
       <c r="G147" t="n">
-        <v>-162371.6683179201</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5370,24 +4881,15 @@
         <v>1932.3881</v>
       </c>
       <c r="G148" t="n">
-        <v>-160439.2802179201</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5409,24 +4911,15 @@
         <v>2.6022</v>
       </c>
       <c r="G149" t="n">
-        <v>-160441.88241792</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5448,24 +4941,15 @@
         <v>450.8684</v>
       </c>
       <c r="G150" t="n">
-        <v>-160892.7508179201</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5487,24 +4971,15 @@
         <v>912.3951</v>
       </c>
       <c r="G151" t="n">
-        <v>-159980.3557179201</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5526,24 +5001,15 @@
         <v>2663.0003</v>
       </c>
       <c r="G152" t="n">
-        <v>-157317.35541792</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5565,24 +5031,15 @@
         <v>0.0001</v>
       </c>
       <c r="G153" t="n">
-        <v>-157317.35541792</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5604,24 +5061,15 @@
         <v>21435.8893</v>
       </c>
       <c r="G154" t="n">
-        <v>-157317.35541792</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5643,24 +5091,15 @@
         <v>5180</v>
       </c>
       <c r="G155" t="n">
-        <v>-157317.35541792</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5682,24 +5121,15 @@
         <v>6220.3628</v>
       </c>
       <c r="G156" t="n">
-        <v>-163537.71821792</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5721,24 +5151,15 @@
         <v>2939.6999</v>
       </c>
       <c r="G157" t="n">
-        <v>-166477.4181179201</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5760,24 +5181,15 @@
         <v>5385.5642</v>
       </c>
       <c r="G158" t="n">
-        <v>-166477.4181179201</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5799,24 +5211,15 @@
         <v>1147.5212</v>
       </c>
       <c r="G159" t="n">
-        <v>-166477.4181179201</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5838,24 +5241,15 @@
         <v>2602.2</v>
       </c>
       <c r="G160" t="n">
-        <v>-169079.6181179201</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5877,26 +5271,15 @@
         <v>200</v>
       </c>
       <c r="G161" t="n">
-        <v>-169279.6181179201</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="J161" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5918,26 +5301,15 @@
         <v>130</v>
       </c>
       <c r="G162" t="n">
-        <v>-169279.6181179201</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>267.8</v>
-      </c>
-      <c r="J162" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5959,24 +5331,15 @@
         <v>249.7394</v>
       </c>
       <c r="G163" t="n">
-        <v>-169529.3575179201</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5998,24 +5361,15 @@
         <v>626.4874</v>
       </c>
       <c r="G164" t="n">
-        <v>-169529.3575179201</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6037,24 +5391,15 @@
         <v>2462</v>
       </c>
       <c r="G165" t="n">
-        <v>-171991.3575179201</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6076,24 +5421,15 @@
         <v>1873.0299</v>
       </c>
       <c r="G166" t="n">
-        <v>-173864.3874179201</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6115,24 +5451,15 @@
         <v>123.6247</v>
       </c>
       <c r="G167" t="n">
-        <v>-173864.3874179201</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6154,24 +5481,15 @@
         <v>248.6571</v>
       </c>
       <c r="G168" t="n">
-        <v>-173864.3874179201</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6193,24 +5511,15 @@
         <v>28733.8125</v>
       </c>
       <c r="G169" t="n">
-        <v>-202598.1999179201</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6232,24 +5541,15 @@
         <v>8671.3112</v>
       </c>
       <c r="G170" t="n">
-        <v>-193926.8887179201</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6271,24 +5571,15 @@
         <v>5026.8403</v>
       </c>
       <c r="G171" t="n">
-        <v>-188900.04841792</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6310,24 +5601,15 @@
         <v>176.9999</v>
       </c>
       <c r="G172" t="n">
-        <v>-189077.04831792</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6349,24 +5631,15 @@
         <v>372.2038</v>
       </c>
       <c r="G173" t="n">
-        <v>-188704.84451792</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6388,24 +5661,15 @@
         <v>406.2212</v>
       </c>
       <c r="G174" t="n">
-        <v>-189111.06571792</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6427,24 +5691,15 @@
         <v>859.6635</v>
       </c>
       <c r="G175" t="n">
-        <v>-188251.4022179201</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6466,24 +5721,15 @@
         <v>1779.3648</v>
       </c>
       <c r="G176" t="n">
-        <v>-186472.03741792</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6505,24 +5751,15 @@
         <v>20</v>
       </c>
       <c r="G177" t="n">
-        <v>-186492.03741792</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6544,24 +5781,15 @@
         <v>20</v>
       </c>
       <c r="G178" t="n">
-        <v>-186512.03741792</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6583,24 +5811,15 @@
         <v>2365.3763</v>
       </c>
       <c r="G179" t="n">
-        <v>-188877.41371792</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6622,24 +5841,15 @@
         <v>3669.9804</v>
       </c>
       <c r="G180" t="n">
-        <v>-192547.39411792</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6661,24 +5871,15 @@
         <v>5640.3941</v>
       </c>
       <c r="G181" t="n">
-        <v>-186907.00001792</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6700,24 +5901,15 @@
         <v>12298.1208</v>
       </c>
       <c r="G182" t="n">
-        <v>-199205.12081792</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6739,24 +5931,15 @@
         <v>20</v>
       </c>
       <c r="G183" t="n">
-        <v>-199225.12081792</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6778,24 +5961,15 @@
         <v>4800</v>
       </c>
       <c r="G184" t="n">
-        <v>-204025.12081792</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6817,24 +5991,15 @@
         <v>7</v>
       </c>
       <c r="G185" t="n">
-        <v>-204018.12081792</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6856,24 +6021,15 @@
         <v>249.7394</v>
       </c>
       <c r="G186" t="n">
-        <v>-204267.86021792</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6895,24 +6051,15 @@
         <v>4092.6088</v>
       </c>
       <c r="G187" t="n">
-        <v>-200175.2514179201</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6934,24 +6081,15 @@
         <v>249.7394</v>
       </c>
       <c r="G188" t="n">
-        <v>-200424.99081792</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6973,24 +6111,15 @@
         <v>23.00037271</v>
       </c>
       <c r="G189" t="n">
-        <v>-200401.99044521</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7012,24 +6141,15 @@
         <v>4224.00492729</v>
       </c>
       <c r="G190" t="n">
-        <v>-200401.99044521</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7051,24 +6171,15 @@
         <v>2435.2705</v>
       </c>
       <c r="G191" t="n">
-        <v>-197966.71994521</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7090,24 +6201,15 @@
         <v>1070.321</v>
       </c>
       <c r="G192" t="n">
-        <v>-197966.71994521</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7129,24 +6231,15 @@
         <v>2092.0291</v>
       </c>
       <c r="G193" t="n">
-        <v>-197966.71994521</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7168,24 +6261,15 @@
         <v>1070.9999</v>
       </c>
       <c r="G194" t="n">
-        <v>-197966.71994521</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7207,24 +6291,15 @@
         <v>4971.8424</v>
       </c>
       <c r="G195" t="n">
-        <v>-192994.87754521</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7246,24 +6321,15 @@
         <v>871.2763</v>
       </c>
       <c r="G196" t="n">
-        <v>-193866.15384521</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7285,24 +6351,15 @@
         <v>3861.5326</v>
       </c>
       <c r="G197" t="n">
-        <v>-190004.62124521</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7324,24 +6381,15 @@
         <v>2740</v>
       </c>
       <c r="G198" t="n">
-        <v>-190004.62124521</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7363,24 +6411,15 @@
         <v>431.0019</v>
       </c>
       <c r="G199" t="n">
-        <v>-190004.62124521</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7402,24 +6441,15 @@
         <v>2620</v>
       </c>
       <c r="G200" t="n">
-        <v>-187384.62124521</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7441,24 +6471,15 @@
         <v>2585.1552</v>
       </c>
       <c r="G201" t="n">
-        <v>-184799.46604521</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7480,24 +6501,15 @@
         <v>134.3803</v>
       </c>
       <c r="G202" t="n">
-        <v>-184799.46604521</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7519,24 +6531,15 @@
         <v>937.9905</v>
       </c>
       <c r="G203" t="n">
-        <v>-184799.46604521</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7558,24 +6561,15 @@
         <v>831.9299</v>
       </c>
       <c r="G204" t="n">
-        <v>-184799.46604521</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7597,24 +6591,15 @@
         <v>14642.35296197</v>
       </c>
       <c r="G205" t="n">
-        <v>-170157.11308324</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7636,24 +6621,15 @@
         <v>5</v>
       </c>
       <c r="G206" t="n">
-        <v>-170162.11308324</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7675,24 +6651,15 @@
         <v>3143.935</v>
       </c>
       <c r="G207" t="n">
-        <v>-173306.04808324</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7714,24 +6681,15 @@
         <v>901.2575000000001</v>
       </c>
       <c r="G208" t="n">
-        <v>-173306.04808324</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7753,24 +6711,15 @@
         <v>2233.9839</v>
       </c>
       <c r="G209" t="n">
-        <v>-171072.06418324</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7792,24 +6741,15 @@
         <v>142.7158</v>
       </c>
       <c r="G210" t="n">
-        <v>-170929.34838324</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7831,24 +6771,15 @@
         <v>2.3761</v>
       </c>
       <c r="G211" t="n">
-        <v>-170926.97228324</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7870,24 +6801,15 @@
         <v>3173.5789</v>
       </c>
       <c r="G212" t="n">
-        <v>-170926.97228324</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7909,24 +6831,15 @@
         <v>3600</v>
       </c>
       <c r="G213" t="n">
-        <v>-167326.97228324</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7948,24 +6861,15 @@
         <v>2000</v>
       </c>
       <c r="G214" t="n">
-        <v>-169326.97228324</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7987,24 +6891,15 @@
         <v>9994.87143822</v>
       </c>
       <c r="G215" t="n">
-        <v>-159332.10084502</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8026,24 +6921,15 @@
         <v>868.2604</v>
       </c>
       <c r="G216" t="n">
-        <v>-160200.36124502</v>
-      </c>
-      <c r="H216" t="n">
         <v>2</v>
       </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1.030458317615994</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8065,18 +6951,15 @@
         <v>370.7396</v>
       </c>
       <c r="G217" t="n">
-        <v>-160200.36124502</v>
-      </c>
-      <c r="H217" t="n">
         <v>2</v>
       </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8098,18 +6981,15 @@
         <v>17545.2831</v>
       </c>
       <c r="G218" t="n">
-        <v>-160200.36124502</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8131,18 +7011,15 @@
         <v>16308.0954</v>
       </c>
       <c r="G219" t="n">
-        <v>-160200.36124502</v>
-      </c>
-      <c r="H219" t="n">
         <v>2</v>
       </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8164,18 +7041,15 @@
         <v>989.4508</v>
       </c>
       <c r="G220" t="n">
-        <v>-160200.36124502</v>
-      </c>
-      <c r="H220" t="n">
         <v>2</v>
       </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8197,18 +7071,15 @@
         <v>9299.0576</v>
       </c>
       <c r="G221" t="n">
-        <v>-169499.41884502</v>
-      </c>
-      <c r="H221" t="n">
         <v>2</v>
       </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8230,18 +7101,15 @@
         <v>111.9739</v>
       </c>
       <c r="G222" t="n">
-        <v>-169499.41884502</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8263,18 +7131,15 @@
         <v>33.5359</v>
       </c>
       <c r="G223" t="n">
-        <v>-169499.41884502</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8296,18 +7161,15 @@
         <v>3922.4654</v>
       </c>
       <c r="G224" t="n">
-        <v>-169499.41884502</v>
-      </c>
-      <c r="H224" t="n">
         <v>2</v>
       </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8329,18 +7191,15 @@
         <v>715.9143</v>
       </c>
       <c r="G225" t="n">
-        <v>-170215.33314502</v>
-      </c>
-      <c r="H225" t="n">
         <v>2</v>
       </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
